--- a/assest/20240626-解放项目-语音指令表-v1.0.1.xlsx
+++ b/assest/20240626-解放项目-语音指令表-v1.0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="3"/>
+    <workbookView windowWidth="16331" windowHeight="9180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="19" r:id="rId1"/>
@@ -30074,9 +30074,9 @@
   <dimension ref="A1:X200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/assest/20240626-解放项目-语音指令表-v1.0.1.xlsx
+++ b/assest/20240626-解放项目-语音指令表-v1.0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16331" windowHeight="9180" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="19" r:id="rId1"/>
@@ -1299,26 +1299,9 @@
     <t>反馈功能</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.反馈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>1.反馈
 2.我要（吐槽|反馈）
 3.我有（意见|建议）</t>
-    </r>
   </si>
   <si>
     <t>进入反馈功能录音 
@@ -6279,7 +6262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6903,9 +6886,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7371,52 +7351,52 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.2" spans="1:4">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
     </row>
     <row r="2" ht="25.8" spans="1:4">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="247" t="s">
+      <c r="C2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="247" t="s">
+      <c r="D2" s="246" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="22.2" spans="1:4">
-      <c r="A3" s="248" t="s">
+      <c r="A3" s="247" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="249">
+      <c r="B3" s="248">
         <v>45408</v>
       </c>
-      <c r="C3" s="248" t="s">
+      <c r="C3" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="250" t="s">
+      <c r="D3" s="249" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="26.4" spans="1:4">
-      <c r="A4" s="248" t="s">
+      <c r="A4" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="249">
+      <c r="B4" s="248">
         <v>45469</v>
       </c>
-      <c r="C4" s="248" t="s">
+      <c r="C4" s="247" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="251" t="s">
+      <c r="D4" s="250" t="s">
         <v>10</v>
       </c>
     </row>
@@ -14071,7 +14051,7 @@
   <dimension ref="A1:AC125"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
@@ -18730,7 +18710,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5"/>
@@ -18950,16 +18930,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:26">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="236" t="s">
+      <c r="B1" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="237" t="s">
+      <c r="C1" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="237" t="s">
+      <c r="D1" s="236" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="57"/>
@@ -18989,7 +18969,7 @@
       <c r="A2" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="238" t="s">
+      <c r="B2" s="237" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -19023,7 +19003,7 @@
     </row>
     <row r="3" ht="15" spans="1:26">
       <c r="A3" s="34"/>
-      <c r="B3" s="239"/>
+      <c r="B3" s="238"/>
       <c r="C3" s="28" t="s">
         <v>19</v>
       </c>
@@ -19055,7 +19035,7 @@
     </row>
     <row r="4" ht="60" spans="1:26">
       <c r="A4" s="34"/>
-      <c r="B4" s="239"/>
+      <c r="B4" s="238"/>
       <c r="C4" s="28" t="s">
         <v>21</v>
       </c>
@@ -19089,7 +19069,7 @@
       <c r="A5" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="240" t="s">
+      <c r="B5" s="239" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -19098,7 +19078,7 @@
       <c r="D5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="241"/>
+      <c r="E5" s="240"/>
       <c r="F5" s="57"/>
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
@@ -19123,14 +19103,14 @@
     </row>
     <row r="6" ht="27.75" customHeight="1" spans="1:26">
       <c r="A6" s="34"/>
-      <c r="B6" s="239"/>
+      <c r="B6" s="238"/>
       <c r="C6" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="241"/>
+      <c r="E6" s="240"/>
       <c r="F6" s="59"/>
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>
@@ -19155,14 +19135,14 @@
     </row>
     <row r="7" ht="69.75" customHeight="1" spans="1:26">
       <c r="A7" s="34"/>
-      <c r="B7" s="239"/>
+      <c r="B7" s="238"/>
       <c r="C7" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="241"/>
+      <c r="E7" s="240"/>
       <c r="F7" s="57"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
@@ -19187,14 +19167,14 @@
     </row>
     <row r="8" ht="69.75" customHeight="1" spans="1:26">
       <c r="A8" s="34"/>
-      <c r="B8" s="239"/>
+      <c r="B8" s="238"/>
       <c r="C8" s="28" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="241"/>
+      <c r="E8" s="240"/>
       <c r="F8" s="57"/>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
@@ -19221,7 +19201,7 @@
       <c r="A9" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="240" t="s">
+      <c r="B9" s="239" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -19255,7 +19235,7 @@
     </row>
     <row r="10" ht="60" spans="1:26">
       <c r="A10" s="34"/>
-      <c r="B10" s="239"/>
+      <c r="B10" s="238"/>
       <c r="C10" s="28" t="s">
         <v>19</v>
       </c>
@@ -19287,7 +19267,7 @@
     </row>
     <row r="11" ht="90" spans="1:26">
       <c r="A11" s="34"/>
-      <c r="B11" s="239"/>
+      <c r="B11" s="238"/>
       <c r="C11" s="28" t="s">
         <v>21</v>
       </c>
@@ -19319,7 +19299,7 @@
     </row>
     <row r="12" ht="15" spans="1:26">
       <c r="A12" s="34"/>
-      <c r="B12" s="239"/>
+      <c r="B12" s="238"/>
       <c r="C12" s="28" t="s">
         <v>4</v>
       </c>
@@ -19353,7 +19333,7 @@
       <c r="A13" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="240" t="s">
+      <c r="B13" s="239" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="28" t="s">
@@ -19387,7 +19367,7 @@
     </row>
     <row r="14" ht="45" spans="1:26">
       <c r="A14" s="34"/>
-      <c r="B14" s="239"/>
+      <c r="B14" s="238"/>
       <c r="C14" s="28" t="s">
         <v>19</v>
       </c>
@@ -19419,7 +19399,7 @@
     </row>
     <row r="15" ht="60" spans="1:26">
       <c r="A15" s="34"/>
-      <c r="B15" s="239"/>
+      <c r="B15" s="238"/>
       <c r="C15" s="28" t="s">
         <v>21</v>
       </c>
@@ -19453,7 +19433,7 @@
       <c r="A16" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="240" t="s">
+      <c r="B16" s="239" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="55" t="s">
@@ -19487,7 +19467,7 @@
     </row>
     <row r="17" ht="60" spans="1:26">
       <c r="A17" s="34"/>
-      <c r="B17" s="239"/>
+      <c r="B17" s="238"/>
       <c r="C17" s="55" t="s">
         <v>19</v>
       </c>
@@ -19519,7 +19499,7 @@
     </row>
     <row r="18" ht="60" spans="1:26">
       <c r="A18" s="34"/>
-      <c r="B18" s="239"/>
+      <c r="B18" s="238"/>
       <c r="C18" s="55" t="s">
         <v>21</v>
       </c>
@@ -19553,7 +19533,7 @@
       <c r="A19" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="242" t="s">
+      <c r="B19" s="241" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="55" t="s">
@@ -19587,8 +19567,8 @@
     </row>
     <row r="20" ht="75" spans="1:26">
       <c r="A20" s="150"/>
-      <c r="B20" s="243"/>
-      <c r="C20" s="244" t="s">
+      <c r="B20" s="242"/>
+      <c r="C20" s="243" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="111" t="s">
@@ -19618,10 +19598,10 @@
       <c r="Z20" s="59"/>
     </row>
     <row r="21" ht="15" spans="1:26">
-      <c r="A21" s="245">
+      <c r="A21" s="244">
         <v>10</v>
       </c>
-      <c r="B21" s="242" t="s">
+      <c r="B21" s="241" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -19655,7 +19635,7 @@
     </row>
     <row r="22" ht="15" spans="1:26">
       <c r="A22" s="150"/>
-      <c r="B22" s="243"/>
+      <c r="B22" s="242"/>
       <c r="C22" s="28" t="s">
         <v>19</v>
       </c>
@@ -19687,7 +19667,7 @@
     </row>
     <row r="23" ht="60" spans="1:26">
       <c r="A23" s="150"/>
-      <c r="B23" s="243"/>
+      <c r="B23" s="242"/>
       <c r="C23" s="113" t="s">
         <v>21</v>
       </c>
@@ -19721,7 +19701,7 @@
       <c r="A24" s="87">
         <v>11</v>
       </c>
-      <c r="B24" s="233" t="s">
+      <c r="B24" s="232" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="87" t="s">
@@ -24534,17 +24514,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="121.5" customHeight="1" spans="1:27">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
       <c r="J1" s="59"/>
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
@@ -24565,29 +24545,29 @@
       <c r="AA1" s="59"/>
     </row>
     <row r="2" ht="15.6" spans="1:27">
-      <c r="A2" s="218"/>
-      <c r="B2" s="218" t="s">
+      <c r="A2" s="217"/>
+      <c r="B2" s="217" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="218" t="s">
+      <c r="C2" s="217" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="218" t="s">
+      <c r="D2" s="217" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="218" t="s">
+      <c r="E2" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="218" t="s">
+      <c r="F2" s="217" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="218" t="s">
+      <c r="G2" s="217" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="218" t="s">
+      <c r="I2" s="217" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="59"/>
@@ -24610,13 +24590,13 @@
       <c r="AA2" s="59"/>
     </row>
     <row r="3" ht="27.75" customHeight="1" spans="1:27">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="219" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="219" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="221" t="s">
+      <c r="C3" s="220" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="61" t="s">
@@ -24657,7 +24637,7 @@
     <row r="4" ht="27.75" customHeight="1" spans="1:27">
       <c r="A4" s="34"/>
       <c r="B4" s="60"/>
-      <c r="C4" s="221" t="s">
+      <c r="C4" s="220" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="61" t="s">
@@ -24672,7 +24652,7 @@
       <c r="G4" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="222"/>
+      <c r="H4" s="221"/>
       <c r="I4" s="60"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
@@ -24696,7 +24676,7 @@
     <row r="5" ht="27.75" customHeight="1" spans="1:27">
       <c r="A5" s="34"/>
       <c r="B5" s="60"/>
-      <c r="C5" s="221" t="s">
+      <c r="C5" s="220" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="61" t="s">
@@ -24711,7 +24691,7 @@
       <c r="G5" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="222"/>
+      <c r="H5" s="221"/>
       <c r="I5" s="60"/>
       <c r="J5" s="59"/>
       <c r="K5" s="59"/>
@@ -24735,7 +24715,7 @@
     <row r="6" ht="27.75" customHeight="1" spans="1:27">
       <c r="A6" s="34"/>
       <c r="B6" s="60"/>
-      <c r="C6" s="221" t="s">
+      <c r="C6" s="220" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="61" t="s">
@@ -24750,7 +24730,7 @@
       <c r="G6" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="222"/>
+      <c r="H6" s="221"/>
       <c r="I6" s="60"/>
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
@@ -24774,7 +24754,7 @@
     <row r="7" ht="27.75" customHeight="1" spans="1:27">
       <c r="A7" s="34"/>
       <c r="B7" s="60"/>
-      <c r="C7" s="221" t="s">
+      <c r="C7" s="220" t="s">
         <v>77</v>
       </c>
       <c r="D7" s="61" t="s">
@@ -24789,7 +24769,7 @@
       <c r="G7" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="222"/>
+      <c r="H7" s="221"/>
       <c r="I7" s="60"/>
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
@@ -24813,7 +24793,7 @@
     <row r="8" ht="27.75" customHeight="1" spans="1:27">
       <c r="A8" s="34"/>
       <c r="B8" s="60"/>
-      <c r="C8" s="221" t="s">
+      <c r="C8" s="220" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="61" t="s">
@@ -24828,7 +24808,7 @@
       <c r="G8" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="222"/>
+      <c r="H8" s="221"/>
       <c r="I8" s="60"/>
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>
@@ -24852,7 +24832,7 @@
     <row r="9" ht="27.75" customHeight="1" spans="1:27">
       <c r="A9" s="34"/>
       <c r="B9" s="60"/>
-      <c r="C9" s="221" t="s">
+      <c r="C9" s="220" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="61" t="s">
@@ -24867,7 +24847,7 @@
       <c r="G9" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="222"/>
+      <c r="H9" s="221"/>
       <c r="I9" s="60"/>
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
@@ -24891,7 +24871,7 @@
     <row r="10" ht="74.25" customHeight="1" spans="1:27">
       <c r="A10" s="34"/>
       <c r="B10" s="60"/>
-      <c r="C10" s="221" t="s">
+      <c r="C10" s="220" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="61" t="s">
@@ -24930,7 +24910,7 @@
     <row r="11" ht="56.25" customHeight="1" spans="1:27">
       <c r="A11" s="34"/>
       <c r="B11" s="60"/>
-      <c r="C11" s="221" t="s">
+      <c r="C11" s="220" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="61" t="s">
@@ -24969,7 +24949,7 @@
     <row r="12" ht="56.25" customHeight="1" spans="1:27">
       <c r="A12" s="34"/>
       <c r="B12" s="60"/>
-      <c r="C12" s="223" t="s">
+      <c r="C12" s="222" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -25008,7 +24988,7 @@
     <row r="13" ht="55.5" customHeight="1" spans="1:27">
       <c r="A13" s="34"/>
       <c r="B13" s="60"/>
-      <c r="C13" s="221" t="s">
+      <c r="C13" s="220" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="61" t="s">
@@ -25047,7 +25027,7 @@
     <row r="14" ht="72" customHeight="1" spans="1:27">
       <c r="A14" s="34"/>
       <c r="B14" s="60"/>
-      <c r="C14" s="221" t="s">
+      <c r="C14" s="220" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="61" t="s">
@@ -25086,7 +25066,7 @@
     <row r="15" ht="59.25" customHeight="1" spans="1:27">
       <c r="A15" s="34"/>
       <c r="B15" s="60"/>
-      <c r="C15" s="221" t="s">
+      <c r="C15" s="220" t="s">
         <v>99</v>
       </c>
       <c r="D15" s="61" t="s">
@@ -25101,7 +25081,7 @@
       <c r="G15" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="222"/>
+      <c r="H15" s="221"/>
       <c r="I15" s="60"/>
       <c r="J15" s="59"/>
       <c r="K15" s="59"/>
@@ -25125,7 +25105,7 @@
     <row r="16" ht="84" customHeight="1" spans="1:27">
       <c r="A16" s="34"/>
       <c r="B16" s="60"/>
-      <c r="C16" s="221" t="s">
+      <c r="C16" s="220" t="s">
         <v>102</v>
       </c>
       <c r="D16" s="61" t="s">
@@ -25140,7 +25120,7 @@
       <c r="G16" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="222"/>
+      <c r="H16" s="221"/>
       <c r="I16" s="60"/>
       <c r="J16" s="59"/>
       <c r="K16" s="59"/>
@@ -25164,7 +25144,7 @@
     <row r="17" ht="84" customHeight="1" spans="1:27">
       <c r="A17" s="34"/>
       <c r="B17" s="60"/>
-      <c r="C17" s="221" t="s">
+      <c r="C17" s="220" t="s">
         <v>106</v>
       </c>
       <c r="D17" s="61" t="s">
@@ -25179,7 +25159,7 @@
       <c r="G17" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="222"/>
+      <c r="H17" s="221"/>
       <c r="I17" s="60"/>
       <c r="J17" s="59"/>
       <c r="K17" s="59"/>
@@ -25203,7 +25183,7 @@
     <row r="18" ht="27.75" customHeight="1" spans="1:27">
       <c r="A18" s="34"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="221" t="s">
+      <c r="C18" s="220" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="61" t="s">
@@ -25218,7 +25198,7 @@
       <c r="G18" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="222"/>
+      <c r="H18" s="221"/>
       <c r="I18" s="60"/>
       <c r="J18" s="59"/>
       <c r="K18" s="59"/>
@@ -25242,7 +25222,7 @@
     <row r="19" ht="27.75" customHeight="1" spans="1:27">
       <c r="A19" s="34"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="223" t="s">
+      <c r="C19" s="222" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="31" t="s">
@@ -25257,7 +25237,7 @@
       <c r="G19" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="222"/>
+      <c r="H19" s="221"/>
       <c r="I19" s="60"/>
       <c r="J19" s="59"/>
       <c r="K19" s="59"/>
@@ -25281,7 +25261,7 @@
     <row r="20" ht="27.75" customHeight="1" spans="1:27">
       <c r="A20" s="34"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="223" t="s">
+      <c r="C20" s="222" t="s">
         <v>114</v>
       </c>
       <c r="D20" s="31" t="s">
@@ -25296,7 +25276,7 @@
       <c r="G20" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="222"/>
+      <c r="H20" s="221"/>
       <c r="I20" s="60"/>
       <c r="J20" s="59"/>
       <c r="K20" s="59"/>
@@ -25320,7 +25300,7 @@
     <row r="21" ht="27.75" customHeight="1" spans="1:27">
       <c r="A21" s="34"/>
       <c r="B21" s="39"/>
-      <c r="C21" s="224" t="s">
+      <c r="C21" s="223" t="s">
         <v>117</v>
       </c>
       <c r="D21" s="42" t="s">
@@ -25335,7 +25315,7 @@
       <c r="G21" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="222"/>
+      <c r="H21" s="221"/>
       <c r="I21" s="60"/>
       <c r="J21" s="59"/>
       <c r="K21" s="59"/>
@@ -25357,13 +25337,13 @@
       <c r="AA21" s="59"/>
     </row>
     <row r="22" ht="111.75" customHeight="1" spans="1:27">
-      <c r="A22" s="225" t="s">
+      <c r="A22" s="224" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="226" t="s">
+      <c r="C22" s="225" t="s">
         <v>121</v>
       </c>
       <c r="D22" s="46" t="s">
@@ -25378,7 +25358,7 @@
       <c r="G22" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="222"/>
+      <c r="H22" s="221"/>
       <c r="I22" s="43"/>
       <c r="J22" s="59"/>
       <c r="K22" s="59"/>
@@ -25400,9 +25380,9 @@
       <c r="AA22" s="59"/>
     </row>
     <row r="23" ht="27.75" customHeight="1" spans="1:27">
-      <c r="A23" s="217"/>
+      <c r="A23" s="216"/>
       <c r="B23" s="98"/>
-      <c r="C23" s="226" t="s">
+      <c r="C23" s="225" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="46" t="s">
@@ -25415,7 +25395,7 @@
         <v>128</v>
       </c>
       <c r="G23" s="60"/>
-      <c r="H23" s="222"/>
+      <c r="H23" s="221"/>
       <c r="I23" s="43"/>
       <c r="J23" s="59"/>
       <c r="K23" s="59"/>
@@ -25437,9 +25417,9 @@
       <c r="AA23" s="59"/>
     </row>
     <row r="24" ht="69.75" customHeight="1" spans="1:27">
-      <c r="A24" s="217"/>
+      <c r="A24" s="216"/>
       <c r="B24" s="98"/>
-      <c r="C24" s="226" t="s">
+      <c r="C24" s="225" t="s">
         <v>129</v>
       </c>
       <c r="D24" s="46" t="s">
@@ -25454,7 +25434,7 @@
       <c r="G24" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="222"/>
+      <c r="H24" s="221"/>
       <c r="I24" s="43"/>
       <c r="J24" s="59"/>
       <c r="K24" s="59"/>
@@ -25476,9 +25456,9 @@
       <c r="AA24" s="59"/>
     </row>
     <row r="25" ht="111.75" customHeight="1" spans="1:27">
-      <c r="A25" s="217"/>
+      <c r="A25" s="216"/>
       <c r="B25" s="98"/>
-      <c r="C25" s="226" t="s">
+      <c r="C25" s="225" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="46" t="s">
@@ -25493,7 +25473,7 @@
       <c r="G25" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="222"/>
+      <c r="H25" s="221"/>
       <c r="I25" s="43"/>
       <c r="J25" s="59"/>
       <c r="K25" s="59"/>
@@ -25515,9 +25495,9 @@
       <c r="AA25" s="59"/>
     </row>
     <row r="26" ht="97.5" customHeight="1" spans="1:27">
-      <c r="A26" s="217"/>
+      <c r="A26" s="216"/>
       <c r="B26" s="98"/>
-      <c r="C26" s="227" t="s">
+      <c r="C26" s="226" t="s">
         <v>136</v>
       </c>
       <c r="D26" s="96" t="s">
@@ -25532,7 +25512,7 @@
       <c r="G26" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="222"/>
+      <c r="H26" s="221"/>
       <c r="I26" s="43"/>
       <c r="J26" s="59"/>
       <c r="K26" s="59"/>
@@ -25556,7 +25536,7 @@
     <row r="27" ht="69.75" customHeight="1" spans="1:27">
       <c r="A27" s="173"/>
       <c r="B27" s="98"/>
-      <c r="C27" s="227" t="s">
+      <c r="C27" s="226" t="s">
         <v>141</v>
       </c>
       <c r="D27" s="96" t="s">
@@ -25571,7 +25551,7 @@
       <c r="G27" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="H27" s="222"/>
+      <c r="H27" s="221"/>
       <c r="I27" s="43"/>
       <c r="J27" s="59"/>
       <c r="K27" s="59"/>
@@ -25593,14 +25573,14 @@
       <c r="AA27" s="59"/>
     </row>
     <row r="28" ht="75" spans="1:27">
-      <c r="A28" s="228" t="s">
+      <c r="A28" s="227" t="s">
         <v>146</v>
       </c>
       <c r="B28" s="98"/>
-      <c r="C28" s="229" t="s">
+      <c r="C28" s="228" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="230" t="s">
+      <c r="D28" s="229" t="s">
         <v>148</v>
       </c>
       <c r="E28" s="65" t="s">
@@ -25612,7 +25592,7 @@
       <c r="G28" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H28" s="222"/>
+      <c r="H28" s="221"/>
       <c r="I28" s="43"/>
       <c r="J28" s="59"/>
       <c r="K28" s="59"/>
@@ -25634,9 +25614,9 @@
       <c r="AA28" s="59"/>
     </row>
     <row r="29" ht="100.5" customHeight="1" spans="1:27">
-      <c r="A29" s="231"/>
+      <c r="A29" s="230"/>
       <c r="B29" s="98"/>
-      <c r="C29" s="227" t="s">
+      <c r="C29" s="226" t="s">
         <v>152</v>
       </c>
       <c r="D29" s="97" t="s">
@@ -25673,9 +25653,9 @@
       <c r="AA29" s="59"/>
     </row>
     <row r="30" ht="79.5" customHeight="1" spans="1:27">
-      <c r="A30" s="231"/>
+      <c r="A30" s="230"/>
       <c r="B30" s="98"/>
-      <c r="C30" s="232" t="s">
+      <c r="C30" s="231" t="s">
         <v>157</v>
       </c>
       <c r="D30" s="97" t="s">
@@ -25714,12 +25694,12 @@
       <c r="AA30" s="59"/>
     </row>
     <row r="31" ht="60" spans="1:27">
-      <c r="A31" s="231"/>
+      <c r="A31" s="230"/>
       <c r="B31" s="98"/>
-      <c r="C31" s="226" t="s">
+      <c r="C31" s="225" t="s">
         <v>162</v>
       </c>
-      <c r="D31" s="230" t="s">
+      <c r="D31" s="229" t="s">
         <v>163</v>
       </c>
       <c r="E31" s="65" t="s">
@@ -25753,24 +25733,24 @@
       <c r="AA31" s="59"/>
     </row>
     <row r="32" ht="90" spans="1:27">
-      <c r="A32" s="231"/>
+      <c r="A32" s="230"/>
       <c r="B32" s="98"/>
-      <c r="C32" s="233" t="s">
+      <c r="C32" s="232" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="230" t="s">
+      <c r="D32" s="229" t="s">
         <v>166</v>
       </c>
-      <c r="E32" s="234" t="s">
+      <c r="E32" s="233" t="s">
         <v>167</v>
       </c>
       <c r="F32" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="G32" s="235" t="s">
+      <c r="G32" s="234" t="s">
         <v>168</v>
       </c>
-      <c r="H32" s="222"/>
+      <c r="H32" s="221"/>
       <c r="I32" s="43"/>
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
@@ -25792,12 +25772,12 @@
       <c r="AA32" s="59"/>
     </row>
     <row r="33" ht="90" spans="1:27">
-      <c r="A33" s="231"/>
+      <c r="A33" s="230"/>
       <c r="B33" s="98"/>
-      <c r="C33" s="233" t="s">
+      <c r="C33" s="232" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="230" t="s">
+      <c r="D33" s="229" t="s">
         <v>169</v>
       </c>
       <c r="E33" s="65" t="s">
@@ -25806,7 +25786,7 @@
       <c r="F33" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="G33" s="235" t="s">
+      <c r="G33" s="234" t="s">
         <v>170</v>
       </c>
       <c r="H33" s="185"/>
@@ -30073,10 +30053,10 @@
   <sheetPr/>
   <dimension ref="A1:X200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -30119,7 +30099,7 @@
       <c r="H1" s="146" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="213" t="s">
+      <c r="I1" s="212" t="s">
         <v>179</v>
       </c>
       <c r="J1" s="146" t="s">
@@ -30386,7 +30366,7 @@
       <c r="I7" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J7" s="214"/>
+      <c r="J7" s="213"/>
       <c r="K7" s="57"/>
       <c r="L7" s="57"/>
       <c r="M7" s="57"/>
@@ -30428,7 +30408,7 @@
       <c r="I8" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="214"/>
+      <c r="J8" s="213"/>
       <c r="K8" s="57"/>
       <c r="L8" s="57"/>
       <c r="M8" s="57"/>
@@ -30470,7 +30450,7 @@
       <c r="I9" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J9" s="214"/>
+      <c r="J9" s="213"/>
       <c r="K9" s="57"/>
       <c r="L9" s="57"/>
       <c r="M9" s="57"/>
@@ -30514,7 +30494,7 @@
       <c r="I10" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J10" s="214"/>
+      <c r="J10" s="213"/>
       <c r="K10" s="57"/>
       <c r="L10" s="57"/>
       <c r="M10" s="57"/>
@@ -30556,7 +30536,7 @@
       <c r="I11" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J11" s="215"/>
+      <c r="J11" s="214"/>
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
       <c r="M11" s="57"/>
@@ -30795,7 +30775,7 @@
       <c r="B17" s="110" t="s">
         <v>251</v>
       </c>
-      <c r="C17" s="209" t="s">
+      <c r="C17" s="152" t="s">
         <v>252</v>
       </c>
       <c r="D17" s="111" t="s">
@@ -30882,7 +30862,7 @@
       <c r="A19" s="105" t="s">
         <v>262</v>
       </c>
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="209" t="s">
         <v>263</v>
       </c>
       <c r="C19" s="148" t="s">
@@ -30941,7 +30921,7 @@
       <c r="F20" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="211" t="s">
+      <c r="G20" s="210" t="s">
         <v>269</v>
       </c>
       <c r="H20" s="63" t="s">
@@ -30985,7 +30965,7 @@
       <c r="F21" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="G21" s="211" t="s">
+      <c r="G21" s="210" t="s">
         <v>150</v>
       </c>
       <c r="H21" s="63" t="s">
@@ -31013,7 +30993,7 @@
     <row r="22" spans="1:24">
       <c r="A22" s="59"/>
       <c r="B22" s="59"/>
-      <c r="C22" s="212"/>
+      <c r="C22" s="211"/>
       <c r="D22" s="59"/>
       <c r="E22" s="59"/>
       <c r="F22" s="59"/>
@@ -31039,7 +31019,7 @@
     <row r="23" spans="1:24">
       <c r="A23" s="59"/>
       <c r="B23" s="59"/>
-      <c r="C23" s="212"/>
+      <c r="C23" s="211"/>
       <c r="D23" s="59"/>
       <c r="E23" s="59"/>
       <c r="F23" s="59"/>
@@ -31065,7 +31045,7 @@
     <row r="24" spans="1:24">
       <c r="A24" s="59"/>
       <c r="B24" s="59"/>
-      <c r="C24" s="212"/>
+      <c r="C24" s="211"/>
       <c r="D24" s="59"/>
       <c r="E24" s="59"/>
       <c r="F24" s="59"/>
@@ -31091,7 +31071,7 @@
     <row r="25" spans="1:24">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
-      <c r="C25" s="212"/>
+      <c r="C25" s="211"/>
       <c r="D25" s="59"/>
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
@@ -31117,7 +31097,7 @@
     <row r="26" spans="1:24">
       <c r="A26" s="59"/>
       <c r="B26" s="59"/>
-      <c r="C26" s="212"/>
+      <c r="C26" s="211"/>
       <c r="D26" s="59"/>
       <c r="E26" s="59"/>
       <c r="F26" s="59"/>
@@ -31143,7 +31123,7 @@
     <row r="27" spans="1:24">
       <c r="A27" s="59"/>
       <c r="B27" s="59"/>
-      <c r="C27" s="212"/>
+      <c r="C27" s="211"/>
       <c r="D27" s="59"/>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
@@ -31169,7 +31149,7 @@
     <row r="28" spans="1:24">
       <c r="A28" s="59"/>
       <c r="B28" s="59"/>
-      <c r="C28" s="212"/>
+      <c r="C28" s="211"/>
       <c r="D28" s="59"/>
       <c r="E28" s="59"/>
       <c r="F28" s="59"/>
@@ -31195,7 +31175,7 @@
     <row r="29" spans="1:24">
       <c r="A29" s="59"/>
       <c r="B29" s="59"/>
-      <c r="C29" s="212"/>
+      <c r="C29" s="211"/>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
       <c r="F29" s="59"/>
@@ -31221,7 +31201,7 @@
     <row r="30" spans="1:24">
       <c r="A30" s="59"/>
       <c r="B30" s="59"/>
-      <c r="C30" s="212"/>
+      <c r="C30" s="211"/>
       <c r="D30" s="59"/>
       <c r="E30" s="59"/>
       <c r="F30" s="59"/>
@@ -31247,7 +31227,7 @@
     <row r="31" spans="1:24">
       <c r="A31" s="59"/>
       <c r="B31" s="59"/>
-      <c r="C31" s="212"/>
+      <c r="C31" s="211"/>
       <c r="D31" s="59"/>
       <c r="E31" s="59"/>
       <c r="F31" s="59"/>
@@ -31273,7 +31253,7 @@
     <row r="32" spans="1:24">
       <c r="A32" s="59"/>
       <c r="B32" s="59"/>
-      <c r="C32" s="212"/>
+      <c r="C32" s="211"/>
       <c r="D32" s="59"/>
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
@@ -31299,7 +31279,7 @@
     <row r="33" spans="1:24">
       <c r="A33" s="59"/>
       <c r="B33" s="59"/>
-      <c r="C33" s="212"/>
+      <c r="C33" s="211"/>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
@@ -31325,7 +31305,7 @@
     <row r="34" spans="1:24">
       <c r="A34" s="59"/>
       <c r="B34" s="59"/>
-      <c r="C34" s="212"/>
+      <c r="C34" s="211"/>
       <c r="D34" s="59"/>
       <c r="E34" s="59"/>
       <c r="F34" s="59"/>
@@ -31351,7 +31331,7 @@
     <row r="35" spans="1:24">
       <c r="A35" s="59"/>
       <c r="B35" s="59"/>
-      <c r="C35" s="212"/>
+      <c r="C35" s="211"/>
       <c r="D35" s="59"/>
       <c r="E35" s="59"/>
       <c r="F35" s="59"/>
@@ -31377,7 +31357,7 @@
     <row r="36" spans="1:24">
       <c r="A36" s="59"/>
       <c r="B36" s="59"/>
-      <c r="C36" s="212"/>
+      <c r="C36" s="211"/>
       <c r="D36" s="59"/>
       <c r="E36" s="59"/>
       <c r="F36" s="59"/>
@@ -31403,7 +31383,7 @@
     <row r="37" spans="1:24">
       <c r="A37" s="59"/>
       <c r="B37" s="59"/>
-      <c r="C37" s="212"/>
+      <c r="C37" s="211"/>
       <c r="D37" s="59"/>
       <c r="E37" s="59"/>
       <c r="F37" s="59"/>
@@ -31429,7 +31409,7 @@
     <row r="38" spans="1:24">
       <c r="A38" s="59"/>
       <c r="B38" s="59"/>
-      <c r="C38" s="212"/>
+      <c r="C38" s="211"/>
       <c r="D38" s="59"/>
       <c r="E38" s="59"/>
       <c r="F38" s="59"/>
@@ -31455,7 +31435,7 @@
     <row r="39" spans="1:24">
       <c r="A39" s="59"/>
       <c r="B39" s="59"/>
-      <c r="C39" s="212"/>
+      <c r="C39" s="211"/>
       <c r="D39" s="59"/>
       <c r="E39" s="59"/>
       <c r="F39" s="59"/>
@@ -31481,7 +31461,7 @@
     <row r="40" spans="1:24">
       <c r="A40" s="59"/>
       <c r="B40" s="59"/>
-      <c r="C40" s="212"/>
+      <c r="C40" s="211"/>
       <c r="D40" s="59"/>
       <c r="E40" s="59"/>
       <c r="F40" s="59"/>
@@ -31507,7 +31487,7 @@
     <row r="41" spans="1:24">
       <c r="A41" s="59"/>
       <c r="B41" s="59"/>
-      <c r="C41" s="212"/>
+      <c r="C41" s="211"/>
       <c r="D41" s="59"/>
       <c r="E41" s="59"/>
       <c r="F41" s="59"/>
@@ -31533,7 +31513,7 @@
     <row r="42" spans="1:24">
       <c r="A42" s="59"/>
       <c r="B42" s="59"/>
-      <c r="C42" s="212"/>
+      <c r="C42" s="211"/>
       <c r="D42" s="59"/>
       <c r="E42" s="59"/>
       <c r="F42" s="59"/>
@@ -31559,7 +31539,7 @@
     <row r="43" spans="1:24">
       <c r="A43" s="59"/>
       <c r="B43" s="59"/>
-      <c r="C43" s="212"/>
+      <c r="C43" s="211"/>
       <c r="D43" s="59"/>
       <c r="E43" s="59"/>
       <c r="F43" s="59"/>
@@ -31585,7 +31565,7 @@
     <row r="44" spans="1:24">
       <c r="A44" s="59"/>
       <c r="B44" s="59"/>
-      <c r="C44" s="212"/>
+      <c r="C44" s="211"/>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
       <c r="F44" s="59"/>
@@ -31611,7 +31591,7 @@
     <row r="45" spans="1:24">
       <c r="A45" s="59"/>
       <c r="B45" s="59"/>
-      <c r="C45" s="212"/>
+      <c r="C45" s="211"/>
       <c r="D45" s="59"/>
       <c r="E45" s="59"/>
       <c r="F45" s="59"/>
@@ -31637,7 +31617,7 @@
     <row r="46" spans="1:24">
       <c r="A46" s="59"/>
       <c r="B46" s="59"/>
-      <c r="C46" s="212"/>
+      <c r="C46" s="211"/>
       <c r="D46" s="59"/>
       <c r="E46" s="59"/>
       <c r="F46" s="59"/>
@@ -31663,7 +31643,7 @@
     <row r="47" spans="1:24">
       <c r="A47" s="59"/>
       <c r="B47" s="59"/>
-      <c r="C47" s="212"/>
+      <c r="C47" s="211"/>
       <c r="D47" s="59"/>
       <c r="E47" s="59"/>
       <c r="F47" s="59"/>
@@ -31689,7 +31669,7 @@
     <row r="48" spans="1:24">
       <c r="A48" s="59"/>
       <c r="B48" s="59"/>
-      <c r="C48" s="212"/>
+      <c r="C48" s="211"/>
       <c r="D48" s="59"/>
       <c r="E48" s="59"/>
       <c r="F48" s="59"/>
@@ -31715,7 +31695,7 @@
     <row r="49" spans="1:24">
       <c r="A49" s="59"/>
       <c r="B49" s="59"/>
-      <c r="C49" s="212"/>
+      <c r="C49" s="211"/>
       <c r="D49" s="59"/>
       <c r="E49" s="59"/>
       <c r="F49" s="59"/>
@@ -31741,7 +31721,7 @@
     <row r="50" spans="1:24">
       <c r="A50" s="59"/>
       <c r="B50" s="59"/>
-      <c r="C50" s="212"/>
+      <c r="C50" s="211"/>
       <c r="D50" s="59"/>
       <c r="E50" s="59"/>
       <c r="F50" s="59"/>
@@ -31767,7 +31747,7 @@
     <row r="51" spans="1:24">
       <c r="A51" s="59"/>
       <c r="B51" s="59"/>
-      <c r="C51" s="212"/>
+      <c r="C51" s="211"/>
       <c r="D51" s="59"/>
       <c r="E51" s="59"/>
       <c r="F51" s="59"/>
@@ -31793,7 +31773,7 @@
     <row r="52" spans="1:24">
       <c r="A52" s="59"/>
       <c r="B52" s="59"/>
-      <c r="C52" s="212"/>
+      <c r="C52" s="211"/>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
       <c r="F52" s="59"/>
@@ -31819,7 +31799,7 @@
     <row r="53" spans="1:24">
       <c r="A53" s="59"/>
       <c r="B53" s="59"/>
-      <c r="C53" s="212"/>
+      <c r="C53" s="211"/>
       <c r="D53" s="59"/>
       <c r="E53" s="59"/>
       <c r="F53" s="59"/>
@@ -31845,7 +31825,7 @@
     <row r="54" spans="1:24">
       <c r="A54" s="59"/>
       <c r="B54" s="59"/>
-      <c r="C54" s="212"/>
+      <c r="C54" s="211"/>
       <c r="D54" s="59"/>
       <c r="E54" s="59"/>
       <c r="F54" s="59"/>
@@ -31871,7 +31851,7 @@
     <row r="55" spans="1:24">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
-      <c r="C55" s="212"/>
+      <c r="C55" s="211"/>
       <c r="D55" s="59"/>
       <c r="E55" s="59"/>
       <c r="F55" s="59"/>
@@ -31897,7 +31877,7 @@
     <row r="56" spans="1:24">
       <c r="A56" s="59"/>
       <c r="B56" s="59"/>
-      <c r="C56" s="212"/>
+      <c r="C56" s="211"/>
       <c r="D56" s="59"/>
       <c r="E56" s="59"/>
       <c r="F56" s="59"/>
@@ -31923,7 +31903,7 @@
     <row r="57" spans="1:24">
       <c r="A57" s="59"/>
       <c r="B57" s="59"/>
-      <c r="C57" s="212"/>
+      <c r="C57" s="211"/>
       <c r="D57" s="59"/>
       <c r="E57" s="59"/>
       <c r="F57" s="59"/>
@@ -31949,7 +31929,7 @@
     <row r="58" spans="1:24">
       <c r="A58" s="59"/>
       <c r="B58" s="59"/>
-      <c r="C58" s="212"/>
+      <c r="C58" s="211"/>
       <c r="D58" s="59"/>
       <c r="E58" s="59"/>
       <c r="F58" s="59"/>
@@ -31975,7 +31955,7 @@
     <row r="59" spans="1:24">
       <c r="A59" s="59"/>
       <c r="B59" s="59"/>
-      <c r="C59" s="212"/>
+      <c r="C59" s="211"/>
       <c r="D59" s="59"/>
       <c r="E59" s="59"/>
       <c r="F59" s="59"/>
@@ -32001,7 +31981,7 @@
     <row r="60" spans="1:24">
       <c r="A60" s="59"/>
       <c r="B60" s="59"/>
-      <c r="C60" s="212"/>
+      <c r="C60" s="211"/>
       <c r="D60" s="59"/>
       <c r="E60" s="59"/>
       <c r="F60" s="59"/>
@@ -32027,7 +32007,7 @@
     <row r="61" spans="1:24">
       <c r="A61" s="59"/>
       <c r="B61" s="59"/>
-      <c r="C61" s="212"/>
+      <c r="C61" s="211"/>
       <c r="D61" s="59"/>
       <c r="E61" s="59"/>
       <c r="F61" s="59"/>
@@ -32053,7 +32033,7 @@
     <row r="62" spans="1:24">
       <c r="A62" s="59"/>
       <c r="B62" s="59"/>
-      <c r="C62" s="212"/>
+      <c r="C62" s="211"/>
       <c r="D62" s="59"/>
       <c r="E62" s="59"/>
       <c r="F62" s="59"/>
@@ -32079,7 +32059,7 @@
     <row r="63" spans="1:24">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
-      <c r="C63" s="212"/>
+      <c r="C63" s="211"/>
       <c r="D63" s="59"/>
       <c r="E63" s="59"/>
       <c r="F63" s="59"/>
@@ -32105,7 +32085,7 @@
     <row r="64" spans="1:24">
       <c r="A64" s="59"/>
       <c r="B64" s="59"/>
-      <c r="C64" s="212"/>
+      <c r="C64" s="211"/>
       <c r="D64" s="59"/>
       <c r="E64" s="59"/>
       <c r="F64" s="59"/>
@@ -32131,7 +32111,7 @@
     <row r="65" spans="1:24">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
-      <c r="C65" s="212"/>
+      <c r="C65" s="211"/>
       <c r="D65" s="59"/>
       <c r="E65" s="59"/>
       <c r="F65" s="59"/>
@@ -32157,7 +32137,7 @@
     <row r="66" spans="1:24">
       <c r="A66" s="59"/>
       <c r="B66" s="59"/>
-      <c r="C66" s="212"/>
+      <c r="C66" s="211"/>
       <c r="D66" s="59"/>
       <c r="E66" s="59"/>
       <c r="F66" s="59"/>
@@ -32183,7 +32163,7 @@
     <row r="67" spans="1:24">
       <c r="A67" s="59"/>
       <c r="B67" s="59"/>
-      <c r="C67" s="212"/>
+      <c r="C67" s="211"/>
       <c r="D67" s="59"/>
       <c r="E67" s="59"/>
       <c r="F67" s="59"/>
@@ -32209,7 +32189,7 @@
     <row r="68" spans="1:24">
       <c r="A68" s="59"/>
       <c r="B68" s="59"/>
-      <c r="C68" s="212"/>
+      <c r="C68" s="211"/>
       <c r="D68" s="59"/>
       <c r="E68" s="59"/>
       <c r="F68" s="59"/>
@@ -32235,7 +32215,7 @@
     <row r="69" spans="1:24">
       <c r="A69" s="59"/>
       <c r="B69" s="59"/>
-      <c r="C69" s="212"/>
+      <c r="C69" s="211"/>
       <c r="D69" s="59"/>
       <c r="E69" s="59"/>
       <c r="F69" s="59"/>
@@ -32261,7 +32241,7 @@
     <row r="70" spans="1:24">
       <c r="A70" s="59"/>
       <c r="B70" s="59"/>
-      <c r="C70" s="212"/>
+      <c r="C70" s="211"/>
       <c r="D70" s="59"/>
       <c r="E70" s="59"/>
       <c r="F70" s="59"/>
@@ -32287,7 +32267,7 @@
     <row r="71" spans="1:24">
       <c r="A71" s="59"/>
       <c r="B71" s="59"/>
-      <c r="C71" s="212"/>
+      <c r="C71" s="211"/>
       <c r="D71" s="59"/>
       <c r="E71" s="59"/>
       <c r="F71" s="59"/>
@@ -32313,7 +32293,7 @@
     <row r="72" spans="1:24">
       <c r="A72" s="59"/>
       <c r="B72" s="59"/>
-      <c r="C72" s="212"/>
+      <c r="C72" s="211"/>
       <c r="D72" s="59"/>
       <c r="E72" s="59"/>
       <c r="F72" s="59"/>
@@ -32339,7 +32319,7 @@
     <row r="73" spans="1:24">
       <c r="A73" s="59"/>
       <c r="B73" s="59"/>
-      <c r="C73" s="212"/>
+      <c r="C73" s="211"/>
       <c r="D73" s="59"/>
       <c r="E73" s="59"/>
       <c r="F73" s="59"/>
@@ -32365,7 +32345,7 @@
     <row r="74" spans="1:24">
       <c r="A74" s="59"/>
       <c r="B74" s="59"/>
-      <c r="C74" s="212"/>
+      <c r="C74" s="211"/>
       <c r="D74" s="59"/>
       <c r="E74" s="59"/>
       <c r="F74" s="59"/>
@@ -32391,7 +32371,7 @@
     <row r="75" spans="1:24">
       <c r="A75" s="59"/>
       <c r="B75" s="59"/>
-      <c r="C75" s="212"/>
+      <c r="C75" s="211"/>
       <c r="D75" s="59"/>
       <c r="E75" s="59"/>
       <c r="F75" s="59"/>
@@ -32417,7 +32397,7 @@
     <row r="76" spans="1:24">
       <c r="A76" s="59"/>
       <c r="B76" s="59"/>
-      <c r="C76" s="212"/>
+      <c r="C76" s="211"/>
       <c r="D76" s="59"/>
       <c r="E76" s="59"/>
       <c r="F76" s="59"/>
@@ -32443,7 +32423,7 @@
     <row r="77" spans="1:24">
       <c r="A77" s="59"/>
       <c r="B77" s="59"/>
-      <c r="C77" s="212"/>
+      <c r="C77" s="211"/>
       <c r="D77" s="59"/>
       <c r="E77" s="59"/>
       <c r="F77" s="59"/>
@@ -32469,7 +32449,7 @@
     <row r="78" spans="1:24">
       <c r="A78" s="59"/>
       <c r="B78" s="59"/>
-      <c r="C78" s="212"/>
+      <c r="C78" s="211"/>
       <c r="D78" s="59"/>
       <c r="E78" s="59"/>
       <c r="F78" s="59"/>
@@ -32495,7 +32475,7 @@
     <row r="79" spans="1:24">
       <c r="A79" s="59"/>
       <c r="B79" s="59"/>
-      <c r="C79" s="212"/>
+      <c r="C79" s="211"/>
       <c r="D79" s="59"/>
       <c r="E79" s="59"/>
       <c r="F79" s="59"/>
@@ -32521,7 +32501,7 @@
     <row r="80" spans="1:24">
       <c r="A80" s="59"/>
       <c r="B80" s="59"/>
-      <c r="C80" s="212"/>
+      <c r="C80" s="211"/>
       <c r="D80" s="59"/>
       <c r="E80" s="59"/>
       <c r="F80" s="59"/>
@@ -32547,7 +32527,7 @@
     <row r="81" spans="1:24">
       <c r="A81" s="59"/>
       <c r="B81" s="59"/>
-      <c r="C81" s="212"/>
+      <c r="C81" s="211"/>
       <c r="D81" s="59"/>
       <c r="E81" s="59"/>
       <c r="F81" s="59"/>
@@ -32573,7 +32553,7 @@
     <row r="82" spans="1:24">
       <c r="A82" s="59"/>
       <c r="B82" s="59"/>
-      <c r="C82" s="212"/>
+      <c r="C82" s="211"/>
       <c r="D82" s="59"/>
       <c r="E82" s="59"/>
       <c r="F82" s="59"/>
@@ -32599,7 +32579,7 @@
     <row r="83" spans="1:24">
       <c r="A83" s="59"/>
       <c r="B83" s="59"/>
-      <c r="C83" s="212"/>
+      <c r="C83" s="211"/>
       <c r="D83" s="59"/>
       <c r="E83" s="59"/>
       <c r="F83" s="59"/>
@@ -32625,7 +32605,7 @@
     <row r="84" spans="1:24">
       <c r="A84" s="59"/>
       <c r="B84" s="59"/>
-      <c r="C84" s="212"/>
+      <c r="C84" s="211"/>
       <c r="D84" s="59"/>
       <c r="E84" s="59"/>
       <c r="F84" s="59"/>
@@ -32651,7 +32631,7 @@
     <row r="85" spans="1:24">
       <c r="A85" s="59"/>
       <c r="B85" s="59"/>
-      <c r="C85" s="212"/>
+      <c r="C85" s="211"/>
       <c r="D85" s="59"/>
       <c r="E85" s="59"/>
       <c r="F85" s="59"/>
@@ -32677,7 +32657,7 @@
     <row r="86" spans="1:24">
       <c r="A86" s="59"/>
       <c r="B86" s="59"/>
-      <c r="C86" s="212"/>
+      <c r="C86" s="211"/>
       <c r="D86" s="59"/>
       <c r="E86" s="59"/>
       <c r="F86" s="59"/>
@@ -32703,7 +32683,7 @@
     <row r="87" spans="1:24">
       <c r="A87" s="59"/>
       <c r="B87" s="59"/>
-      <c r="C87" s="212"/>
+      <c r="C87" s="211"/>
       <c r="D87" s="59"/>
       <c r="E87" s="59"/>
       <c r="F87" s="59"/>
@@ -32729,7 +32709,7 @@
     <row r="88" spans="1:24">
       <c r="A88" s="59"/>
       <c r="B88" s="59"/>
-      <c r="C88" s="212"/>
+      <c r="C88" s="211"/>
       <c r="D88" s="59"/>
       <c r="E88" s="59"/>
       <c r="F88" s="59"/>
@@ -32755,7 +32735,7 @@
     <row r="89" spans="1:24">
       <c r="A89" s="59"/>
       <c r="B89" s="59"/>
-      <c r="C89" s="212"/>
+      <c r="C89" s="211"/>
       <c r="D89" s="59"/>
       <c r="E89" s="59"/>
       <c r="F89" s="59"/>
@@ -32781,7 +32761,7 @@
     <row r="90" spans="1:24">
       <c r="A90" s="59"/>
       <c r="B90" s="59"/>
-      <c r="C90" s="212"/>
+      <c r="C90" s="211"/>
       <c r="D90" s="59"/>
       <c r="E90" s="59"/>
       <c r="F90" s="59"/>
@@ -32807,7 +32787,7 @@
     <row r="91" spans="1:24">
       <c r="A91" s="59"/>
       <c r="B91" s="59"/>
-      <c r="C91" s="212"/>
+      <c r="C91" s="211"/>
       <c r="D91" s="59"/>
       <c r="E91" s="59"/>
       <c r="F91" s="59"/>
@@ -32833,7 +32813,7 @@
     <row r="92" spans="1:24">
       <c r="A92" s="59"/>
       <c r="B92" s="59"/>
-      <c r="C92" s="212"/>
+      <c r="C92" s="211"/>
       <c r="D92" s="59"/>
       <c r="E92" s="59"/>
       <c r="F92" s="59"/>
@@ -32859,7 +32839,7 @@
     <row r="93" spans="1:24">
       <c r="A93" s="59"/>
       <c r="B93" s="59"/>
-      <c r="C93" s="212"/>
+      <c r="C93" s="211"/>
       <c r="D93" s="59"/>
       <c r="E93" s="59"/>
       <c r="F93" s="59"/>
@@ -32885,7 +32865,7 @@
     <row r="94" spans="1:24">
       <c r="A94" s="59"/>
       <c r="B94" s="59"/>
-      <c r="C94" s="212"/>
+      <c r="C94" s="211"/>
       <c r="D94" s="59"/>
       <c r="E94" s="59"/>
       <c r="F94" s="59"/>
@@ -32911,7 +32891,7 @@
     <row r="95" spans="1:24">
       <c r="A95" s="59"/>
       <c r="B95" s="59"/>
-      <c r="C95" s="212"/>
+      <c r="C95" s="211"/>
       <c r="D95" s="59"/>
       <c r="E95" s="59"/>
       <c r="F95" s="59"/>
@@ -32937,7 +32917,7 @@
     <row r="96" spans="1:24">
       <c r="A96" s="59"/>
       <c r="B96" s="59"/>
-      <c r="C96" s="212"/>
+      <c r="C96" s="211"/>
       <c r="D96" s="59"/>
       <c r="E96" s="59"/>
       <c r="F96" s="59"/>
@@ -32963,7 +32943,7 @@
     <row r="97" spans="1:24">
       <c r="A97" s="59"/>
       <c r="B97" s="59"/>
-      <c r="C97" s="212"/>
+      <c r="C97" s="211"/>
       <c r="D97" s="59"/>
       <c r="E97" s="59"/>
       <c r="F97" s="59"/>
@@ -32989,7 +32969,7 @@
     <row r="98" spans="1:24">
       <c r="A98" s="59"/>
       <c r="B98" s="59"/>
-      <c r="C98" s="212"/>
+      <c r="C98" s="211"/>
       <c r="D98" s="59"/>
       <c r="E98" s="59"/>
       <c r="F98" s="59"/>
@@ -33015,7 +32995,7 @@
     <row r="99" spans="1:24">
       <c r="A99" s="59"/>
       <c r="B99" s="59"/>
-      <c r="C99" s="212"/>
+      <c r="C99" s="211"/>
       <c r="D99" s="59"/>
       <c r="E99" s="59"/>
       <c r="F99" s="59"/>
@@ -33041,7 +33021,7 @@
     <row r="100" spans="1:24">
       <c r="A100" s="59"/>
       <c r="B100" s="59"/>
-      <c r="C100" s="212"/>
+      <c r="C100" s="211"/>
       <c r="D100" s="59"/>
       <c r="E100" s="59"/>
       <c r="F100" s="59"/>
@@ -33067,7 +33047,7 @@
     <row r="101" spans="1:24">
       <c r="A101" s="59"/>
       <c r="B101" s="59"/>
-      <c r="C101" s="212"/>
+      <c r="C101" s="211"/>
       <c r="D101" s="59"/>
       <c r="E101" s="59"/>
       <c r="F101" s="59"/>
@@ -33093,7 +33073,7 @@
     <row r="102" spans="1:24">
       <c r="A102" s="59"/>
       <c r="B102" s="59"/>
-      <c r="C102" s="212"/>
+      <c r="C102" s="211"/>
       <c r="D102" s="59"/>
       <c r="E102" s="59"/>
       <c r="F102" s="59"/>
@@ -33119,7 +33099,7 @@
     <row r="103" spans="1:24">
       <c r="A103" s="59"/>
       <c r="B103" s="59"/>
-      <c r="C103" s="212"/>
+      <c r="C103" s="211"/>
       <c r="D103" s="59"/>
       <c r="E103" s="59"/>
       <c r="F103" s="59"/>
@@ -33145,7 +33125,7 @@
     <row r="104" spans="1:24">
       <c r="A104" s="59"/>
       <c r="B104" s="59"/>
-      <c r="C104" s="212"/>
+      <c r="C104" s="211"/>
       <c r="D104" s="59"/>
       <c r="E104" s="59"/>
       <c r="F104" s="59"/>
@@ -33171,7 +33151,7 @@
     <row r="105" spans="1:24">
       <c r="A105" s="59"/>
       <c r="B105" s="59"/>
-      <c r="C105" s="212"/>
+      <c r="C105" s="211"/>
       <c r="D105" s="59"/>
       <c r="E105" s="59"/>
       <c r="F105" s="59"/>
@@ -33197,7 +33177,7 @@
     <row r="106" spans="1:24">
       <c r="A106" s="59"/>
       <c r="B106" s="59"/>
-      <c r="C106" s="212"/>
+      <c r="C106" s="211"/>
       <c r="D106" s="59"/>
       <c r="E106" s="59"/>
       <c r="F106" s="59"/>
@@ -33223,7 +33203,7 @@
     <row r="107" spans="1:24">
       <c r="A107" s="59"/>
       <c r="B107" s="59"/>
-      <c r="C107" s="212"/>
+      <c r="C107" s="211"/>
       <c r="D107" s="59"/>
       <c r="E107" s="59"/>
       <c r="F107" s="59"/>
@@ -33249,7 +33229,7 @@
     <row r="108" spans="1:24">
       <c r="A108" s="59"/>
       <c r="B108" s="59"/>
-      <c r="C108" s="212"/>
+      <c r="C108" s="211"/>
       <c r="D108" s="59"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
@@ -33275,7 +33255,7 @@
     <row r="109" spans="1:24">
       <c r="A109" s="59"/>
       <c r="B109" s="59"/>
-      <c r="C109" s="212"/>
+      <c r="C109" s="211"/>
       <c r="D109" s="59"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
@@ -33301,7 +33281,7 @@
     <row r="110" spans="1:24">
       <c r="A110" s="59"/>
       <c r="B110" s="59"/>
-      <c r="C110" s="212"/>
+      <c r="C110" s="211"/>
       <c r="D110" s="59"/>
       <c r="E110" s="59"/>
       <c r="F110" s="59"/>
@@ -33327,7 +33307,7 @@
     <row r="111" spans="1:24">
       <c r="A111" s="59"/>
       <c r="B111" s="59"/>
-      <c r="C111" s="212"/>
+      <c r="C111" s="211"/>
       <c r="D111" s="59"/>
       <c r="E111" s="59"/>
       <c r="F111" s="59"/>
@@ -33353,7 +33333,7 @@
     <row r="112" spans="1:24">
       <c r="A112" s="59"/>
       <c r="B112" s="59"/>
-      <c r="C112" s="212"/>
+      <c r="C112" s="211"/>
       <c r="D112" s="59"/>
       <c r="E112" s="59"/>
       <c r="F112" s="59"/>
@@ -33379,7 +33359,7 @@
     <row r="113" spans="1:24">
       <c r="A113" s="59"/>
       <c r="B113" s="59"/>
-      <c r="C113" s="212"/>
+      <c r="C113" s="211"/>
       <c r="D113" s="59"/>
       <c r="E113" s="59"/>
       <c r="F113" s="59"/>
@@ -33405,7 +33385,7 @@
     <row r="114" spans="1:24">
       <c r="A114" s="59"/>
       <c r="B114" s="59"/>
-      <c r="C114" s="212"/>
+      <c r="C114" s="211"/>
       <c r="D114" s="59"/>
       <c r="E114" s="59"/>
       <c r="F114" s="59"/>
@@ -33431,7 +33411,7 @@
     <row r="115" spans="1:24">
       <c r="A115" s="59"/>
       <c r="B115" s="59"/>
-      <c r="C115" s="212"/>
+      <c r="C115" s="211"/>
       <c r="D115" s="59"/>
       <c r="E115" s="59"/>
       <c r="F115" s="59"/>
@@ -33457,7 +33437,7 @@
     <row r="116" spans="1:24">
       <c r="A116" s="59"/>
       <c r="B116" s="59"/>
-      <c r="C116" s="212"/>
+      <c r="C116" s="211"/>
       <c r="D116" s="59"/>
       <c r="E116" s="59"/>
       <c r="F116" s="59"/>
@@ -33483,7 +33463,7 @@
     <row r="117" spans="1:24">
       <c r="A117" s="59"/>
       <c r="B117" s="59"/>
-      <c r="C117" s="212"/>
+      <c r="C117" s="211"/>
       <c r="D117" s="59"/>
       <c r="E117" s="59"/>
       <c r="F117" s="59"/>
@@ -33509,7 +33489,7 @@
     <row r="118" spans="1:24">
       <c r="A118" s="59"/>
       <c r="B118" s="59"/>
-      <c r="C118" s="212"/>
+      <c r="C118" s="211"/>
       <c r="D118" s="59"/>
       <c r="E118" s="59"/>
       <c r="F118" s="59"/>
@@ -33535,7 +33515,7 @@
     <row r="119" spans="1:24">
       <c r="A119" s="59"/>
       <c r="B119" s="59"/>
-      <c r="C119" s="212"/>
+      <c r="C119" s="211"/>
       <c r="D119" s="59"/>
       <c r="E119" s="59"/>
       <c r="F119" s="59"/>
@@ -33561,7 +33541,7 @@
     <row r="120" spans="1:24">
       <c r="A120" s="59"/>
       <c r="B120" s="59"/>
-      <c r="C120" s="212"/>
+      <c r="C120" s="211"/>
       <c r="D120" s="59"/>
       <c r="E120" s="59"/>
       <c r="F120" s="59"/>
@@ -33587,7 +33567,7 @@
     <row r="121" spans="1:24">
       <c r="A121" s="59"/>
       <c r="B121" s="59"/>
-      <c r="C121" s="212"/>
+      <c r="C121" s="211"/>
       <c r="D121" s="59"/>
       <c r="E121" s="59"/>
       <c r="F121" s="59"/>
@@ -33613,7 +33593,7 @@
     <row r="122" spans="1:24">
       <c r="A122" s="59"/>
       <c r="B122" s="59"/>
-      <c r="C122" s="212"/>
+      <c r="C122" s="211"/>
       <c r="D122" s="59"/>
       <c r="E122" s="59"/>
       <c r="F122" s="59"/>
@@ -33639,7 +33619,7 @@
     <row r="123" spans="1:24">
       <c r="A123" s="59"/>
       <c r="B123" s="59"/>
-      <c r="C123" s="212"/>
+      <c r="C123" s="211"/>
       <c r="D123" s="59"/>
       <c r="E123" s="59"/>
       <c r="F123" s="59"/>
@@ -33665,7 +33645,7 @@
     <row r="124" spans="1:24">
       <c r="A124" s="59"/>
       <c r="B124" s="59"/>
-      <c r="C124" s="212"/>
+      <c r="C124" s="211"/>
       <c r="D124" s="59"/>
       <c r="E124" s="59"/>
       <c r="F124" s="59"/>
@@ -33691,7 +33671,7 @@
     <row r="125" spans="1:24">
       <c r="A125" s="59"/>
       <c r="B125" s="59"/>
-      <c r="C125" s="212"/>
+      <c r="C125" s="211"/>
       <c r="D125" s="59"/>
       <c r="E125" s="59"/>
       <c r="F125" s="59"/>
@@ -33717,7 +33697,7 @@
     <row r="126" spans="1:24">
       <c r="A126" s="59"/>
       <c r="B126" s="59"/>
-      <c r="C126" s="212"/>
+      <c r="C126" s="211"/>
       <c r="D126" s="59"/>
       <c r="E126" s="59"/>
       <c r="F126" s="59"/>
@@ -33743,7 +33723,7 @@
     <row r="127" spans="1:24">
       <c r="A127" s="59"/>
       <c r="B127" s="59"/>
-      <c r="C127" s="212"/>
+      <c r="C127" s="211"/>
       <c r="D127" s="59"/>
       <c r="E127" s="59"/>
       <c r="F127" s="59"/>
@@ -33769,7 +33749,7 @@
     <row r="128" spans="1:24">
       <c r="A128" s="59"/>
       <c r="B128" s="59"/>
-      <c r="C128" s="212"/>
+      <c r="C128" s="211"/>
       <c r="D128" s="59"/>
       <c r="E128" s="59"/>
       <c r="F128" s="59"/>
@@ -33795,7 +33775,7 @@
     <row r="129" spans="1:24">
       <c r="A129" s="59"/>
       <c r="B129" s="59"/>
-      <c r="C129" s="212"/>
+      <c r="C129" s="211"/>
       <c r="D129" s="59"/>
       <c r="E129" s="59"/>
       <c r="F129" s="59"/>
@@ -33821,7 +33801,7 @@
     <row r="130" spans="1:24">
       <c r="A130" s="59"/>
       <c r="B130" s="59"/>
-      <c r="C130" s="212"/>
+      <c r="C130" s="211"/>
       <c r="D130" s="59"/>
       <c r="E130" s="59"/>
       <c r="F130" s="59"/>
@@ -33847,7 +33827,7 @@
     <row r="131" spans="1:24">
       <c r="A131" s="59"/>
       <c r="B131" s="59"/>
-      <c r="C131" s="212"/>
+      <c r="C131" s="211"/>
       <c r="D131" s="59"/>
       <c r="E131" s="59"/>
       <c r="F131" s="59"/>
@@ -33873,7 +33853,7 @@
     <row r="132" spans="1:24">
       <c r="A132" s="59"/>
       <c r="B132" s="59"/>
-      <c r="C132" s="212"/>
+      <c r="C132" s="211"/>
       <c r="D132" s="59"/>
       <c r="E132" s="59"/>
       <c r="F132" s="59"/>
@@ -33899,7 +33879,7 @@
     <row r="133" spans="1:24">
       <c r="A133" s="59"/>
       <c r="B133" s="59"/>
-      <c r="C133" s="212"/>
+      <c r="C133" s="211"/>
       <c r="D133" s="59"/>
       <c r="E133" s="59"/>
       <c r="F133" s="59"/>
@@ -33925,7 +33905,7 @@
     <row r="134" spans="1:24">
       <c r="A134" s="59"/>
       <c r="B134" s="59"/>
-      <c r="C134" s="212"/>
+      <c r="C134" s="211"/>
       <c r="D134" s="59"/>
       <c r="E134" s="59"/>
       <c r="F134" s="59"/>
@@ -33951,7 +33931,7 @@
     <row r="135" spans="1:24">
       <c r="A135" s="59"/>
       <c r="B135" s="59"/>
-      <c r="C135" s="212"/>
+      <c r="C135" s="211"/>
       <c r="D135" s="59"/>
       <c r="E135" s="59"/>
       <c r="F135" s="59"/>
@@ -33977,7 +33957,7 @@
     <row r="136" spans="1:24">
       <c r="A136" s="59"/>
       <c r="B136" s="59"/>
-      <c r="C136" s="212"/>
+      <c r="C136" s="211"/>
       <c r="D136" s="59"/>
       <c r="E136" s="59"/>
       <c r="F136" s="59"/>
@@ -34003,7 +33983,7 @@
     <row r="137" spans="1:24">
       <c r="A137" s="59"/>
       <c r="B137" s="59"/>
-      <c r="C137" s="212"/>
+      <c r="C137" s="211"/>
       <c r="D137" s="59"/>
       <c r="E137" s="59"/>
       <c r="F137" s="59"/>
@@ -34029,7 +34009,7 @@
     <row r="138" spans="1:24">
       <c r="A138" s="59"/>
       <c r="B138" s="59"/>
-      <c r="C138" s="212"/>
+      <c r="C138" s="211"/>
       <c r="D138" s="59"/>
       <c r="E138" s="59"/>
       <c r="F138" s="59"/>
@@ -34055,7 +34035,7 @@
     <row r="139" spans="1:24">
       <c r="A139" s="59"/>
       <c r="B139" s="59"/>
-      <c r="C139" s="212"/>
+      <c r="C139" s="211"/>
       <c r="D139" s="59"/>
       <c r="E139" s="59"/>
       <c r="F139" s="59"/>
@@ -34081,7 +34061,7 @@
     <row r="140" spans="1:24">
       <c r="A140" s="59"/>
       <c r="B140" s="59"/>
-      <c r="C140" s="212"/>
+      <c r="C140" s="211"/>
       <c r="D140" s="59"/>
       <c r="E140" s="59"/>
       <c r="F140" s="59"/>
@@ -34107,7 +34087,7 @@
     <row r="141" spans="1:24">
       <c r="A141" s="59"/>
       <c r="B141" s="59"/>
-      <c r="C141" s="212"/>
+      <c r="C141" s="211"/>
       <c r="D141" s="59"/>
       <c r="E141" s="59"/>
       <c r="F141" s="59"/>
@@ -34133,7 +34113,7 @@
     <row r="142" spans="1:24">
       <c r="A142" s="59"/>
       <c r="B142" s="59"/>
-      <c r="C142" s="212"/>
+      <c r="C142" s="211"/>
       <c r="D142" s="59"/>
       <c r="E142" s="59"/>
       <c r="F142" s="59"/>
@@ -34159,7 +34139,7 @@
     <row r="143" spans="1:24">
       <c r="A143" s="59"/>
       <c r="B143" s="59"/>
-      <c r="C143" s="212"/>
+      <c r="C143" s="211"/>
       <c r="D143" s="59"/>
       <c r="E143" s="59"/>
       <c r="F143" s="59"/>
@@ -34185,7 +34165,7 @@
     <row r="144" spans="1:24">
       <c r="A144" s="59"/>
       <c r="B144" s="59"/>
-      <c r="C144" s="212"/>
+      <c r="C144" s="211"/>
       <c r="D144" s="59"/>
       <c r="E144" s="59"/>
       <c r="F144" s="59"/>
@@ -34211,7 +34191,7 @@
     <row r="145" spans="1:24">
       <c r="A145" s="59"/>
       <c r="B145" s="59"/>
-      <c r="C145" s="212"/>
+      <c r="C145" s="211"/>
       <c r="D145" s="59"/>
       <c r="E145" s="59"/>
       <c r="F145" s="59"/>
@@ -34237,7 +34217,7 @@
     <row r="146" spans="1:24">
       <c r="A146" s="59"/>
       <c r="B146" s="59"/>
-      <c r="C146" s="212"/>
+      <c r="C146" s="211"/>
       <c r="D146" s="59"/>
       <c r="E146" s="59"/>
       <c r="F146" s="59"/>
@@ -34263,7 +34243,7 @@
     <row r="147" spans="1:24">
       <c r="A147" s="59"/>
       <c r="B147" s="59"/>
-      <c r="C147" s="212"/>
+      <c r="C147" s="211"/>
       <c r="D147" s="59"/>
       <c r="E147" s="59"/>
       <c r="F147" s="59"/>
@@ -34289,7 +34269,7 @@
     <row r="148" spans="1:24">
       <c r="A148" s="59"/>
       <c r="B148" s="59"/>
-      <c r="C148" s="212"/>
+      <c r="C148" s="211"/>
       <c r="D148" s="59"/>
       <c r="E148" s="59"/>
       <c r="F148" s="59"/>
@@ -34315,7 +34295,7 @@
     <row r="149" spans="1:24">
       <c r="A149" s="59"/>
       <c r="B149" s="59"/>
-      <c r="C149" s="212"/>
+      <c r="C149" s="211"/>
       <c r="D149" s="59"/>
       <c r="E149" s="59"/>
       <c r="F149" s="59"/>
@@ -34341,7 +34321,7 @@
     <row r="150" spans="1:24">
       <c r="A150" s="59"/>
       <c r="B150" s="59"/>
-      <c r="C150" s="212"/>
+      <c r="C150" s="211"/>
       <c r="D150" s="59"/>
       <c r="E150" s="59"/>
       <c r="F150" s="59"/>
@@ -34367,7 +34347,7 @@
     <row r="151" spans="1:24">
       <c r="A151" s="59"/>
       <c r="B151" s="59"/>
-      <c r="C151" s="212"/>
+      <c r="C151" s="211"/>
       <c r="D151" s="59"/>
       <c r="E151" s="59"/>
       <c r="F151" s="59"/>
@@ -34393,7 +34373,7 @@
     <row r="152" spans="1:24">
       <c r="A152" s="59"/>
       <c r="B152" s="59"/>
-      <c r="C152" s="212"/>
+      <c r="C152" s="211"/>
       <c r="D152" s="59"/>
       <c r="E152" s="59"/>
       <c r="F152" s="59"/>
@@ -34419,7 +34399,7 @@
     <row r="153" spans="1:24">
       <c r="A153" s="59"/>
       <c r="B153" s="59"/>
-      <c r="C153" s="212"/>
+      <c r="C153" s="211"/>
       <c r="D153" s="59"/>
       <c r="E153" s="59"/>
       <c r="F153" s="59"/>
@@ -34445,7 +34425,7 @@
     <row r="154" spans="1:24">
       <c r="A154" s="59"/>
       <c r="B154" s="59"/>
-      <c r="C154" s="212"/>
+      <c r="C154" s="211"/>
       <c r="D154" s="59"/>
       <c r="E154" s="59"/>
       <c r="F154" s="59"/>
@@ -34471,7 +34451,7 @@
     <row r="155" spans="1:24">
       <c r="A155" s="59"/>
       <c r="B155" s="59"/>
-      <c r="C155" s="212"/>
+      <c r="C155" s="211"/>
       <c r="D155" s="59"/>
       <c r="E155" s="59"/>
       <c r="F155" s="59"/>
@@ -34497,7 +34477,7 @@
     <row r="156" spans="1:24">
       <c r="A156" s="59"/>
       <c r="B156" s="59"/>
-      <c r="C156" s="212"/>
+      <c r="C156" s="211"/>
       <c r="D156" s="59"/>
       <c r="E156" s="59"/>
       <c r="F156" s="59"/>
@@ -34523,7 +34503,7 @@
     <row r="157" spans="1:24">
       <c r="A157" s="59"/>
       <c r="B157" s="59"/>
-      <c r="C157" s="212"/>
+      <c r="C157" s="211"/>
       <c r="D157" s="59"/>
       <c r="E157" s="59"/>
       <c r="F157" s="59"/>
@@ -34549,7 +34529,7 @@
     <row r="158" spans="1:24">
       <c r="A158" s="59"/>
       <c r="B158" s="59"/>
-      <c r="C158" s="212"/>
+      <c r="C158" s="211"/>
       <c r="D158" s="59"/>
       <c r="E158" s="59"/>
       <c r="F158" s="59"/>
@@ -34575,7 +34555,7 @@
     <row r="159" spans="1:24">
       <c r="A159" s="59"/>
       <c r="B159" s="59"/>
-      <c r="C159" s="212"/>
+      <c r="C159" s="211"/>
       <c r="D159" s="59"/>
       <c r="E159" s="59"/>
       <c r="F159" s="59"/>
@@ -34601,7 +34581,7 @@
     <row r="160" spans="1:24">
       <c r="A160" s="59"/>
       <c r="B160" s="59"/>
-      <c r="C160" s="212"/>
+      <c r="C160" s="211"/>
       <c r="D160" s="59"/>
       <c r="E160" s="59"/>
       <c r="F160" s="59"/>
@@ -34627,7 +34607,7 @@
     <row r="161" spans="1:24">
       <c r="A161" s="59"/>
       <c r="B161" s="59"/>
-      <c r="C161" s="212"/>
+      <c r="C161" s="211"/>
       <c r="D161" s="59"/>
       <c r="E161" s="59"/>
       <c r="F161" s="59"/>
@@ -34653,7 +34633,7 @@
     <row r="162" spans="1:24">
       <c r="A162" s="59"/>
       <c r="B162" s="59"/>
-      <c r="C162" s="212"/>
+      <c r="C162" s="211"/>
       <c r="D162" s="59"/>
       <c r="E162" s="59"/>
       <c r="F162" s="59"/>
@@ -34679,7 +34659,7 @@
     <row r="163" spans="1:24">
       <c r="A163" s="59"/>
       <c r="B163" s="59"/>
-      <c r="C163" s="212"/>
+      <c r="C163" s="211"/>
       <c r="D163" s="59"/>
       <c r="E163" s="59"/>
       <c r="F163" s="59"/>
@@ -34705,7 +34685,7 @@
     <row r="164" spans="1:24">
       <c r="A164" s="59"/>
       <c r="B164" s="59"/>
-      <c r="C164" s="212"/>
+      <c r="C164" s="211"/>
       <c r="D164" s="59"/>
       <c r="E164" s="59"/>
       <c r="F164" s="59"/>
@@ -34731,7 +34711,7 @@
     <row r="165" spans="1:24">
       <c r="A165" s="59"/>
       <c r="B165" s="59"/>
-      <c r="C165" s="212"/>
+      <c r="C165" s="211"/>
       <c r="D165" s="59"/>
       <c r="E165" s="59"/>
       <c r="F165" s="59"/>
@@ -34757,7 +34737,7 @@
     <row r="166" spans="1:24">
       <c r="A166" s="59"/>
       <c r="B166" s="59"/>
-      <c r="C166" s="212"/>
+      <c r="C166" s="211"/>
       <c r="D166" s="59"/>
       <c r="E166" s="59"/>
       <c r="F166" s="59"/>
@@ -34783,7 +34763,7 @@
     <row r="167" spans="1:24">
       <c r="A167" s="59"/>
       <c r="B167" s="59"/>
-      <c r="C167" s="212"/>
+      <c r="C167" s="211"/>
       <c r="D167" s="59"/>
       <c r="E167" s="59"/>
       <c r="F167" s="59"/>
@@ -34809,7 +34789,7 @@
     <row r="168" spans="1:24">
       <c r="A168" s="59"/>
       <c r="B168" s="59"/>
-      <c r="C168" s="212"/>
+      <c r="C168" s="211"/>
       <c r="D168" s="59"/>
       <c r="E168" s="59"/>
       <c r="F168" s="59"/>
@@ -34835,7 +34815,7 @@
     <row r="169" spans="1:24">
       <c r="A169" s="59"/>
       <c r="B169" s="59"/>
-      <c r="C169" s="212"/>
+      <c r="C169" s="211"/>
       <c r="D169" s="59"/>
       <c r="E169" s="59"/>
       <c r="F169" s="59"/>
@@ -34861,7 +34841,7 @@
     <row r="170" spans="1:24">
       <c r="A170" s="59"/>
       <c r="B170" s="59"/>
-      <c r="C170" s="212"/>
+      <c r="C170" s="211"/>
       <c r="D170" s="59"/>
       <c r="E170" s="59"/>
       <c r="F170" s="59"/>
@@ -34887,7 +34867,7 @@
     <row r="171" spans="1:24">
       <c r="A171" s="59"/>
       <c r="B171" s="59"/>
-      <c r="C171" s="212"/>
+      <c r="C171" s="211"/>
       <c r="D171" s="59"/>
       <c r="E171" s="59"/>
       <c r="F171" s="59"/>
@@ -34913,7 +34893,7 @@
     <row r="172" spans="1:24">
       <c r="A172" s="59"/>
       <c r="B172" s="59"/>
-      <c r="C172" s="212"/>
+      <c r="C172" s="211"/>
       <c r="D172" s="59"/>
       <c r="E172" s="59"/>
       <c r="F172" s="59"/>
@@ -34939,7 +34919,7 @@
     <row r="173" spans="1:24">
       <c r="A173" s="59"/>
       <c r="B173" s="59"/>
-      <c r="C173" s="212"/>
+      <c r="C173" s="211"/>
       <c r="D173" s="59"/>
       <c r="E173" s="59"/>
       <c r="F173" s="59"/>
@@ -34965,7 +34945,7 @@
     <row r="174" spans="1:24">
       <c r="A174" s="59"/>
       <c r="B174" s="59"/>
-      <c r="C174" s="212"/>
+      <c r="C174" s="211"/>
       <c r="D174" s="59"/>
       <c r="E174" s="59"/>
       <c r="F174" s="59"/>
@@ -34991,7 +34971,7 @@
     <row r="175" spans="1:24">
       <c r="A175" s="59"/>
       <c r="B175" s="59"/>
-      <c r="C175" s="212"/>
+      <c r="C175" s="211"/>
       <c r="D175" s="59"/>
       <c r="E175" s="59"/>
       <c r="F175" s="59"/>
@@ -35017,7 +34997,7 @@
     <row r="176" spans="1:24">
       <c r="A176" s="59"/>
       <c r="B176" s="59"/>
-      <c r="C176" s="212"/>
+      <c r="C176" s="211"/>
       <c r="D176" s="59"/>
       <c r="E176" s="59"/>
       <c r="F176" s="59"/>
@@ -35043,7 +35023,7 @@
     <row r="177" spans="1:24">
       <c r="A177" s="59"/>
       <c r="B177" s="59"/>
-      <c r="C177" s="212"/>
+      <c r="C177" s="211"/>
       <c r="D177" s="59"/>
       <c r="E177" s="59"/>
       <c r="F177" s="59"/>
@@ -35069,7 +35049,7 @@
     <row r="178" spans="1:24">
       <c r="A178" s="59"/>
       <c r="B178" s="59"/>
-      <c r="C178" s="212"/>
+      <c r="C178" s="211"/>
       <c r="D178" s="59"/>
       <c r="E178" s="59"/>
       <c r="F178" s="59"/>
@@ -35095,7 +35075,7 @@
     <row r="179" spans="1:24">
       <c r="A179" s="59"/>
       <c r="B179" s="59"/>
-      <c r="C179" s="212"/>
+      <c r="C179" s="211"/>
       <c r="D179" s="59"/>
       <c r="E179" s="59"/>
       <c r="F179" s="59"/>
@@ -35121,7 +35101,7 @@
     <row r="180" spans="1:24">
       <c r="A180" s="59"/>
       <c r="B180" s="59"/>
-      <c r="C180" s="212"/>
+      <c r="C180" s="211"/>
       <c r="D180" s="59"/>
       <c r="E180" s="59"/>
       <c r="F180" s="59"/>
@@ -35147,7 +35127,7 @@
     <row r="181" spans="1:24">
       <c r="A181" s="59"/>
       <c r="B181" s="59"/>
-      <c r="C181" s="212"/>
+      <c r="C181" s="211"/>
       <c r="D181" s="59"/>
       <c r="E181" s="59"/>
       <c r="F181" s="59"/>
@@ -35173,7 +35153,7 @@
     <row r="182" spans="1:24">
       <c r="A182" s="59"/>
       <c r="B182" s="59"/>
-      <c r="C182" s="212"/>
+      <c r="C182" s="211"/>
       <c r="D182" s="59"/>
       <c r="E182" s="59"/>
       <c r="F182" s="59"/>
@@ -35199,7 +35179,7 @@
     <row r="183" spans="1:24">
       <c r="A183" s="59"/>
       <c r="B183" s="59"/>
-      <c r="C183" s="212"/>
+      <c r="C183" s="211"/>
       <c r="D183" s="59"/>
       <c r="E183" s="59"/>
       <c r="F183" s="59"/>
@@ -35225,7 +35205,7 @@
     <row r="184" spans="1:24">
       <c r="A184" s="59"/>
       <c r="B184" s="59"/>
-      <c r="C184" s="212"/>
+      <c r="C184" s="211"/>
       <c r="D184" s="59"/>
       <c r="E184" s="59"/>
       <c r="F184" s="59"/>
@@ -35251,7 +35231,7 @@
     <row r="185" spans="1:24">
       <c r="A185" s="59"/>
       <c r="B185" s="59"/>
-      <c r="C185" s="212"/>
+      <c r="C185" s="211"/>
       <c r="D185" s="59"/>
       <c r="E185" s="59"/>
       <c r="F185" s="59"/>
@@ -35277,7 +35257,7 @@
     <row r="186" spans="1:24">
       <c r="A186" s="59"/>
       <c r="B186" s="59"/>
-      <c r="C186" s="212"/>
+      <c r="C186" s="211"/>
       <c r="D186" s="59"/>
       <c r="E186" s="59"/>
       <c r="F186" s="59"/>
@@ -35303,7 +35283,7 @@
     <row r="187" spans="1:24">
       <c r="A187" s="59"/>
       <c r="B187" s="59"/>
-      <c r="C187" s="212"/>
+      <c r="C187" s="211"/>
       <c r="D187" s="59"/>
       <c r="E187" s="59"/>
       <c r="F187" s="59"/>
@@ -35329,7 +35309,7 @@
     <row r="188" spans="1:24">
       <c r="A188" s="59"/>
       <c r="B188" s="59"/>
-      <c r="C188" s="212"/>
+      <c r="C188" s="211"/>
       <c r="D188" s="59"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
@@ -35355,7 +35335,7 @@
     <row r="189" spans="1:24">
       <c r="A189" s="59"/>
       <c r="B189" s="59"/>
-      <c r="C189" s="212"/>
+      <c r="C189" s="211"/>
       <c r="D189" s="59"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
@@ -35381,7 +35361,7 @@
     <row r="190" spans="1:24">
       <c r="A190" s="59"/>
       <c r="B190" s="59"/>
-      <c r="C190" s="212"/>
+      <c r="C190" s="211"/>
       <c r="D190" s="59"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
@@ -35407,7 +35387,7 @@
     <row r="191" spans="1:24">
       <c r="A191" s="59"/>
       <c r="B191" s="59"/>
-      <c r="C191" s="212"/>
+      <c r="C191" s="211"/>
       <c r="D191" s="59"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
@@ -35433,7 +35413,7 @@
     <row r="192" spans="1:24">
       <c r="A192" s="59"/>
       <c r="B192" s="59"/>
-      <c r="C192" s="212"/>
+      <c r="C192" s="211"/>
       <c r="D192" s="59"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
@@ -35459,7 +35439,7 @@
     <row r="193" spans="1:24">
       <c r="A193" s="59"/>
       <c r="B193" s="59"/>
-      <c r="C193" s="212"/>
+      <c r="C193" s="211"/>
       <c r="D193" s="59"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
@@ -35485,7 +35465,7 @@
     <row r="194" spans="1:24">
       <c r="A194" s="59"/>
       <c r="B194" s="59"/>
-      <c r="C194" s="212"/>
+      <c r="C194" s="211"/>
       <c r="D194" s="59"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
@@ -35511,7 +35491,7 @@
     <row r="195" spans="1:24">
       <c r="A195" s="59"/>
       <c r="B195" s="59"/>
-      <c r="C195" s="212"/>
+      <c r="C195" s="211"/>
       <c r="D195" s="59"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
@@ -35537,7 +35517,7 @@
     <row r="196" spans="1:24">
       <c r="A196" s="59"/>
       <c r="B196" s="59"/>
-      <c r="C196" s="212"/>
+      <c r="C196" s="211"/>
       <c r="D196" s="59"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
@@ -35563,7 +35543,7 @@
     <row r="197" spans="1:24">
       <c r="A197" s="59"/>
       <c r="B197" s="59"/>
-      <c r="C197" s="212"/>
+      <c r="C197" s="211"/>
       <c r="D197" s="59"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
@@ -35589,7 +35569,7 @@
     <row r="198" spans="1:24">
       <c r="A198" s="59"/>
       <c r="B198" s="59"/>
-      <c r="C198" s="212"/>
+      <c r="C198" s="211"/>
       <c r="D198" s="59"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
@@ -35615,7 +35595,7 @@
     <row r="199" spans="1:24">
       <c r="A199" s="59"/>
       <c r="B199" s="59"/>
-      <c r="C199" s="212"/>
+      <c r="C199" s="211"/>
       <c r="D199" s="59"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
@@ -35641,7 +35621,7 @@
     <row r="200" spans="1:24">
       <c r="A200" s="59"/>
       <c r="B200" s="59"/>
-      <c r="C200" s="212"/>
+      <c r="C200" s="211"/>
       <c r="D200" s="59"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
@@ -42519,9 +42499,9 @@
   <dimension ref="A1:X199"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/assest/20240626-解放项目-语音指令表-v1.0.1.xlsx
+++ b/assest/20240626-解放项目-语音指令表-v1.0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="14255" windowHeight="7944" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="19" r:id="rId1"/>
@@ -2667,15 +2667,7 @@
     <t>通话记录中存在记录</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：具体项目需根据接入的音频APP对音频功能进行删减</t>
-    </r>
+    <t>注：具体项目需根据接入的音频APP对音频功能进行删减</t>
   </si>
   <si>
     <r>
@@ -6262,7 +6254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6690,7 +6682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6770,6 +6762,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -7351,52 +7346,52 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.2" spans="1:4">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="246" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
     </row>
     <row r="2" ht="25.8" spans="1:4">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="246" t="s">
+      <c r="C2" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="246" t="s">
+      <c r="D2" s="247" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="22.2" spans="1:4">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="248">
+      <c r="B3" s="249">
         <v>45408</v>
       </c>
-      <c r="C3" s="247" t="s">
+      <c r="C3" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="249" t="s">
+      <c r="D3" s="250" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="26.4" spans="1:4">
-      <c r="A4" s="247" t="s">
+      <c r="A4" s="248" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="248">
+      <c r="B4" s="249">
         <v>45469</v>
       </c>
-      <c r="C4" s="247" t="s">
+      <c r="C4" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="250" t="s">
+      <c r="D4" s="251" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7414,10 +7409,10 @@
   <sheetPr/>
   <dimension ref="A1:AC204"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -18915,9 +18910,9 @@
   <dimension ref="A1:Z194"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -18930,16 +18925,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:26">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="235" t="s">
+      <c r="B1" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="236" t="s">
+      <c r="C1" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="236" t="s">
+      <c r="D1" s="237" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="57"/>
@@ -18969,7 +18964,7 @@
       <c r="A2" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="238" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -19003,7 +18998,7 @@
     </row>
     <row r="3" ht="15" spans="1:26">
       <c r="A3" s="34"/>
-      <c r="B3" s="238"/>
+      <c r="B3" s="239"/>
       <c r="C3" s="28" t="s">
         <v>19</v>
       </c>
@@ -19035,7 +19030,7 @@
     </row>
     <row r="4" ht="60" spans="1:26">
       <c r="A4" s="34"/>
-      <c r="B4" s="238"/>
+      <c r="B4" s="239"/>
       <c r="C4" s="28" t="s">
         <v>21</v>
       </c>
@@ -19069,7 +19064,7 @@
       <c r="A5" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="239" t="s">
+      <c r="B5" s="240" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -19078,7 +19073,7 @@
       <c r="D5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="240"/>
+      <c r="E5" s="241"/>
       <c r="F5" s="57"/>
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
@@ -19103,14 +19098,14 @@
     </row>
     <row r="6" ht="27.75" customHeight="1" spans="1:26">
       <c r="A6" s="34"/>
-      <c r="B6" s="238"/>
+      <c r="B6" s="239"/>
       <c r="C6" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="240"/>
+      <c r="E6" s="241"/>
       <c r="F6" s="59"/>
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>
@@ -19135,14 +19130,14 @@
     </row>
     <row r="7" ht="69.75" customHeight="1" spans="1:26">
       <c r="A7" s="34"/>
-      <c r="B7" s="238"/>
+      <c r="B7" s="239"/>
       <c r="C7" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="240"/>
+      <c r="E7" s="241"/>
       <c r="F7" s="57"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
@@ -19167,14 +19162,14 @@
     </row>
     <row r="8" ht="69.75" customHeight="1" spans="1:26">
       <c r="A8" s="34"/>
-      <c r="B8" s="238"/>
+      <c r="B8" s="239"/>
       <c r="C8" s="28" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="240"/>
+      <c r="E8" s="241"/>
       <c r="F8" s="57"/>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
@@ -19201,7 +19196,7 @@
       <c r="A9" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="239" t="s">
+      <c r="B9" s="240" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -19235,7 +19230,7 @@
     </row>
     <row r="10" ht="60" spans="1:26">
       <c r="A10" s="34"/>
-      <c r="B10" s="238"/>
+      <c r="B10" s="239"/>
       <c r="C10" s="28" t="s">
         <v>19</v>
       </c>
@@ -19267,7 +19262,7 @@
     </row>
     <row r="11" ht="90" spans="1:26">
       <c r="A11" s="34"/>
-      <c r="B11" s="238"/>
+      <c r="B11" s="239"/>
       <c r="C11" s="28" t="s">
         <v>21</v>
       </c>
@@ -19299,7 +19294,7 @@
     </row>
     <row r="12" ht="15" spans="1:26">
       <c r="A12" s="34"/>
-      <c r="B12" s="238"/>
+      <c r="B12" s="239"/>
       <c r="C12" s="28" t="s">
         <v>4</v>
       </c>
@@ -19333,7 +19328,7 @@
       <c r="A13" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="239" t="s">
+      <c r="B13" s="240" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="28" t="s">
@@ -19367,7 +19362,7 @@
     </row>
     <row r="14" ht="45" spans="1:26">
       <c r="A14" s="34"/>
-      <c r="B14" s="238"/>
+      <c r="B14" s="239"/>
       <c r="C14" s="28" t="s">
         <v>19</v>
       </c>
@@ -19399,7 +19394,7 @@
     </row>
     <row r="15" ht="60" spans="1:26">
       <c r="A15" s="34"/>
-      <c r="B15" s="238"/>
+      <c r="B15" s="239"/>
       <c r="C15" s="28" t="s">
         <v>21</v>
       </c>
@@ -19433,7 +19428,7 @@
       <c r="A16" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="239" t="s">
+      <c r="B16" s="240" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="55" t="s">
@@ -19467,7 +19462,7 @@
     </row>
     <row r="17" ht="60" spans="1:26">
       <c r="A17" s="34"/>
-      <c r="B17" s="238"/>
+      <c r="B17" s="239"/>
       <c r="C17" s="55" t="s">
         <v>19</v>
       </c>
@@ -19499,7 +19494,7 @@
     </row>
     <row r="18" ht="60" spans="1:26">
       <c r="A18" s="34"/>
-      <c r="B18" s="238"/>
+      <c r="B18" s="239"/>
       <c r="C18" s="55" t="s">
         <v>21</v>
       </c>
@@ -19533,7 +19528,7 @@
       <c r="A19" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="242" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="55" t="s">
@@ -19567,8 +19562,8 @@
     </row>
     <row r="20" ht="75" spans="1:26">
       <c r="A20" s="150"/>
-      <c r="B20" s="242"/>
-      <c r="C20" s="243" t="s">
+      <c r="B20" s="243"/>
+      <c r="C20" s="244" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="111" t="s">
@@ -19598,10 +19593,10 @@
       <c r="Z20" s="59"/>
     </row>
     <row r="21" ht="15" spans="1:26">
-      <c r="A21" s="244">
+      <c r="A21" s="245">
         <v>10</v>
       </c>
-      <c r="B21" s="241" t="s">
+      <c r="B21" s="242" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -19635,7 +19630,7 @@
     </row>
     <row r="22" ht="15" spans="1:26">
       <c r="A22" s="150"/>
-      <c r="B22" s="242"/>
+      <c r="B22" s="243"/>
       <c r="C22" s="28" t="s">
         <v>19</v>
       </c>
@@ -19667,7 +19662,7 @@
     </row>
     <row r="23" ht="60" spans="1:26">
       <c r="A23" s="150"/>
-      <c r="B23" s="242"/>
+      <c r="B23" s="243"/>
       <c r="C23" s="113" t="s">
         <v>21</v>
       </c>
@@ -19701,7 +19696,7 @@
       <c r="A24" s="87">
         <v>11</v>
       </c>
-      <c r="B24" s="232" t="s">
+      <c r="B24" s="233" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="87" t="s">
@@ -24494,10 +24489,10 @@
   <sheetPr/>
   <dimension ref="A1:AA179"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -24514,17 +24509,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="121.5" customHeight="1" spans="1:27">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="216" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
       <c r="J1" s="59"/>
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
@@ -24545,29 +24540,29 @@
       <c r="AA1" s="59"/>
     </row>
     <row r="2" ht="15.6" spans="1:27">
-      <c r="A2" s="217"/>
-      <c r="B2" s="217" t="s">
+      <c r="A2" s="218"/>
+      <c r="B2" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="217" t="s">
+      <c r="C2" s="218" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="218" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="217" t="s">
+      <c r="E2" s="218" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="217" t="s">
+      <c r="F2" s="218" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="217" t="s">
+      <c r="G2" s="218" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="218" t="s">
+      <c r="H2" s="219" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="217" t="s">
+      <c r="I2" s="218" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="59"/>
@@ -24590,13 +24585,13 @@
       <c r="AA2" s="59"/>
     </row>
     <row r="3" ht="27.75" customHeight="1" spans="1:27">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="220" t="s">
+      <c r="C3" s="221" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="61" t="s">
@@ -24611,7 +24606,7 @@
       <c r="G3" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="177"/>
+      <c r="H3" s="178"/>
       <c r="I3" s="31" t="s">
         <v>70</v>
       </c>
@@ -24637,7 +24632,7 @@
     <row r="4" ht="27.75" customHeight="1" spans="1:27">
       <c r="A4" s="34"/>
       <c r="B4" s="60"/>
-      <c r="C4" s="220" t="s">
+      <c r="C4" s="221" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="61" t="s">
@@ -24652,7 +24647,7 @@
       <c r="G4" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="221"/>
+      <c r="H4" s="222"/>
       <c r="I4" s="60"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
@@ -24676,7 +24671,7 @@
     <row r="5" ht="27.75" customHeight="1" spans="1:27">
       <c r="A5" s="34"/>
       <c r="B5" s="60"/>
-      <c r="C5" s="220" t="s">
+      <c r="C5" s="221" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="61" t="s">
@@ -24691,7 +24686,7 @@
       <c r="G5" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="221"/>
+      <c r="H5" s="222"/>
       <c r="I5" s="60"/>
       <c r="J5" s="59"/>
       <c r="K5" s="59"/>
@@ -24715,7 +24710,7 @@
     <row r="6" ht="27.75" customHeight="1" spans="1:27">
       <c r="A6" s="34"/>
       <c r="B6" s="60"/>
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="221" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="61" t="s">
@@ -24730,7 +24725,7 @@
       <c r="G6" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="221"/>
+      <c r="H6" s="222"/>
       <c r="I6" s="60"/>
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
@@ -24754,7 +24749,7 @@
     <row r="7" ht="27.75" customHeight="1" spans="1:27">
       <c r="A7" s="34"/>
       <c r="B7" s="60"/>
-      <c r="C7" s="220" t="s">
+      <c r="C7" s="221" t="s">
         <v>77</v>
       </c>
       <c r="D7" s="61" t="s">
@@ -24769,7 +24764,7 @@
       <c r="G7" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="221"/>
+      <c r="H7" s="222"/>
       <c r="I7" s="60"/>
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
@@ -24793,7 +24788,7 @@
     <row r="8" ht="27.75" customHeight="1" spans="1:27">
       <c r="A8" s="34"/>
       <c r="B8" s="60"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="221" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="61" t="s">
@@ -24808,7 +24803,7 @@
       <c r="G8" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="221"/>
+      <c r="H8" s="222"/>
       <c r="I8" s="60"/>
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>
@@ -24832,7 +24827,7 @@
     <row r="9" ht="27.75" customHeight="1" spans="1:27">
       <c r="A9" s="34"/>
       <c r="B9" s="60"/>
-      <c r="C9" s="220" t="s">
+      <c r="C9" s="221" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="61" t="s">
@@ -24847,7 +24842,7 @@
       <c r="G9" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="221"/>
+      <c r="H9" s="222"/>
       <c r="I9" s="60"/>
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
@@ -24871,7 +24866,7 @@
     <row r="10" ht="74.25" customHeight="1" spans="1:27">
       <c r="A10" s="34"/>
       <c r="B10" s="60"/>
-      <c r="C10" s="220" t="s">
+      <c r="C10" s="221" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="61" t="s">
@@ -24886,7 +24881,7 @@
       <c r="G10" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="177"/>
+      <c r="H10" s="178"/>
       <c r="I10" s="60"/>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -24910,7 +24905,7 @@
     <row r="11" ht="56.25" customHeight="1" spans="1:27">
       <c r="A11" s="34"/>
       <c r="B11" s="60"/>
-      <c r="C11" s="220" t="s">
+      <c r="C11" s="221" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="61" t="s">
@@ -24925,7 +24920,7 @@
       <c r="G11" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="185"/>
+      <c r="H11" s="186"/>
       <c r="I11" s="60"/>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -24949,7 +24944,7 @@
     <row r="12" ht="56.25" customHeight="1" spans="1:27">
       <c r="A12" s="34"/>
       <c r="B12" s="60"/>
-      <c r="C12" s="222" t="s">
+      <c r="C12" s="223" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -24964,7 +24959,7 @@
       <c r="G12" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="177"/>
+      <c r="H12" s="178"/>
       <c r="I12" s="60"/>
       <c r="J12" s="59"/>
       <c r="K12" s="59"/>
@@ -24988,7 +24983,7 @@
     <row r="13" ht="55.5" customHeight="1" spans="1:27">
       <c r="A13" s="34"/>
       <c r="B13" s="60"/>
-      <c r="C13" s="220" t="s">
+      <c r="C13" s="221" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="61" t="s">
@@ -25003,7 +24998,7 @@
       <c r="G13" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="177"/>
+      <c r="H13" s="178"/>
       <c r="I13" s="60"/>
       <c r="J13" s="59"/>
       <c r="K13" s="59"/>
@@ -25027,7 +25022,7 @@
     <row r="14" ht="72" customHeight="1" spans="1:27">
       <c r="A14" s="34"/>
       <c r="B14" s="60"/>
-      <c r="C14" s="220" t="s">
+      <c r="C14" s="221" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="61" t="s">
@@ -25042,7 +25037,7 @@
       <c r="G14" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="177"/>
+      <c r="H14" s="178"/>
       <c r="I14" s="60"/>
       <c r="J14" s="59"/>
       <c r="K14" s="59"/>
@@ -25066,7 +25061,7 @@
     <row r="15" ht="59.25" customHeight="1" spans="1:27">
       <c r="A15" s="34"/>
       <c r="B15" s="60"/>
-      <c r="C15" s="220" t="s">
+      <c r="C15" s="221" t="s">
         <v>99</v>
       </c>
       <c r="D15" s="61" t="s">
@@ -25081,7 +25076,7 @@
       <c r="G15" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="221"/>
+      <c r="H15" s="222"/>
       <c r="I15" s="60"/>
       <c r="J15" s="59"/>
       <c r="K15" s="59"/>
@@ -25105,7 +25100,7 @@
     <row r="16" ht="84" customHeight="1" spans="1:27">
       <c r="A16" s="34"/>
       <c r="B16" s="60"/>
-      <c r="C16" s="220" t="s">
+      <c r="C16" s="221" t="s">
         <v>102</v>
       </c>
       <c r="D16" s="61" t="s">
@@ -25120,7 +25115,7 @@
       <c r="G16" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="221"/>
+      <c r="H16" s="222"/>
       <c r="I16" s="60"/>
       <c r="J16" s="59"/>
       <c r="K16" s="59"/>
@@ -25144,7 +25139,7 @@
     <row r="17" ht="84" customHeight="1" spans="1:27">
       <c r="A17" s="34"/>
       <c r="B17" s="60"/>
-      <c r="C17" s="220" t="s">
+      <c r="C17" s="221" t="s">
         <v>106</v>
       </c>
       <c r="D17" s="61" t="s">
@@ -25159,7 +25154,7 @@
       <c r="G17" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="221"/>
+      <c r="H17" s="222"/>
       <c r="I17" s="60"/>
       <c r="J17" s="59"/>
       <c r="K17" s="59"/>
@@ -25183,7 +25178,7 @@
     <row r="18" ht="27.75" customHeight="1" spans="1:27">
       <c r="A18" s="34"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="220" t="s">
+      <c r="C18" s="221" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="61" t="s">
@@ -25198,7 +25193,7 @@
       <c r="G18" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="221"/>
+      <c r="H18" s="222"/>
       <c r="I18" s="60"/>
       <c r="J18" s="59"/>
       <c r="K18" s="59"/>
@@ -25222,7 +25217,7 @@
     <row r="19" ht="27.75" customHeight="1" spans="1:27">
       <c r="A19" s="34"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="222" t="s">
+      <c r="C19" s="223" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="31" t="s">
@@ -25237,7 +25232,7 @@
       <c r="G19" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="221"/>
+      <c r="H19" s="222"/>
       <c r="I19" s="60"/>
       <c r="J19" s="59"/>
       <c r="K19" s="59"/>
@@ -25261,7 +25256,7 @@
     <row r="20" ht="27.75" customHeight="1" spans="1:27">
       <c r="A20" s="34"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="222" t="s">
+      <c r="C20" s="223" t="s">
         <v>114</v>
       </c>
       <c r="D20" s="31" t="s">
@@ -25276,7 +25271,7 @@
       <c r="G20" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="221"/>
+      <c r="H20" s="222"/>
       <c r="I20" s="60"/>
       <c r="J20" s="59"/>
       <c r="K20" s="59"/>
@@ -25300,7 +25295,7 @@
     <row r="21" ht="27.75" customHeight="1" spans="1:27">
       <c r="A21" s="34"/>
       <c r="B21" s="39"/>
-      <c r="C21" s="223" t="s">
+      <c r="C21" s="224" t="s">
         <v>117</v>
       </c>
       <c r="D21" s="42" t="s">
@@ -25315,7 +25310,7 @@
       <c r="G21" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="221"/>
+      <c r="H21" s="222"/>
       <c r="I21" s="60"/>
       <c r="J21" s="59"/>
       <c r="K21" s="59"/>
@@ -25337,13 +25332,13 @@
       <c r="AA21" s="59"/>
     </row>
     <row r="22" ht="111.75" customHeight="1" spans="1:27">
-      <c r="A22" s="224" t="s">
+      <c r="A22" s="225" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="225" t="s">
+      <c r="C22" s="226" t="s">
         <v>121</v>
       </c>
       <c r="D22" s="46" t="s">
@@ -25358,7 +25353,7 @@
       <c r="G22" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="221"/>
+      <c r="H22" s="222"/>
       <c r="I22" s="43"/>
       <c r="J22" s="59"/>
       <c r="K22" s="59"/>
@@ -25380,9 +25375,9 @@
       <c r="AA22" s="59"/>
     </row>
     <row r="23" ht="27.75" customHeight="1" spans="1:27">
-      <c r="A23" s="216"/>
+      <c r="A23" s="217"/>
       <c r="B23" s="98"/>
-      <c r="C23" s="225" t="s">
+      <c r="C23" s="226" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="46" t="s">
@@ -25395,7 +25390,7 @@
         <v>128</v>
       </c>
       <c r="G23" s="60"/>
-      <c r="H23" s="221"/>
+      <c r="H23" s="222"/>
       <c r="I23" s="43"/>
       <c r="J23" s="59"/>
       <c r="K23" s="59"/>
@@ -25417,9 +25412,9 @@
       <c r="AA23" s="59"/>
     </row>
     <row r="24" ht="69.75" customHeight="1" spans="1:27">
-      <c r="A24" s="216"/>
+      <c r="A24" s="217"/>
       <c r="B24" s="98"/>
-      <c r="C24" s="225" t="s">
+      <c r="C24" s="226" t="s">
         <v>129</v>
       </c>
       <c r="D24" s="46" t="s">
@@ -25434,7 +25429,7 @@
       <c r="G24" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="221"/>
+      <c r="H24" s="222"/>
       <c r="I24" s="43"/>
       <c r="J24" s="59"/>
       <c r="K24" s="59"/>
@@ -25456,9 +25451,9 @@
       <c r="AA24" s="59"/>
     </row>
     <row r="25" ht="111.75" customHeight="1" spans="1:27">
-      <c r="A25" s="216"/>
+      <c r="A25" s="217"/>
       <c r="B25" s="98"/>
-      <c r="C25" s="225" t="s">
+      <c r="C25" s="226" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="46" t="s">
@@ -25473,7 +25468,7 @@
       <c r="G25" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="221"/>
+      <c r="H25" s="222"/>
       <c r="I25" s="43"/>
       <c r="J25" s="59"/>
       <c r="K25" s="59"/>
@@ -25495,9 +25490,9 @@
       <c r="AA25" s="59"/>
     </row>
     <row r="26" ht="97.5" customHeight="1" spans="1:27">
-      <c r="A26" s="216"/>
+      <c r="A26" s="217"/>
       <c r="B26" s="98"/>
-      <c r="C26" s="226" t="s">
+      <c r="C26" s="227" t="s">
         <v>136</v>
       </c>
       <c r="D26" s="96" t="s">
@@ -25512,7 +25507,7 @@
       <c r="G26" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="221"/>
+      <c r="H26" s="222"/>
       <c r="I26" s="43"/>
       <c r="J26" s="59"/>
       <c r="K26" s="59"/>
@@ -25534,9 +25529,9 @@
       <c r="AA26" s="59"/>
     </row>
     <row r="27" ht="69.75" customHeight="1" spans="1:27">
-      <c r="A27" s="173"/>
+      <c r="A27" s="174"/>
       <c r="B27" s="98"/>
-      <c r="C27" s="226" t="s">
+      <c r="C27" s="227" t="s">
         <v>141</v>
       </c>
       <c r="D27" s="96" t="s">
@@ -25551,7 +25546,7 @@
       <c r="G27" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="H27" s="221"/>
+      <c r="H27" s="222"/>
       <c r="I27" s="43"/>
       <c r="J27" s="59"/>
       <c r="K27" s="59"/>
@@ -25573,14 +25568,14 @@
       <c r="AA27" s="59"/>
     </row>
     <row r="28" ht="75" spans="1:27">
-      <c r="A28" s="227" t="s">
+      <c r="A28" s="228" t="s">
         <v>146</v>
       </c>
       <c r="B28" s="98"/>
-      <c r="C28" s="228" t="s">
+      <c r="C28" s="229" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="229" t="s">
+      <c r="D28" s="230" t="s">
         <v>148</v>
       </c>
       <c r="E28" s="65" t="s">
@@ -25592,7 +25587,7 @@
       <c r="G28" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H28" s="221"/>
+      <c r="H28" s="222"/>
       <c r="I28" s="43"/>
       <c r="J28" s="59"/>
       <c r="K28" s="59"/>
@@ -25614,9 +25609,9 @@
       <c r="AA28" s="59"/>
     </row>
     <row r="29" ht="100.5" customHeight="1" spans="1:27">
-      <c r="A29" s="230"/>
+      <c r="A29" s="231"/>
       <c r="B29" s="98"/>
-      <c r="C29" s="226" t="s">
+      <c r="C29" s="227" t="s">
         <v>152</v>
       </c>
       <c r="D29" s="97" t="s">
@@ -25631,7 +25626,7 @@
       <c r="G29" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="H29" s="185"/>
+      <c r="H29" s="186"/>
       <c r="I29" s="63"/>
       <c r="J29" s="59"/>
       <c r="K29" s="59"/>
@@ -25653,9 +25648,9 @@
       <c r="AA29" s="59"/>
     </row>
     <row r="30" ht="79.5" customHeight="1" spans="1:27">
-      <c r="A30" s="230"/>
+      <c r="A30" s="231"/>
       <c r="B30" s="98"/>
-      <c r="C30" s="231" t="s">
+      <c r="C30" s="232" t="s">
         <v>157</v>
       </c>
       <c r="D30" s="97" t="s">
@@ -25670,7 +25665,7 @@
       <c r="G30" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="H30" s="185"/>
+      <c r="H30" s="186"/>
       <c r="I30" s="31" t="s">
         <v>161</v>
       </c>
@@ -25694,12 +25689,12 @@
       <c r="AA30" s="59"/>
     </row>
     <row r="31" ht="60" spans="1:27">
-      <c r="A31" s="230"/>
+      <c r="A31" s="231"/>
       <c r="B31" s="98"/>
-      <c r="C31" s="225" t="s">
+      <c r="C31" s="226" t="s">
         <v>162</v>
       </c>
-      <c r="D31" s="229" t="s">
+      <c r="D31" s="230" t="s">
         <v>163</v>
       </c>
       <c r="E31" s="65" t="s">
@@ -25711,7 +25706,7 @@
       <c r="G31" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="H31" s="185"/>
+      <c r="H31" s="186"/>
       <c r="I31" s="63"/>
       <c r="J31" s="59"/>
       <c r="K31" s="59"/>
@@ -25733,24 +25728,24 @@
       <c r="AA31" s="59"/>
     </row>
     <row r="32" ht="90" spans="1:27">
-      <c r="A32" s="230"/>
+      <c r="A32" s="231"/>
       <c r="B32" s="98"/>
-      <c r="C32" s="232" t="s">
+      <c r="C32" s="233" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="229" t="s">
+      <c r="D32" s="230" t="s">
         <v>166</v>
       </c>
-      <c r="E32" s="233" t="s">
+      <c r="E32" s="234" t="s">
         <v>167</v>
       </c>
       <c r="F32" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="G32" s="234" t="s">
+      <c r="G32" s="235" t="s">
         <v>168</v>
       </c>
-      <c r="H32" s="221"/>
+      <c r="H32" s="222"/>
       <c r="I32" s="43"/>
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
@@ -25772,12 +25767,12 @@
       <c r="AA32" s="59"/>
     </row>
     <row r="33" ht="90" spans="1:27">
-      <c r="A33" s="230"/>
+      <c r="A33" s="231"/>
       <c r="B33" s="98"/>
-      <c r="C33" s="232" t="s">
+      <c r="C33" s="233" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="229" t="s">
+      <c r="D33" s="230" t="s">
         <v>169</v>
       </c>
       <c r="E33" s="65" t="s">
@@ -25786,10 +25781,10 @@
       <c r="F33" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="G33" s="234" t="s">
+      <c r="G33" s="235" t="s">
         <v>170</v>
       </c>
-      <c r="H33" s="185"/>
+      <c r="H33" s="186"/>
       <c r="I33" s="63"/>
       <c r="J33" s="59"/>
       <c r="K33" s="59"/>
@@ -30053,10 +30048,10 @@
   <sheetPr/>
   <dimension ref="A1:X200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A11"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -30099,7 +30094,7 @@
       <c r="H1" s="146" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="212" t="s">
+      <c r="I1" s="213" t="s">
         <v>179</v>
       </c>
       <c r="J1" s="146" t="s">
@@ -30345,7 +30340,7 @@
       <c r="B7" s="106" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="206" t="s">
+      <c r="C7" s="207" t="s">
         <v>209</v>
       </c>
       <c r="D7" s="31" t="s">
@@ -30366,7 +30361,7 @@
       <c r="I7" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J7" s="213"/>
+      <c r="J7" s="214"/>
       <c r="K7" s="57"/>
       <c r="L7" s="57"/>
       <c r="M7" s="57"/>
@@ -30408,7 +30403,7 @@
       <c r="I8" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="213"/>
+      <c r="J8" s="214"/>
       <c r="K8" s="57"/>
       <c r="L8" s="57"/>
       <c r="M8" s="57"/>
@@ -30425,7 +30420,7 @@
       <c r="X8" s="57"/>
     </row>
     <row r="9" ht="15" spans="1:24">
-      <c r="A9" s="207"/>
+      <c r="A9" s="208"/>
       <c r="B9" s="106" t="s">
         <v>215</v>
       </c>
@@ -30450,7 +30445,7 @@
       <c r="I9" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J9" s="213"/>
+      <c r="J9" s="214"/>
       <c r="K9" s="57"/>
       <c r="L9" s="57"/>
       <c r="M9" s="57"/>
@@ -30494,7 +30489,7 @@
       <c r="I10" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J10" s="213"/>
+      <c r="J10" s="214"/>
       <c r="K10" s="57"/>
       <c r="L10" s="57"/>
       <c r="M10" s="57"/>
@@ -30536,7 +30531,7 @@
       <c r="I11" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J11" s="214"/>
+      <c r="J11" s="215"/>
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
       <c r="M11" s="57"/>
@@ -30553,7 +30548,7 @@
       <c r="X11" s="59"/>
     </row>
     <row r="12" ht="75" spans="1:24">
-      <c r="A12" s="208" t="s">
+      <c r="A12" s="209" t="s">
         <v>226</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -30862,7 +30857,7 @@
       <c r="A19" s="105" t="s">
         <v>262</v>
       </c>
-      <c r="B19" s="209" t="s">
+      <c r="B19" s="210" t="s">
         <v>263</v>
       </c>
       <c r="C19" s="148" t="s">
@@ -30903,10 +30898,10 @@
       <c r="X19" s="57"/>
     </row>
     <row r="20" ht="15" spans="1:24">
-      <c r="A20" s="186" t="s">
+      <c r="A20" s="187" t="s">
         <v>267</v>
       </c>
-      <c r="B20" s="191" t="s">
+      <c r="B20" s="192" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="148" t="s">
@@ -30921,7 +30916,7 @@
       <c r="F20" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="210" t="s">
+      <c r="G20" s="211" t="s">
         <v>269</v>
       </c>
       <c r="H20" s="63" t="s">
@@ -30947,10 +30942,10 @@
       <c r="X20" s="57"/>
     </row>
     <row r="21" ht="135" spans="1:24">
-      <c r="A21" s="186" t="s">
+      <c r="A21" s="187" t="s">
         <v>270</v>
       </c>
-      <c r="B21" s="191" t="s">
+      <c r="B21" s="192" t="s">
         <v>271</v>
       </c>
       <c r="C21" s="148" t="s">
@@ -30965,7 +30960,7 @@
       <c r="F21" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="G21" s="210" t="s">
+      <c r="G21" s="211" t="s">
         <v>150</v>
       </c>
       <c r="H21" s="63" t="s">
@@ -30993,7 +30988,7 @@
     <row r="22" spans="1:24">
       <c r="A22" s="59"/>
       <c r="B22" s="59"/>
-      <c r="C22" s="211"/>
+      <c r="C22" s="212"/>
       <c r="D22" s="59"/>
       <c r="E22" s="59"/>
       <c r="F22" s="59"/>
@@ -31019,7 +31014,7 @@
     <row r="23" spans="1:24">
       <c r="A23" s="59"/>
       <c r="B23" s="59"/>
-      <c r="C23" s="211"/>
+      <c r="C23" s="212"/>
       <c r="D23" s="59"/>
       <c r="E23" s="59"/>
       <c r="F23" s="59"/>
@@ -31045,7 +31040,7 @@
     <row r="24" spans="1:24">
       <c r="A24" s="59"/>
       <c r="B24" s="59"/>
-      <c r="C24" s="211"/>
+      <c r="C24" s="212"/>
       <c r="D24" s="59"/>
       <c r="E24" s="59"/>
       <c r="F24" s="59"/>
@@ -31071,7 +31066,7 @@
     <row r="25" spans="1:24">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
-      <c r="C25" s="211"/>
+      <c r="C25" s="212"/>
       <c r="D25" s="59"/>
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
@@ -31097,7 +31092,7 @@
     <row r="26" spans="1:24">
       <c r="A26" s="59"/>
       <c r="B26" s="59"/>
-      <c r="C26" s="211"/>
+      <c r="C26" s="212"/>
       <c r="D26" s="59"/>
       <c r="E26" s="59"/>
       <c r="F26" s="59"/>
@@ -31123,7 +31118,7 @@
     <row r="27" spans="1:24">
       <c r="A27" s="59"/>
       <c r="B27" s="59"/>
-      <c r="C27" s="211"/>
+      <c r="C27" s="212"/>
       <c r="D27" s="59"/>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
@@ -31149,7 +31144,7 @@
     <row r="28" spans="1:24">
       <c r="A28" s="59"/>
       <c r="B28" s="59"/>
-      <c r="C28" s="211"/>
+      <c r="C28" s="212"/>
       <c r="D28" s="59"/>
       <c r="E28" s="59"/>
       <c r="F28" s="59"/>
@@ -31175,7 +31170,7 @@
     <row r="29" spans="1:24">
       <c r="A29" s="59"/>
       <c r="B29" s="59"/>
-      <c r="C29" s="211"/>
+      <c r="C29" s="212"/>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
       <c r="F29" s="59"/>
@@ -31201,7 +31196,7 @@
     <row r="30" spans="1:24">
       <c r="A30" s="59"/>
       <c r="B30" s="59"/>
-      <c r="C30" s="211"/>
+      <c r="C30" s="212"/>
       <c r="D30" s="59"/>
       <c r="E30" s="59"/>
       <c r="F30" s="59"/>
@@ -31227,7 +31222,7 @@
     <row r="31" spans="1:24">
       <c r="A31" s="59"/>
       <c r="B31" s="59"/>
-      <c r="C31" s="211"/>
+      <c r="C31" s="212"/>
       <c r="D31" s="59"/>
       <c r="E31" s="59"/>
       <c r="F31" s="59"/>
@@ -31253,7 +31248,7 @@
     <row r="32" spans="1:24">
       <c r="A32" s="59"/>
       <c r="B32" s="59"/>
-      <c r="C32" s="211"/>
+      <c r="C32" s="212"/>
       <c r="D32" s="59"/>
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
@@ -31279,7 +31274,7 @@
     <row r="33" spans="1:24">
       <c r="A33" s="59"/>
       <c r="B33" s="59"/>
-      <c r="C33" s="211"/>
+      <c r="C33" s="212"/>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
@@ -31305,7 +31300,7 @@
     <row r="34" spans="1:24">
       <c r="A34" s="59"/>
       <c r="B34" s="59"/>
-      <c r="C34" s="211"/>
+      <c r="C34" s="212"/>
       <c r="D34" s="59"/>
       <c r="E34" s="59"/>
       <c r="F34" s="59"/>
@@ -31331,7 +31326,7 @@
     <row r="35" spans="1:24">
       <c r="A35" s="59"/>
       <c r="B35" s="59"/>
-      <c r="C35" s="211"/>
+      <c r="C35" s="212"/>
       <c r="D35" s="59"/>
       <c r="E35" s="59"/>
       <c r="F35" s="59"/>
@@ -31357,7 +31352,7 @@
     <row r="36" spans="1:24">
       <c r="A36" s="59"/>
       <c r="B36" s="59"/>
-      <c r="C36" s="211"/>
+      <c r="C36" s="212"/>
       <c r="D36" s="59"/>
       <c r="E36" s="59"/>
       <c r="F36" s="59"/>
@@ -31383,7 +31378,7 @@
     <row r="37" spans="1:24">
       <c r="A37" s="59"/>
       <c r="B37" s="59"/>
-      <c r="C37" s="211"/>
+      <c r="C37" s="212"/>
       <c r="D37" s="59"/>
       <c r="E37" s="59"/>
       <c r="F37" s="59"/>
@@ -31409,7 +31404,7 @@
     <row r="38" spans="1:24">
       <c r="A38" s="59"/>
       <c r="B38" s="59"/>
-      <c r="C38" s="211"/>
+      <c r="C38" s="212"/>
       <c r="D38" s="59"/>
       <c r="E38" s="59"/>
       <c r="F38" s="59"/>
@@ -31435,7 +31430,7 @@
     <row r="39" spans="1:24">
       <c r="A39" s="59"/>
       <c r="B39" s="59"/>
-      <c r="C39" s="211"/>
+      <c r="C39" s="212"/>
       <c r="D39" s="59"/>
       <c r="E39" s="59"/>
       <c r="F39" s="59"/>
@@ -31461,7 +31456,7 @@
     <row r="40" spans="1:24">
       <c r="A40" s="59"/>
       <c r="B40" s="59"/>
-      <c r="C40" s="211"/>
+      <c r="C40" s="212"/>
       <c r="D40" s="59"/>
       <c r="E40" s="59"/>
       <c r="F40" s="59"/>
@@ -31487,7 +31482,7 @@
     <row r="41" spans="1:24">
       <c r="A41" s="59"/>
       <c r="B41" s="59"/>
-      <c r="C41" s="211"/>
+      <c r="C41" s="212"/>
       <c r="D41" s="59"/>
       <c r="E41" s="59"/>
       <c r="F41" s="59"/>
@@ -31513,7 +31508,7 @@
     <row r="42" spans="1:24">
       <c r="A42" s="59"/>
       <c r="B42" s="59"/>
-      <c r="C42" s="211"/>
+      <c r="C42" s="212"/>
       <c r="D42" s="59"/>
       <c r="E42" s="59"/>
       <c r="F42" s="59"/>
@@ -31539,7 +31534,7 @@
     <row r="43" spans="1:24">
       <c r="A43" s="59"/>
       <c r="B43" s="59"/>
-      <c r="C43" s="211"/>
+      <c r="C43" s="212"/>
       <c r="D43" s="59"/>
       <c r="E43" s="59"/>
       <c r="F43" s="59"/>
@@ -31565,7 +31560,7 @@
     <row r="44" spans="1:24">
       <c r="A44" s="59"/>
       <c r="B44" s="59"/>
-      <c r="C44" s="211"/>
+      <c r="C44" s="212"/>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
       <c r="F44" s="59"/>
@@ -31591,7 +31586,7 @@
     <row r="45" spans="1:24">
       <c r="A45" s="59"/>
       <c r="B45" s="59"/>
-      <c r="C45" s="211"/>
+      <c r="C45" s="212"/>
       <c r="D45" s="59"/>
       <c r="E45" s="59"/>
       <c r="F45" s="59"/>
@@ -31617,7 +31612,7 @@
     <row r="46" spans="1:24">
       <c r="A46" s="59"/>
       <c r="B46" s="59"/>
-      <c r="C46" s="211"/>
+      <c r="C46" s="212"/>
       <c r="D46" s="59"/>
       <c r="E46" s="59"/>
       <c r="F46" s="59"/>
@@ -31643,7 +31638,7 @@
     <row r="47" spans="1:24">
       <c r="A47" s="59"/>
       <c r="B47" s="59"/>
-      <c r="C47" s="211"/>
+      <c r="C47" s="212"/>
       <c r="D47" s="59"/>
       <c r="E47" s="59"/>
       <c r="F47" s="59"/>
@@ -31669,7 +31664,7 @@
     <row r="48" spans="1:24">
       <c r="A48" s="59"/>
       <c r="B48" s="59"/>
-      <c r="C48" s="211"/>
+      <c r="C48" s="212"/>
       <c r="D48" s="59"/>
       <c r="E48" s="59"/>
       <c r="F48" s="59"/>
@@ -31695,7 +31690,7 @@
     <row r="49" spans="1:24">
       <c r="A49" s="59"/>
       <c r="B49" s="59"/>
-      <c r="C49" s="211"/>
+      <c r="C49" s="212"/>
       <c r="D49" s="59"/>
       <c r="E49" s="59"/>
       <c r="F49" s="59"/>
@@ -31721,7 +31716,7 @@
     <row r="50" spans="1:24">
       <c r="A50" s="59"/>
       <c r="B50" s="59"/>
-      <c r="C50" s="211"/>
+      <c r="C50" s="212"/>
       <c r="D50" s="59"/>
       <c r="E50" s="59"/>
       <c r="F50" s="59"/>
@@ -31747,7 +31742,7 @@
     <row r="51" spans="1:24">
       <c r="A51" s="59"/>
       <c r="B51" s="59"/>
-      <c r="C51" s="211"/>
+      <c r="C51" s="212"/>
       <c r="D51" s="59"/>
       <c r="E51" s="59"/>
       <c r="F51" s="59"/>
@@ -31773,7 +31768,7 @@
     <row r="52" spans="1:24">
       <c r="A52" s="59"/>
       <c r="B52" s="59"/>
-      <c r="C52" s="211"/>
+      <c r="C52" s="212"/>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
       <c r="F52" s="59"/>
@@ -31799,7 +31794,7 @@
     <row r="53" spans="1:24">
       <c r="A53" s="59"/>
       <c r="B53" s="59"/>
-      <c r="C53" s="211"/>
+      <c r="C53" s="212"/>
       <c r="D53" s="59"/>
       <c r="E53" s="59"/>
       <c r="F53" s="59"/>
@@ -31825,7 +31820,7 @@
     <row r="54" spans="1:24">
       <c r="A54" s="59"/>
       <c r="B54" s="59"/>
-      <c r="C54" s="211"/>
+      <c r="C54" s="212"/>
       <c r="D54" s="59"/>
       <c r="E54" s="59"/>
       <c r="F54" s="59"/>
@@ -31851,7 +31846,7 @@
     <row r="55" spans="1:24">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
-      <c r="C55" s="211"/>
+      <c r="C55" s="212"/>
       <c r="D55" s="59"/>
       <c r="E55" s="59"/>
       <c r="F55" s="59"/>
@@ -31877,7 +31872,7 @@
     <row r="56" spans="1:24">
       <c r="A56" s="59"/>
       <c r="B56" s="59"/>
-      <c r="C56" s="211"/>
+      <c r="C56" s="212"/>
       <c r="D56" s="59"/>
       <c r="E56" s="59"/>
       <c r="F56" s="59"/>
@@ -31903,7 +31898,7 @@
     <row r="57" spans="1:24">
       <c r="A57" s="59"/>
       <c r="B57" s="59"/>
-      <c r="C57" s="211"/>
+      <c r="C57" s="212"/>
       <c r="D57" s="59"/>
       <c r="E57" s="59"/>
       <c r="F57" s="59"/>
@@ -31929,7 +31924,7 @@
     <row r="58" spans="1:24">
       <c r="A58" s="59"/>
       <c r="B58" s="59"/>
-      <c r="C58" s="211"/>
+      <c r="C58" s="212"/>
       <c r="D58" s="59"/>
       <c r="E58" s="59"/>
       <c r="F58" s="59"/>
@@ -31955,7 +31950,7 @@
     <row r="59" spans="1:24">
       <c r="A59" s="59"/>
       <c r="B59" s="59"/>
-      <c r="C59" s="211"/>
+      <c r="C59" s="212"/>
       <c r="D59" s="59"/>
       <c r="E59" s="59"/>
       <c r="F59" s="59"/>
@@ -31981,7 +31976,7 @@
     <row r="60" spans="1:24">
       <c r="A60" s="59"/>
       <c r="B60" s="59"/>
-      <c r="C60" s="211"/>
+      <c r="C60" s="212"/>
       <c r="D60" s="59"/>
       <c r="E60" s="59"/>
       <c r="F60" s="59"/>
@@ -32007,7 +32002,7 @@
     <row r="61" spans="1:24">
       <c r="A61" s="59"/>
       <c r="B61" s="59"/>
-      <c r="C61" s="211"/>
+      <c r="C61" s="212"/>
       <c r="D61" s="59"/>
       <c r="E61" s="59"/>
       <c r="F61" s="59"/>
@@ -32033,7 +32028,7 @@
     <row r="62" spans="1:24">
       <c r="A62" s="59"/>
       <c r="B62" s="59"/>
-      <c r="C62" s="211"/>
+      <c r="C62" s="212"/>
       <c r="D62" s="59"/>
       <c r="E62" s="59"/>
       <c r="F62" s="59"/>
@@ -32059,7 +32054,7 @@
     <row r="63" spans="1:24">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
-      <c r="C63" s="211"/>
+      <c r="C63" s="212"/>
       <c r="D63" s="59"/>
       <c r="E63" s="59"/>
       <c r="F63" s="59"/>
@@ -32085,7 +32080,7 @@
     <row r="64" spans="1:24">
       <c r="A64" s="59"/>
       <c r="B64" s="59"/>
-      <c r="C64" s="211"/>
+      <c r="C64" s="212"/>
       <c r="D64" s="59"/>
       <c r="E64" s="59"/>
       <c r="F64" s="59"/>
@@ -32111,7 +32106,7 @@
     <row r="65" spans="1:24">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
-      <c r="C65" s="211"/>
+      <c r="C65" s="212"/>
       <c r="D65" s="59"/>
       <c r="E65" s="59"/>
       <c r="F65" s="59"/>
@@ -32137,7 +32132,7 @@
     <row r="66" spans="1:24">
       <c r="A66" s="59"/>
       <c r="B66" s="59"/>
-      <c r="C66" s="211"/>
+      <c r="C66" s="212"/>
       <c r="D66" s="59"/>
       <c r="E66" s="59"/>
       <c r="F66" s="59"/>
@@ -32163,7 +32158,7 @@
     <row r="67" spans="1:24">
       <c r="A67" s="59"/>
       <c r="B67" s="59"/>
-      <c r="C67" s="211"/>
+      <c r="C67" s="212"/>
       <c r="D67" s="59"/>
       <c r="E67" s="59"/>
       <c r="F67" s="59"/>
@@ -32189,7 +32184,7 @@
     <row r="68" spans="1:24">
       <c r="A68" s="59"/>
       <c r="B68" s="59"/>
-      <c r="C68" s="211"/>
+      <c r="C68" s="212"/>
       <c r="D68" s="59"/>
       <c r="E68" s="59"/>
       <c r="F68" s="59"/>
@@ -32215,7 +32210,7 @@
     <row r="69" spans="1:24">
       <c r="A69" s="59"/>
       <c r="B69" s="59"/>
-      <c r="C69" s="211"/>
+      <c r="C69" s="212"/>
       <c r="D69" s="59"/>
       <c r="E69" s="59"/>
       <c r="F69" s="59"/>
@@ -32241,7 +32236,7 @@
     <row r="70" spans="1:24">
       <c r="A70" s="59"/>
       <c r="B70" s="59"/>
-      <c r="C70" s="211"/>
+      <c r="C70" s="212"/>
       <c r="D70" s="59"/>
       <c r="E70" s="59"/>
       <c r="F70" s="59"/>
@@ -32267,7 +32262,7 @@
     <row r="71" spans="1:24">
       <c r="A71" s="59"/>
       <c r="B71" s="59"/>
-      <c r="C71" s="211"/>
+      <c r="C71" s="212"/>
       <c r="D71" s="59"/>
       <c r="E71" s="59"/>
       <c r="F71" s="59"/>
@@ -32293,7 +32288,7 @@
     <row r="72" spans="1:24">
       <c r="A72" s="59"/>
       <c r="B72" s="59"/>
-      <c r="C72" s="211"/>
+      <c r="C72" s="212"/>
       <c r="D72" s="59"/>
       <c r="E72" s="59"/>
       <c r="F72" s="59"/>
@@ -32319,7 +32314,7 @@
     <row r="73" spans="1:24">
       <c r="A73" s="59"/>
       <c r="B73" s="59"/>
-      <c r="C73" s="211"/>
+      <c r="C73" s="212"/>
       <c r="D73" s="59"/>
       <c r="E73" s="59"/>
       <c r="F73" s="59"/>
@@ -32345,7 +32340,7 @@
     <row r="74" spans="1:24">
       <c r="A74" s="59"/>
       <c r="B74" s="59"/>
-      <c r="C74" s="211"/>
+      <c r="C74" s="212"/>
       <c r="D74" s="59"/>
       <c r="E74" s="59"/>
       <c r="F74" s="59"/>
@@ -32371,7 +32366,7 @@
     <row r="75" spans="1:24">
       <c r="A75" s="59"/>
       <c r="B75" s="59"/>
-      <c r="C75" s="211"/>
+      <c r="C75" s="212"/>
       <c r="D75" s="59"/>
       <c r="E75" s="59"/>
       <c r="F75" s="59"/>
@@ -32397,7 +32392,7 @@
     <row r="76" spans="1:24">
       <c r="A76" s="59"/>
       <c r="B76" s="59"/>
-      <c r="C76" s="211"/>
+      <c r="C76" s="212"/>
       <c r="D76" s="59"/>
       <c r="E76" s="59"/>
       <c r="F76" s="59"/>
@@ -32423,7 +32418,7 @@
     <row r="77" spans="1:24">
       <c r="A77" s="59"/>
       <c r="B77" s="59"/>
-      <c r="C77" s="211"/>
+      <c r="C77" s="212"/>
       <c r="D77" s="59"/>
       <c r="E77" s="59"/>
       <c r="F77" s="59"/>
@@ -32449,7 +32444,7 @@
     <row r="78" spans="1:24">
       <c r="A78" s="59"/>
       <c r="B78" s="59"/>
-      <c r="C78" s="211"/>
+      <c r="C78" s="212"/>
       <c r="D78" s="59"/>
       <c r="E78" s="59"/>
       <c r="F78" s="59"/>
@@ -32475,7 +32470,7 @@
     <row r="79" spans="1:24">
       <c r="A79" s="59"/>
       <c r="B79" s="59"/>
-      <c r="C79" s="211"/>
+      <c r="C79" s="212"/>
       <c r="D79" s="59"/>
       <c r="E79" s="59"/>
       <c r="F79" s="59"/>
@@ -32501,7 +32496,7 @@
     <row r="80" spans="1:24">
       <c r="A80" s="59"/>
       <c r="B80" s="59"/>
-      <c r="C80" s="211"/>
+      <c r="C80" s="212"/>
       <c r="D80" s="59"/>
       <c r="E80" s="59"/>
       <c r="F80" s="59"/>
@@ -32527,7 +32522,7 @@
     <row r="81" spans="1:24">
       <c r="A81" s="59"/>
       <c r="B81" s="59"/>
-      <c r="C81" s="211"/>
+      <c r="C81" s="212"/>
       <c r="D81" s="59"/>
       <c r="E81" s="59"/>
       <c r="F81" s="59"/>
@@ -32553,7 +32548,7 @@
     <row r="82" spans="1:24">
       <c r="A82" s="59"/>
       <c r="B82" s="59"/>
-      <c r="C82" s="211"/>
+      <c r="C82" s="212"/>
       <c r="D82" s="59"/>
       <c r="E82" s="59"/>
       <c r="F82" s="59"/>
@@ -32579,7 +32574,7 @@
     <row r="83" spans="1:24">
       <c r="A83" s="59"/>
       <c r="B83" s="59"/>
-      <c r="C83" s="211"/>
+      <c r="C83" s="212"/>
       <c r="D83" s="59"/>
       <c r="E83" s="59"/>
       <c r="F83" s="59"/>
@@ -32605,7 +32600,7 @@
     <row r="84" spans="1:24">
       <c r="A84" s="59"/>
       <c r="B84" s="59"/>
-      <c r="C84" s="211"/>
+      <c r="C84" s="212"/>
       <c r="D84" s="59"/>
       <c r="E84" s="59"/>
       <c r="F84" s="59"/>
@@ -32631,7 +32626,7 @@
     <row r="85" spans="1:24">
       <c r="A85" s="59"/>
       <c r="B85" s="59"/>
-      <c r="C85" s="211"/>
+      <c r="C85" s="212"/>
       <c r="D85" s="59"/>
       <c r="E85" s="59"/>
       <c r="F85" s="59"/>
@@ -32657,7 +32652,7 @@
     <row r="86" spans="1:24">
       <c r="A86" s="59"/>
       <c r="B86" s="59"/>
-      <c r="C86" s="211"/>
+      <c r="C86" s="212"/>
       <c r="D86" s="59"/>
       <c r="E86" s="59"/>
       <c r="F86" s="59"/>
@@ -32683,7 +32678,7 @@
     <row r="87" spans="1:24">
       <c r="A87" s="59"/>
       <c r="B87" s="59"/>
-      <c r="C87" s="211"/>
+      <c r="C87" s="212"/>
       <c r="D87" s="59"/>
       <c r="E87" s="59"/>
       <c r="F87" s="59"/>
@@ -32709,7 +32704,7 @@
     <row r="88" spans="1:24">
       <c r="A88" s="59"/>
       <c r="B88" s="59"/>
-      <c r="C88" s="211"/>
+      <c r="C88" s="212"/>
       <c r="D88" s="59"/>
       <c r="E88" s="59"/>
       <c r="F88" s="59"/>
@@ -32735,7 +32730,7 @@
     <row r="89" spans="1:24">
       <c r="A89" s="59"/>
       <c r="B89" s="59"/>
-      <c r="C89" s="211"/>
+      <c r="C89" s="212"/>
       <c r="D89" s="59"/>
       <c r="E89" s="59"/>
       <c r="F89" s="59"/>
@@ -32761,7 +32756,7 @@
     <row r="90" spans="1:24">
       <c r="A90" s="59"/>
       <c r="B90" s="59"/>
-      <c r="C90" s="211"/>
+      <c r="C90" s="212"/>
       <c r="D90" s="59"/>
       <c r="E90" s="59"/>
       <c r="F90" s="59"/>
@@ -32787,7 +32782,7 @@
     <row r="91" spans="1:24">
       <c r="A91" s="59"/>
       <c r="B91" s="59"/>
-      <c r="C91" s="211"/>
+      <c r="C91" s="212"/>
       <c r="D91" s="59"/>
       <c r="E91" s="59"/>
       <c r="F91" s="59"/>
@@ -32813,7 +32808,7 @@
     <row r="92" spans="1:24">
       <c r="A92" s="59"/>
       <c r="B92" s="59"/>
-      <c r="C92" s="211"/>
+      <c r="C92" s="212"/>
       <c r="D92" s="59"/>
       <c r="E92" s="59"/>
       <c r="F92" s="59"/>
@@ -32839,7 +32834,7 @@
     <row r="93" spans="1:24">
       <c r="A93" s="59"/>
       <c r="B93" s="59"/>
-      <c r="C93" s="211"/>
+      <c r="C93" s="212"/>
       <c r="D93" s="59"/>
       <c r="E93" s="59"/>
       <c r="F93" s="59"/>
@@ -32865,7 +32860,7 @@
     <row r="94" spans="1:24">
       <c r="A94" s="59"/>
       <c r="B94" s="59"/>
-      <c r="C94" s="211"/>
+      <c r="C94" s="212"/>
       <c r="D94" s="59"/>
       <c r="E94" s="59"/>
       <c r="F94" s="59"/>
@@ -32891,7 +32886,7 @@
     <row r="95" spans="1:24">
       <c r="A95" s="59"/>
       <c r="B95" s="59"/>
-      <c r="C95" s="211"/>
+      <c r="C95" s="212"/>
       <c r="D95" s="59"/>
       <c r="E95" s="59"/>
       <c r="F95" s="59"/>
@@ -32917,7 +32912,7 @@
     <row r="96" spans="1:24">
       <c r="A96" s="59"/>
       <c r="B96" s="59"/>
-      <c r="C96" s="211"/>
+      <c r="C96" s="212"/>
       <c r="D96" s="59"/>
       <c r="E96" s="59"/>
       <c r="F96" s="59"/>
@@ -32943,7 +32938,7 @@
     <row r="97" spans="1:24">
       <c r="A97" s="59"/>
       <c r="B97" s="59"/>
-      <c r="C97" s="211"/>
+      <c r="C97" s="212"/>
       <c r="D97" s="59"/>
       <c r="E97" s="59"/>
       <c r="F97" s="59"/>
@@ -32969,7 +32964,7 @@
     <row r="98" spans="1:24">
       <c r="A98" s="59"/>
       <c r="B98" s="59"/>
-      <c r="C98" s="211"/>
+      <c r="C98" s="212"/>
       <c r="D98" s="59"/>
       <c r="E98" s="59"/>
       <c r="F98" s="59"/>
@@ -32995,7 +32990,7 @@
     <row r="99" spans="1:24">
       <c r="A99" s="59"/>
       <c r="B99" s="59"/>
-      <c r="C99" s="211"/>
+      <c r="C99" s="212"/>
       <c r="D99" s="59"/>
       <c r="E99" s="59"/>
       <c r="F99" s="59"/>
@@ -33021,7 +33016,7 @@
     <row r="100" spans="1:24">
       <c r="A100" s="59"/>
       <c r="B100" s="59"/>
-      <c r="C100" s="211"/>
+      <c r="C100" s="212"/>
       <c r="D100" s="59"/>
       <c r="E100" s="59"/>
       <c r="F100" s="59"/>
@@ -33047,7 +33042,7 @@
     <row r="101" spans="1:24">
       <c r="A101" s="59"/>
       <c r="B101" s="59"/>
-      <c r="C101" s="211"/>
+      <c r="C101" s="212"/>
       <c r="D101" s="59"/>
       <c r="E101" s="59"/>
       <c r="F101" s="59"/>
@@ -33073,7 +33068,7 @@
     <row r="102" spans="1:24">
       <c r="A102" s="59"/>
       <c r="B102" s="59"/>
-      <c r="C102" s="211"/>
+      <c r="C102" s="212"/>
       <c r="D102" s="59"/>
       <c r="E102" s="59"/>
       <c r="F102" s="59"/>
@@ -33099,7 +33094,7 @@
     <row r="103" spans="1:24">
       <c r="A103" s="59"/>
       <c r="B103" s="59"/>
-      <c r="C103" s="211"/>
+      <c r="C103" s="212"/>
       <c r="D103" s="59"/>
       <c r="E103" s="59"/>
       <c r="F103" s="59"/>
@@ -33125,7 +33120,7 @@
     <row r="104" spans="1:24">
       <c r="A104" s="59"/>
       <c r="B104" s="59"/>
-      <c r="C104" s="211"/>
+      <c r="C104" s="212"/>
       <c r="D104" s="59"/>
       <c r="E104" s="59"/>
       <c r="F104" s="59"/>
@@ -33151,7 +33146,7 @@
     <row r="105" spans="1:24">
       <c r="A105" s="59"/>
       <c r="B105" s="59"/>
-      <c r="C105" s="211"/>
+      <c r="C105" s="212"/>
       <c r="D105" s="59"/>
       <c r="E105" s="59"/>
       <c r="F105" s="59"/>
@@ -33177,7 +33172,7 @@
     <row r="106" spans="1:24">
       <c r="A106" s="59"/>
       <c r="B106" s="59"/>
-      <c r="C106" s="211"/>
+      <c r="C106" s="212"/>
       <c r="D106" s="59"/>
       <c r="E106" s="59"/>
       <c r="F106" s="59"/>
@@ -33203,7 +33198,7 @@
     <row r="107" spans="1:24">
       <c r="A107" s="59"/>
       <c r="B107" s="59"/>
-      <c r="C107" s="211"/>
+      <c r="C107" s="212"/>
       <c r="D107" s="59"/>
       <c r="E107" s="59"/>
       <c r="F107" s="59"/>
@@ -33229,7 +33224,7 @@
     <row r="108" spans="1:24">
       <c r="A108" s="59"/>
       <c r="B108" s="59"/>
-      <c r="C108" s="211"/>
+      <c r="C108" s="212"/>
       <c r="D108" s="59"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
@@ -33255,7 +33250,7 @@
     <row r="109" spans="1:24">
       <c r="A109" s="59"/>
       <c r="B109" s="59"/>
-      <c r="C109" s="211"/>
+      <c r="C109" s="212"/>
       <c r="D109" s="59"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
@@ -33281,7 +33276,7 @@
     <row r="110" spans="1:24">
       <c r="A110" s="59"/>
       <c r="B110" s="59"/>
-      <c r="C110" s="211"/>
+      <c r="C110" s="212"/>
       <c r="D110" s="59"/>
       <c r="E110" s="59"/>
       <c r="F110" s="59"/>
@@ -33307,7 +33302,7 @@
     <row r="111" spans="1:24">
       <c r="A111" s="59"/>
       <c r="B111" s="59"/>
-      <c r="C111" s="211"/>
+      <c r="C111" s="212"/>
       <c r="D111" s="59"/>
       <c r="E111" s="59"/>
       <c r="F111" s="59"/>
@@ -33333,7 +33328,7 @@
     <row r="112" spans="1:24">
       <c r="A112" s="59"/>
       <c r="B112" s="59"/>
-      <c r="C112" s="211"/>
+      <c r="C112" s="212"/>
       <c r="D112" s="59"/>
       <c r="E112" s="59"/>
       <c r="F112" s="59"/>
@@ -33359,7 +33354,7 @@
     <row r="113" spans="1:24">
       <c r="A113" s="59"/>
       <c r="B113" s="59"/>
-      <c r="C113" s="211"/>
+      <c r="C113" s="212"/>
       <c r="D113" s="59"/>
       <c r="E113" s="59"/>
       <c r="F113" s="59"/>
@@ -33385,7 +33380,7 @@
     <row r="114" spans="1:24">
       <c r="A114" s="59"/>
       <c r="B114" s="59"/>
-      <c r="C114" s="211"/>
+      <c r="C114" s="212"/>
       <c r="D114" s="59"/>
       <c r="E114" s="59"/>
       <c r="F114" s="59"/>
@@ -33411,7 +33406,7 @@
     <row r="115" spans="1:24">
       <c r="A115" s="59"/>
       <c r="B115" s="59"/>
-      <c r="C115" s="211"/>
+      <c r="C115" s="212"/>
       <c r="D115" s="59"/>
       <c r="E115" s="59"/>
       <c r="F115" s="59"/>
@@ -33437,7 +33432,7 @@
     <row r="116" spans="1:24">
       <c r="A116" s="59"/>
       <c r="B116" s="59"/>
-      <c r="C116" s="211"/>
+      <c r="C116" s="212"/>
       <c r="D116" s="59"/>
       <c r="E116" s="59"/>
       <c r="F116" s="59"/>
@@ -33463,7 +33458,7 @@
     <row r="117" spans="1:24">
       <c r="A117" s="59"/>
       <c r="B117" s="59"/>
-      <c r="C117" s="211"/>
+      <c r="C117" s="212"/>
       <c r="D117" s="59"/>
       <c r="E117" s="59"/>
       <c r="F117" s="59"/>
@@ -33489,7 +33484,7 @@
     <row r="118" spans="1:24">
       <c r="A118" s="59"/>
       <c r="B118" s="59"/>
-      <c r="C118" s="211"/>
+      <c r="C118" s="212"/>
       <c r="D118" s="59"/>
       <c r="E118" s="59"/>
       <c r="F118" s="59"/>
@@ -33515,7 +33510,7 @@
     <row r="119" spans="1:24">
       <c r="A119" s="59"/>
       <c r="B119" s="59"/>
-      <c r="C119" s="211"/>
+      <c r="C119" s="212"/>
       <c r="D119" s="59"/>
       <c r="E119" s="59"/>
       <c r="F119" s="59"/>
@@ -33541,7 +33536,7 @@
     <row r="120" spans="1:24">
       <c r="A120" s="59"/>
       <c r="B120" s="59"/>
-      <c r="C120" s="211"/>
+      <c r="C120" s="212"/>
       <c r="D120" s="59"/>
       <c r="E120" s="59"/>
       <c r="F120" s="59"/>
@@ -33567,7 +33562,7 @@
     <row r="121" spans="1:24">
       <c r="A121" s="59"/>
       <c r="B121" s="59"/>
-      <c r="C121" s="211"/>
+      <c r="C121" s="212"/>
       <c r="D121" s="59"/>
       <c r="E121" s="59"/>
       <c r="F121" s="59"/>
@@ -33593,7 +33588,7 @@
     <row r="122" spans="1:24">
       <c r="A122" s="59"/>
       <c r="B122" s="59"/>
-      <c r="C122" s="211"/>
+      <c r="C122" s="212"/>
       <c r="D122" s="59"/>
       <c r="E122" s="59"/>
       <c r="F122" s="59"/>
@@ -33619,7 +33614,7 @@
     <row r="123" spans="1:24">
       <c r="A123" s="59"/>
       <c r="B123" s="59"/>
-      <c r="C123" s="211"/>
+      <c r="C123" s="212"/>
       <c r="D123" s="59"/>
       <c r="E123" s="59"/>
       <c r="F123" s="59"/>
@@ -33645,7 +33640,7 @@
     <row r="124" spans="1:24">
       <c r="A124" s="59"/>
       <c r="B124" s="59"/>
-      <c r="C124" s="211"/>
+      <c r="C124" s="212"/>
       <c r="D124" s="59"/>
       <c r="E124" s="59"/>
       <c r="F124" s="59"/>
@@ -33671,7 +33666,7 @@
     <row r="125" spans="1:24">
       <c r="A125" s="59"/>
       <c r="B125" s="59"/>
-      <c r="C125" s="211"/>
+      <c r="C125" s="212"/>
       <c r="D125" s="59"/>
       <c r="E125" s="59"/>
       <c r="F125" s="59"/>
@@ -33697,7 +33692,7 @@
     <row r="126" spans="1:24">
       <c r="A126" s="59"/>
       <c r="B126" s="59"/>
-      <c r="C126" s="211"/>
+      <c r="C126" s="212"/>
       <c r="D126" s="59"/>
       <c r="E126" s="59"/>
       <c r="F126" s="59"/>
@@ -33723,7 +33718,7 @@
     <row r="127" spans="1:24">
       <c r="A127" s="59"/>
       <c r="B127" s="59"/>
-      <c r="C127" s="211"/>
+      <c r="C127" s="212"/>
       <c r="D127" s="59"/>
       <c r="E127" s="59"/>
       <c r="F127" s="59"/>
@@ -33749,7 +33744,7 @@
     <row r="128" spans="1:24">
       <c r="A128" s="59"/>
       <c r="B128" s="59"/>
-      <c r="C128" s="211"/>
+      <c r="C128" s="212"/>
       <c r="D128" s="59"/>
       <c r="E128" s="59"/>
       <c r="F128" s="59"/>
@@ -33775,7 +33770,7 @@
     <row r="129" spans="1:24">
       <c r="A129" s="59"/>
       <c r="B129" s="59"/>
-      <c r="C129" s="211"/>
+      <c r="C129" s="212"/>
       <c r="D129" s="59"/>
       <c r="E129" s="59"/>
       <c r="F129" s="59"/>
@@ -33801,7 +33796,7 @@
     <row r="130" spans="1:24">
       <c r="A130" s="59"/>
       <c r="B130" s="59"/>
-      <c r="C130" s="211"/>
+      <c r="C130" s="212"/>
       <c r="D130" s="59"/>
       <c r="E130" s="59"/>
       <c r="F130" s="59"/>
@@ -33827,7 +33822,7 @@
     <row r="131" spans="1:24">
       <c r="A131" s="59"/>
       <c r="B131" s="59"/>
-      <c r="C131" s="211"/>
+      <c r="C131" s="212"/>
       <c r="D131" s="59"/>
       <c r="E131" s="59"/>
       <c r="F131" s="59"/>
@@ -33853,7 +33848,7 @@
     <row r="132" spans="1:24">
       <c r="A132" s="59"/>
       <c r="B132" s="59"/>
-      <c r="C132" s="211"/>
+      <c r="C132" s="212"/>
       <c r="D132" s="59"/>
       <c r="E132" s="59"/>
       <c r="F132" s="59"/>
@@ -33879,7 +33874,7 @@
     <row r="133" spans="1:24">
       <c r="A133" s="59"/>
       <c r="B133" s="59"/>
-      <c r="C133" s="211"/>
+      <c r="C133" s="212"/>
       <c r="D133" s="59"/>
       <c r="E133" s="59"/>
       <c r="F133" s="59"/>
@@ -33905,7 +33900,7 @@
     <row r="134" spans="1:24">
       <c r="A134" s="59"/>
       <c r="B134" s="59"/>
-      <c r="C134" s="211"/>
+      <c r="C134" s="212"/>
       <c r="D134" s="59"/>
       <c r="E134" s="59"/>
       <c r="F134" s="59"/>
@@ -33931,7 +33926,7 @@
     <row r="135" spans="1:24">
       <c r="A135" s="59"/>
       <c r="B135" s="59"/>
-      <c r="C135" s="211"/>
+      <c r="C135" s="212"/>
       <c r="D135" s="59"/>
       <c r="E135" s="59"/>
       <c r="F135" s="59"/>
@@ -33957,7 +33952,7 @@
     <row r="136" spans="1:24">
       <c r="A136" s="59"/>
       <c r="B136" s="59"/>
-      <c r="C136" s="211"/>
+      <c r="C136" s="212"/>
       <c r="D136" s="59"/>
       <c r="E136" s="59"/>
       <c r="F136" s="59"/>
@@ -33983,7 +33978,7 @@
     <row r="137" spans="1:24">
       <c r="A137" s="59"/>
       <c r="B137" s="59"/>
-      <c r="C137" s="211"/>
+      <c r="C137" s="212"/>
       <c r="D137" s="59"/>
       <c r="E137" s="59"/>
       <c r="F137" s="59"/>
@@ -34009,7 +34004,7 @@
     <row r="138" spans="1:24">
       <c r="A138" s="59"/>
       <c r="B138" s="59"/>
-      <c r="C138" s="211"/>
+      <c r="C138" s="212"/>
       <c r="D138" s="59"/>
       <c r="E138" s="59"/>
       <c r="F138" s="59"/>
@@ -34035,7 +34030,7 @@
     <row r="139" spans="1:24">
       <c r="A139" s="59"/>
       <c r="B139" s="59"/>
-      <c r="C139" s="211"/>
+      <c r="C139" s="212"/>
       <c r="D139" s="59"/>
       <c r="E139" s="59"/>
       <c r="F139" s="59"/>
@@ -34061,7 +34056,7 @@
     <row r="140" spans="1:24">
       <c r="A140" s="59"/>
       <c r="B140" s="59"/>
-      <c r="C140" s="211"/>
+      <c r="C140" s="212"/>
       <c r="D140" s="59"/>
       <c r="E140" s="59"/>
       <c r="F140" s="59"/>
@@ -34087,7 +34082,7 @@
     <row r="141" spans="1:24">
       <c r="A141" s="59"/>
       <c r="B141" s="59"/>
-      <c r="C141" s="211"/>
+      <c r="C141" s="212"/>
       <c r="D141" s="59"/>
       <c r="E141" s="59"/>
       <c r="F141" s="59"/>
@@ -34113,7 +34108,7 @@
     <row r="142" spans="1:24">
       <c r="A142" s="59"/>
       <c r="B142" s="59"/>
-      <c r="C142" s="211"/>
+      <c r="C142" s="212"/>
       <c r="D142" s="59"/>
       <c r="E142" s="59"/>
       <c r="F142" s="59"/>
@@ -34139,7 +34134,7 @@
     <row r="143" spans="1:24">
       <c r="A143" s="59"/>
       <c r="B143" s="59"/>
-      <c r="C143" s="211"/>
+      <c r="C143" s="212"/>
       <c r="D143" s="59"/>
       <c r="E143" s="59"/>
       <c r="F143" s="59"/>
@@ -34165,7 +34160,7 @@
     <row r="144" spans="1:24">
       <c r="A144" s="59"/>
       <c r="B144" s="59"/>
-      <c r="C144" s="211"/>
+      <c r="C144" s="212"/>
       <c r="D144" s="59"/>
       <c r="E144" s="59"/>
       <c r="F144" s="59"/>
@@ -34191,7 +34186,7 @@
     <row r="145" spans="1:24">
       <c r="A145" s="59"/>
       <c r="B145" s="59"/>
-      <c r="C145" s="211"/>
+      <c r="C145" s="212"/>
       <c r="D145" s="59"/>
       <c r="E145" s="59"/>
       <c r="F145" s="59"/>
@@ -34217,7 +34212,7 @@
     <row r="146" spans="1:24">
       <c r="A146" s="59"/>
       <c r="B146" s="59"/>
-      <c r="C146" s="211"/>
+      <c r="C146" s="212"/>
       <c r="D146" s="59"/>
       <c r="E146" s="59"/>
       <c r="F146" s="59"/>
@@ -34243,7 +34238,7 @@
     <row r="147" spans="1:24">
       <c r="A147" s="59"/>
       <c r="B147" s="59"/>
-      <c r="C147" s="211"/>
+      <c r="C147" s="212"/>
       <c r="D147" s="59"/>
       <c r="E147" s="59"/>
       <c r="F147" s="59"/>
@@ -34269,7 +34264,7 @@
     <row r="148" spans="1:24">
       <c r="A148" s="59"/>
       <c r="B148" s="59"/>
-      <c r="C148" s="211"/>
+      <c r="C148" s="212"/>
       <c r="D148" s="59"/>
       <c r="E148" s="59"/>
       <c r="F148" s="59"/>
@@ -34295,7 +34290,7 @@
     <row r="149" spans="1:24">
       <c r="A149" s="59"/>
       <c r="B149" s="59"/>
-      <c r="C149" s="211"/>
+      <c r="C149" s="212"/>
       <c r="D149" s="59"/>
       <c r="E149" s="59"/>
       <c r="F149" s="59"/>
@@ -34321,7 +34316,7 @@
     <row r="150" spans="1:24">
       <c r="A150" s="59"/>
       <c r="B150" s="59"/>
-      <c r="C150" s="211"/>
+      <c r="C150" s="212"/>
       <c r="D150" s="59"/>
       <c r="E150" s="59"/>
       <c r="F150" s="59"/>
@@ -34347,7 +34342,7 @@
     <row r="151" spans="1:24">
       <c r="A151" s="59"/>
       <c r="B151" s="59"/>
-      <c r="C151" s="211"/>
+      <c r="C151" s="212"/>
       <c r="D151" s="59"/>
       <c r="E151" s="59"/>
       <c r="F151" s="59"/>
@@ -34373,7 +34368,7 @@
     <row r="152" spans="1:24">
       <c r="A152" s="59"/>
       <c r="B152" s="59"/>
-      <c r="C152" s="211"/>
+      <c r="C152" s="212"/>
       <c r="D152" s="59"/>
       <c r="E152" s="59"/>
       <c r="F152" s="59"/>
@@ -34399,7 +34394,7 @@
     <row r="153" spans="1:24">
       <c r="A153" s="59"/>
       <c r="B153" s="59"/>
-      <c r="C153" s="211"/>
+      <c r="C153" s="212"/>
       <c r="D153" s="59"/>
       <c r="E153" s="59"/>
       <c r="F153" s="59"/>
@@ -34425,7 +34420,7 @@
     <row r="154" spans="1:24">
       <c r="A154" s="59"/>
       <c r="B154" s="59"/>
-      <c r="C154" s="211"/>
+      <c r="C154" s="212"/>
       <c r="D154" s="59"/>
       <c r="E154" s="59"/>
       <c r="F154" s="59"/>
@@ -34451,7 +34446,7 @@
     <row r="155" spans="1:24">
       <c r="A155" s="59"/>
       <c r="B155" s="59"/>
-      <c r="C155" s="211"/>
+      <c r="C155" s="212"/>
       <c r="D155" s="59"/>
       <c r="E155" s="59"/>
       <c r="F155" s="59"/>
@@ -34477,7 +34472,7 @@
     <row r="156" spans="1:24">
       <c r="A156" s="59"/>
       <c r="B156" s="59"/>
-      <c r="C156" s="211"/>
+      <c r="C156" s="212"/>
       <c r="D156" s="59"/>
       <c r="E156" s="59"/>
       <c r="F156" s="59"/>
@@ -34503,7 +34498,7 @@
     <row r="157" spans="1:24">
       <c r="A157" s="59"/>
       <c r="B157" s="59"/>
-      <c r="C157" s="211"/>
+      <c r="C157" s="212"/>
       <c r="D157" s="59"/>
       <c r="E157" s="59"/>
       <c r="F157" s="59"/>
@@ -34529,7 +34524,7 @@
     <row r="158" spans="1:24">
       <c r="A158" s="59"/>
       <c r="B158" s="59"/>
-      <c r="C158" s="211"/>
+      <c r="C158" s="212"/>
       <c r="D158" s="59"/>
       <c r="E158" s="59"/>
       <c r="F158" s="59"/>
@@ -34555,7 +34550,7 @@
     <row r="159" spans="1:24">
       <c r="A159" s="59"/>
       <c r="B159" s="59"/>
-      <c r="C159" s="211"/>
+      <c r="C159" s="212"/>
       <c r="D159" s="59"/>
       <c r="E159" s="59"/>
       <c r="F159" s="59"/>
@@ -34581,7 +34576,7 @@
     <row r="160" spans="1:24">
       <c r="A160" s="59"/>
       <c r="B160" s="59"/>
-      <c r="C160" s="211"/>
+      <c r="C160" s="212"/>
       <c r="D160" s="59"/>
       <c r="E160" s="59"/>
       <c r="F160" s="59"/>
@@ -34607,7 +34602,7 @@
     <row r="161" spans="1:24">
       <c r="A161" s="59"/>
       <c r="B161" s="59"/>
-      <c r="C161" s="211"/>
+      <c r="C161" s="212"/>
       <c r="D161" s="59"/>
       <c r="E161" s="59"/>
       <c r="F161" s="59"/>
@@ -34633,7 +34628,7 @@
     <row r="162" spans="1:24">
       <c r="A162" s="59"/>
       <c r="B162" s="59"/>
-      <c r="C162" s="211"/>
+      <c r="C162" s="212"/>
       <c r="D162" s="59"/>
       <c r="E162" s="59"/>
       <c r="F162" s="59"/>
@@ -34659,7 +34654,7 @@
     <row r="163" spans="1:24">
       <c r="A163" s="59"/>
       <c r="B163" s="59"/>
-      <c r="C163" s="211"/>
+      <c r="C163" s="212"/>
       <c r="D163" s="59"/>
       <c r="E163" s="59"/>
       <c r="F163" s="59"/>
@@ -34685,7 +34680,7 @@
     <row r="164" spans="1:24">
       <c r="A164" s="59"/>
       <c r="B164" s="59"/>
-      <c r="C164" s="211"/>
+      <c r="C164" s="212"/>
       <c r="D164" s="59"/>
       <c r="E164" s="59"/>
       <c r="F164" s="59"/>
@@ -34711,7 +34706,7 @@
     <row r="165" spans="1:24">
       <c r="A165" s="59"/>
       <c r="B165" s="59"/>
-      <c r="C165" s="211"/>
+      <c r="C165" s="212"/>
       <c r="D165" s="59"/>
       <c r="E165" s="59"/>
       <c r="F165" s="59"/>
@@ -34737,7 +34732,7 @@
     <row r="166" spans="1:24">
       <c r="A166" s="59"/>
       <c r="B166" s="59"/>
-      <c r="C166" s="211"/>
+      <c r="C166" s="212"/>
       <c r="D166" s="59"/>
       <c r="E166" s="59"/>
       <c r="F166" s="59"/>
@@ -34763,7 +34758,7 @@
     <row r="167" spans="1:24">
       <c r="A167" s="59"/>
       <c r="B167" s="59"/>
-      <c r="C167" s="211"/>
+      <c r="C167" s="212"/>
       <c r="D167" s="59"/>
       <c r="E167" s="59"/>
       <c r="F167" s="59"/>
@@ -34789,7 +34784,7 @@
     <row r="168" spans="1:24">
       <c r="A168" s="59"/>
       <c r="B168" s="59"/>
-      <c r="C168" s="211"/>
+      <c r="C168" s="212"/>
       <c r="D168" s="59"/>
       <c r="E168" s="59"/>
       <c r="F168" s="59"/>
@@ -34815,7 +34810,7 @@
     <row r="169" spans="1:24">
       <c r="A169" s="59"/>
       <c r="B169" s="59"/>
-      <c r="C169" s="211"/>
+      <c r="C169" s="212"/>
       <c r="D169" s="59"/>
       <c r="E169" s="59"/>
       <c r="F169" s="59"/>
@@ -34841,7 +34836,7 @@
     <row r="170" spans="1:24">
       <c r="A170" s="59"/>
       <c r="B170" s="59"/>
-      <c r="C170" s="211"/>
+      <c r="C170" s="212"/>
       <c r="D170" s="59"/>
       <c r="E170" s="59"/>
       <c r="F170" s="59"/>
@@ -34867,7 +34862,7 @@
     <row r="171" spans="1:24">
       <c r="A171" s="59"/>
       <c r="B171" s="59"/>
-      <c r="C171" s="211"/>
+      <c r="C171" s="212"/>
       <c r="D171" s="59"/>
       <c r="E171" s="59"/>
       <c r="F171" s="59"/>
@@ -34893,7 +34888,7 @@
     <row r="172" spans="1:24">
       <c r="A172" s="59"/>
       <c r="B172" s="59"/>
-      <c r="C172" s="211"/>
+      <c r="C172" s="212"/>
       <c r="D172" s="59"/>
       <c r="E172" s="59"/>
       <c r="F172" s="59"/>
@@ -34919,7 +34914,7 @@
     <row r="173" spans="1:24">
       <c r="A173" s="59"/>
       <c r="B173" s="59"/>
-      <c r="C173" s="211"/>
+      <c r="C173" s="212"/>
       <c r="D173" s="59"/>
       <c r="E173" s="59"/>
       <c r="F173" s="59"/>
@@ -34945,7 +34940,7 @@
     <row r="174" spans="1:24">
       <c r="A174" s="59"/>
       <c r="B174" s="59"/>
-      <c r="C174" s="211"/>
+      <c r="C174" s="212"/>
       <c r="D174" s="59"/>
       <c r="E174" s="59"/>
       <c r="F174" s="59"/>
@@ -34971,7 +34966,7 @@
     <row r="175" spans="1:24">
       <c r="A175" s="59"/>
       <c r="B175" s="59"/>
-      <c r="C175" s="211"/>
+      <c r="C175" s="212"/>
       <c r="D175" s="59"/>
       <c r="E175" s="59"/>
       <c r="F175" s="59"/>
@@ -34997,7 +34992,7 @@
     <row r="176" spans="1:24">
       <c r="A176" s="59"/>
       <c r="B176" s="59"/>
-      <c r="C176" s="211"/>
+      <c r="C176" s="212"/>
       <c r="D176" s="59"/>
       <c r="E176" s="59"/>
       <c r="F176" s="59"/>
@@ -35023,7 +35018,7 @@
     <row r="177" spans="1:24">
       <c r="A177" s="59"/>
       <c r="B177" s="59"/>
-      <c r="C177" s="211"/>
+      <c r="C177" s="212"/>
       <c r="D177" s="59"/>
       <c r="E177" s="59"/>
       <c r="F177" s="59"/>
@@ -35049,7 +35044,7 @@
     <row r="178" spans="1:24">
       <c r="A178" s="59"/>
       <c r="B178" s="59"/>
-      <c r="C178" s="211"/>
+      <c r="C178" s="212"/>
       <c r="D178" s="59"/>
       <c r="E178" s="59"/>
       <c r="F178" s="59"/>
@@ -35075,7 +35070,7 @@
     <row r="179" spans="1:24">
       <c r="A179" s="59"/>
       <c r="B179" s="59"/>
-      <c r="C179" s="211"/>
+      <c r="C179" s="212"/>
       <c r="D179" s="59"/>
       <c r="E179" s="59"/>
       <c r="F179" s="59"/>
@@ -35101,7 +35096,7 @@
     <row r="180" spans="1:24">
       <c r="A180" s="59"/>
       <c r="B180" s="59"/>
-      <c r="C180" s="211"/>
+      <c r="C180" s="212"/>
       <c r="D180" s="59"/>
       <c r="E180" s="59"/>
       <c r="F180" s="59"/>
@@ -35127,7 +35122,7 @@
     <row r="181" spans="1:24">
       <c r="A181" s="59"/>
       <c r="B181" s="59"/>
-      <c r="C181" s="211"/>
+      <c r="C181" s="212"/>
       <c r="D181" s="59"/>
       <c r="E181" s="59"/>
       <c r="F181" s="59"/>
@@ -35153,7 +35148,7 @@
     <row r="182" spans="1:24">
       <c r="A182" s="59"/>
       <c r="B182" s="59"/>
-      <c r="C182" s="211"/>
+      <c r="C182" s="212"/>
       <c r="D182" s="59"/>
       <c r="E182" s="59"/>
       <c r="F182" s="59"/>
@@ -35179,7 +35174,7 @@
     <row r="183" spans="1:24">
       <c r="A183" s="59"/>
       <c r="B183" s="59"/>
-      <c r="C183" s="211"/>
+      <c r="C183" s="212"/>
       <c r="D183" s="59"/>
       <c r="E183" s="59"/>
       <c r="F183" s="59"/>
@@ -35205,7 +35200,7 @@
     <row r="184" spans="1:24">
       <c r="A184" s="59"/>
       <c r="B184" s="59"/>
-      <c r="C184" s="211"/>
+      <c r="C184" s="212"/>
       <c r="D184" s="59"/>
       <c r="E184" s="59"/>
       <c r="F184" s="59"/>
@@ -35231,7 +35226,7 @@
     <row r="185" spans="1:24">
       <c r="A185" s="59"/>
       <c r="B185" s="59"/>
-      <c r="C185" s="211"/>
+      <c r="C185" s="212"/>
       <c r="D185" s="59"/>
       <c r="E185" s="59"/>
       <c r="F185" s="59"/>
@@ -35257,7 +35252,7 @@
     <row r="186" spans="1:24">
       <c r="A186" s="59"/>
       <c r="B186" s="59"/>
-      <c r="C186" s="211"/>
+      <c r="C186" s="212"/>
       <c r="D186" s="59"/>
       <c r="E186" s="59"/>
       <c r="F186" s="59"/>
@@ -35283,7 +35278,7 @@
     <row r="187" spans="1:24">
       <c r="A187" s="59"/>
       <c r="B187" s="59"/>
-      <c r="C187" s="211"/>
+      <c r="C187" s="212"/>
       <c r="D187" s="59"/>
       <c r="E187" s="59"/>
       <c r="F187" s="59"/>
@@ -35309,7 +35304,7 @@
     <row r="188" spans="1:24">
       <c r="A188" s="59"/>
       <c r="B188" s="59"/>
-      <c r="C188" s="211"/>
+      <c r="C188" s="212"/>
       <c r="D188" s="59"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
@@ -35335,7 +35330,7 @@
     <row r="189" spans="1:24">
       <c r="A189" s="59"/>
       <c r="B189" s="59"/>
-      <c r="C189" s="211"/>
+      <c r="C189" s="212"/>
       <c r="D189" s="59"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
@@ -35361,7 +35356,7 @@
     <row r="190" spans="1:24">
       <c r="A190" s="59"/>
       <c r="B190" s="59"/>
-      <c r="C190" s="211"/>
+      <c r="C190" s="212"/>
       <c r="D190" s="59"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
@@ -35387,7 +35382,7 @@
     <row r="191" spans="1:24">
       <c r="A191" s="59"/>
       <c r="B191" s="59"/>
-      <c r="C191" s="211"/>
+      <c r="C191" s="212"/>
       <c r="D191" s="59"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
@@ -35413,7 +35408,7 @@
     <row r="192" spans="1:24">
       <c r="A192" s="59"/>
       <c r="B192" s="59"/>
-      <c r="C192" s="211"/>
+      <c r="C192" s="212"/>
       <c r="D192" s="59"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
@@ -35439,7 +35434,7 @@
     <row r="193" spans="1:24">
       <c r="A193" s="59"/>
       <c r="B193" s="59"/>
-      <c r="C193" s="211"/>
+      <c r="C193" s="212"/>
       <c r="D193" s="59"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
@@ -35465,7 +35460,7 @@
     <row r="194" spans="1:24">
       <c r="A194" s="59"/>
       <c r="B194" s="59"/>
-      <c r="C194" s="211"/>
+      <c r="C194" s="212"/>
       <c r="D194" s="59"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
@@ -35491,7 +35486,7 @@
     <row r="195" spans="1:24">
       <c r="A195" s="59"/>
       <c r="B195" s="59"/>
-      <c r="C195" s="211"/>
+      <c r="C195" s="212"/>
       <c r="D195" s="59"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
@@ -35517,7 +35512,7 @@
     <row r="196" spans="1:24">
       <c r="A196" s="59"/>
       <c r="B196" s="59"/>
-      <c r="C196" s="211"/>
+      <c r="C196" s="212"/>
       <c r="D196" s="59"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
@@ -35543,7 +35538,7 @@
     <row r="197" spans="1:24">
       <c r="A197" s="59"/>
       <c r="B197" s="59"/>
-      <c r="C197" s="211"/>
+      <c r="C197" s="212"/>
       <c r="D197" s="59"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
@@ -35569,7 +35564,7 @@
     <row r="198" spans="1:24">
       <c r="A198" s="59"/>
       <c r="B198" s="59"/>
-      <c r="C198" s="211"/>
+      <c r="C198" s="212"/>
       <c r="D198" s="59"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
@@ -35595,7 +35590,7 @@
     <row r="199" spans="1:24">
       <c r="A199" s="59"/>
       <c r="B199" s="59"/>
-      <c r="C199" s="211"/>
+      <c r="C199" s="212"/>
       <c r="D199" s="59"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
@@ -35621,7 +35616,7 @@
     <row r="200" spans="1:24">
       <c r="A200" s="59"/>
       <c r="B200" s="59"/>
-      <c r="C200" s="211"/>
+      <c r="C200" s="212"/>
       <c r="D200" s="59"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
@@ -35662,10 +35657,10 @@
   <sheetPr/>
   <dimension ref="A1:AC189"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -35688,9 +35683,9 @@
       <c r="A1" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
@@ -35718,28 +35713,28 @@
       <c r="AC1" s="59"/>
     </row>
     <row r="2" ht="15" spans="1:29">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="175" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="175" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="175" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="174" t="s">
+      <c r="D2" s="175" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="174" t="s">
+      <c r="E2" s="175" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="175" t="s">
+      <c r="F2" s="176" t="s">
         <v>274</v>
       </c>
       <c r="G2" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="H2" s="176" t="s">
+      <c r="H2" s="177" t="s">
         <v>178</v>
       </c>
       <c r="I2" s="104" t="s">
@@ -35788,19 +35783,19 @@
       <c r="E3" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="F3" s="177" t="s">
+      <c r="F3" s="178" t="s">
         <v>150</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="H3" s="178" t="s">
+      <c r="H3" s="179" t="s">
         <v>150</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J3" s="200" t="s">
+      <c r="J3" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K3" s="28" t="s">
@@ -35829,10 +35824,10 @@
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:29">
       <c r="A4" s="34"/>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="180" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="181" t="s">
         <v>285</v>
       </c>
       <c r="D4" s="31" t="s">
@@ -35841,17 +35836,17 @@
       <c r="E4" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="177" t="s">
+      <c r="F4" s="178" t="s">
         <v>287</v>
       </c>
       <c r="G4" s="60"/>
-      <c r="H4" s="178" t="s">
+      <c r="H4" s="179" t="s">
         <v>150</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J4" s="200" t="s">
+      <c r="J4" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K4" s="28" t="s">
@@ -35880,7 +35875,7 @@
     </row>
     <row r="5" ht="42" customHeight="1" spans="1:29">
       <c r="A5" s="34"/>
-      <c r="B5" s="179" t="s">
+      <c r="B5" s="180" t="s">
         <v>288</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -35892,17 +35887,17 @@
       <c r="E5" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="F5" s="177" t="s">
+      <c r="F5" s="178" t="s">
         <v>150</v>
       </c>
       <c r="G5" s="60"/>
-      <c r="H5" s="178" t="s">
+      <c r="H5" s="179" t="s">
         <v>150</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="200" t="s">
+      <c r="J5" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K5" s="28" t="s">
@@ -35945,19 +35940,19 @@
       <c r="E6" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="177" t="s">
+      <c r="F6" s="178" t="s">
         <v>296</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="H6" s="178" t="s">
+      <c r="H6" s="179" t="s">
         <v>297</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J6" s="200" t="s">
+      <c r="J6" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K6" s="28" t="s">
@@ -35998,17 +35993,17 @@
       <c r="E7" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="F7" s="177" t="s">
+      <c r="F7" s="178" t="s">
         <v>302</v>
       </c>
       <c r="G7" s="60"/>
-      <c r="H7" s="178" t="s">
+      <c r="H7" s="179" t="s">
         <v>303</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="200" t="s">
+      <c r="J7" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K7" s="28" t="s">
@@ -36049,17 +36044,17 @@
       <c r="E8" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="F8" s="177" t="s">
+      <c r="F8" s="178" t="s">
         <v>150</v>
       </c>
       <c r="G8" s="60"/>
-      <c r="H8" s="178" t="s">
+      <c r="H8" s="179" t="s">
         <v>297</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J8" s="200" t="s">
+      <c r="J8" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K8" s="28" t="s">
@@ -36090,7 +36085,7 @@
       <c r="A9" s="105" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="182" t="s">
         <v>309</v>
       </c>
       <c r="C9" s="31" t="s">
@@ -36102,19 +36097,19 @@
       <c r="E9" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="F9" s="177" t="s">
+      <c r="F9" s="178" t="s">
         <v>150</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="178" t="s">
+      <c r="H9" s="179" t="s">
         <v>150</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J9" s="200" t="s">
+      <c r="J9" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K9" s="28" t="s">
@@ -36157,19 +36152,19 @@
       <c r="E10" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F10" s="177" t="s">
+      <c r="F10" s="178" t="s">
         <v>317</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="H10" s="178" t="s">
+      <c r="H10" s="179" t="s">
         <v>319</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J10" s="200" t="s">
+      <c r="J10" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K10" s="28" t="s">
@@ -36210,17 +36205,17 @@
       <c r="E11" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="F11" s="177" t="s">
+      <c r="F11" s="178" t="s">
         <v>323</v>
       </c>
       <c r="G11" s="34"/>
-      <c r="H11" s="178" t="s">
+      <c r="H11" s="179" t="s">
         <v>324</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="200" t="s">
+      <c r="J11" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K11" s="28" t="s">
@@ -36261,17 +36256,17 @@
       <c r="E12" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="F12" s="177" t="s">
+      <c r="F12" s="178" t="s">
         <v>150</v>
       </c>
       <c r="G12" s="34"/>
-      <c r="H12" s="178" t="s">
+      <c r="H12" s="179" t="s">
         <v>329</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J12" s="200" t="s">
+      <c r="J12" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K12" s="28" t="s">
@@ -36300,7 +36295,7 @@
     </row>
     <row r="13" ht="45" spans="1:29">
       <c r="A13" s="34"/>
-      <c r="B13" s="182" t="s">
+      <c r="B13" s="183" t="s">
         <v>330</v>
       </c>
       <c r="C13" s="31" t="s">
@@ -36312,21 +36307,21 @@
       <c r="E13" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="F13" s="183" t="s">
+      <c r="F13" s="184" t="s">
         <v>333</v>
       </c>
       <c r="G13" s="34"/>
-      <c r="H13" s="184" t="s">
+      <c r="H13" s="185" t="s">
         <v>319</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J13" s="200" t="s">
+      <c r="J13" s="201" t="s">
         <v>282</v>
       </c>
-      <c r="K13" s="201"/>
-      <c r="L13" s="201"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="202"/>
       <c r="M13" s="57"/>
       <c r="N13" s="57"/>
       <c r="O13" s="57"/>
@@ -36359,21 +36354,21 @@
       <c r="E14" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="F14" s="177" t="s">
+      <c r="F14" s="178" t="s">
         <v>150</v>
       </c>
       <c r="G14" s="34"/>
-      <c r="H14" s="178" t="s">
+      <c r="H14" s="179" t="s">
         <v>150</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J14" s="200" t="s">
+      <c r="J14" s="201" t="s">
         <v>282</v>
       </c>
-      <c r="K14" s="201"/>
-      <c r="L14" s="201"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="202"/>
       <c r="M14" s="59"/>
       <c r="N14" s="59"/>
       <c r="O14" s="59"/>
@@ -36406,17 +36401,17 @@
       <c r="E15" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="F15" s="177" t="s">
+      <c r="F15" s="178" t="s">
         <v>150</v>
       </c>
       <c r="G15" s="34"/>
-      <c r="H15" s="178" t="s">
+      <c r="H15" s="179" t="s">
         <v>150</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J15" s="200" t="s">
+      <c r="J15" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K15" s="28" t="s">
@@ -36425,13 +36420,13 @@
       <c r="L15" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="M15" s="171"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="171"/>
-      <c r="P15" s="171"/>
-      <c r="Q15" s="171"/>
-      <c r="R15" s="171"/>
-      <c r="S15" s="171"/>
+      <c r="M15" s="172"/>
+      <c r="N15" s="172"/>
+      <c r="O15" s="172"/>
+      <c r="P15" s="172"/>
+      <c r="Q15" s="172"/>
+      <c r="R15" s="172"/>
+      <c r="S15" s="172"/>
       <c r="T15" s="59"/>
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
@@ -36459,7 +36454,7 @@
       <c r="E16" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="F16" s="185" t="s">
+      <c r="F16" s="186" t="s">
         <v>150</v>
       </c>
       <c r="G16" s="28" t="s">
@@ -36471,7 +36466,7 @@
       <c r="I16" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J16" s="200" t="s">
+      <c r="J16" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K16" s="28" t="s">
@@ -36499,13 +36494,13 @@
       <c r="AC16" s="59"/>
     </row>
     <row r="17" ht="45" spans="1:29">
-      <c r="A17" s="186" t="s">
+      <c r="A17" s="187" t="s">
         <v>346</v>
       </c>
       <c r="B17" s="169" t="s">
         <v>347</v>
       </c>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="181" t="s">
         <v>348</v>
       </c>
       <c r="D17" s="63" t="s">
@@ -36514,7 +36509,7 @@
       <c r="E17" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="F17" s="185" t="s">
+      <c r="F17" s="186" t="s">
         <v>150</v>
       </c>
       <c r="G17" s="28" t="s">
@@ -36526,7 +36521,7 @@
       <c r="I17" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J17" s="200" t="s">
+      <c r="J17" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K17" s="28" t="s">
@@ -36569,7 +36564,7 @@
       <c r="E18" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="F18" s="185" t="s">
+      <c r="F18" s="186" t="s">
         <v>150</v>
       </c>
       <c r="G18" s="28" t="s">
@@ -36581,7 +36576,7 @@
       <c r="I18" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J18" s="200" t="s">
+      <c r="J18" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K18" s="28" t="s">
@@ -36612,7 +36607,7 @@
       <c r="A19" s="105" t="s">
         <v>356</v>
       </c>
-      <c r="B19" s="187" t="s">
+      <c r="B19" s="188" t="s">
         <v>152</v>
       </c>
       <c r="C19" s="31" t="s">
@@ -36624,19 +36619,19 @@
       <c r="E19" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F19" s="177" t="s">
+      <c r="F19" s="178" t="s">
         <v>150</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="H19" s="178" t="s">
+      <c r="H19" s="179" t="s">
         <v>150</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="200" t="s">
+      <c r="J19" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K19" s="28" t="s">
@@ -36667,7 +36662,7 @@
       <c r="A20" s="168" t="s">
         <v>358</v>
       </c>
-      <c r="B20" s="187" t="s">
+      <c r="B20" s="188" t="s">
         <v>359</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -36679,19 +36674,19 @@
       <c r="E20" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="F20" s="177" t="s">
+      <c r="F20" s="178" t="s">
         <v>363</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="H20" s="178" t="s">
+      <c r="H20" s="179" t="s">
         <v>364</v>
       </c>
       <c r="I20" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J20" s="200" t="s">
+      <c r="J20" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K20" s="28" t="s">
@@ -36720,7 +36715,7 @@
     </row>
     <row r="21" ht="47.25" customHeight="1" spans="1:29">
       <c r="A21" s="34"/>
-      <c r="B21" s="187" t="s">
+      <c r="B21" s="188" t="s">
         <v>365</v>
       </c>
       <c r="C21" s="57" t="s">
@@ -36732,13 +36727,13 @@
       <c r="E21" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F21" s="188"/>
+      <c r="F21" s="189"/>
       <c r="G21" s="60"/>
-      <c r="H21" s="189"/>
+      <c r="H21" s="190"/>
       <c r="I21" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J21" s="200" t="s">
+      <c r="J21" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K21" s="28" t="s">
@@ -36767,7 +36762,7 @@
     </row>
     <row r="22" ht="55.5" customHeight="1" spans="1:29">
       <c r="A22" s="34"/>
-      <c r="B22" s="187" t="s">
+      <c r="B22" s="188" t="s">
         <v>368</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -36779,17 +36774,17 @@
       <c r="E22" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F22" s="177" t="s">
+      <c r="F22" s="178" t="s">
         <v>372</v>
       </c>
       <c r="G22" s="60"/>
-      <c r="H22" s="178" t="s">
+      <c r="H22" s="179" t="s">
         <v>373</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J22" s="200" t="s">
+      <c r="J22" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K22" s="28" t="s">
@@ -36830,13 +36825,13 @@
       <c r="E23" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="F23" s="188"/>
+      <c r="F23" s="189"/>
       <c r="G23" s="60"/>
-      <c r="H23" s="189"/>
+      <c r="H23" s="190"/>
       <c r="I23" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J23" s="200" t="s">
+      <c r="J23" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K23" s="28" t="s">
@@ -36877,13 +36872,13 @@
       <c r="E24" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F24" s="188"/>
+      <c r="F24" s="189"/>
       <c r="G24" s="60"/>
-      <c r="H24" s="189"/>
+      <c r="H24" s="190"/>
       <c r="I24" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J24" s="200" t="s">
+      <c r="J24" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K24" s="28" t="s">
@@ -36924,13 +36919,13 @@
       <c r="E25" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="F25" s="188"/>
+      <c r="F25" s="189"/>
       <c r="G25" s="60"/>
-      <c r="H25" s="189"/>
+      <c r="H25" s="190"/>
       <c r="I25" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J25" s="200" t="s">
+      <c r="J25" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K25" s="28" t="s">
@@ -36959,7 +36954,7 @@
     </row>
     <row r="26" ht="15" spans="1:29">
       <c r="A26" s="34"/>
-      <c r="B26" s="190"/>
+      <c r="B26" s="191"/>
       <c r="C26" s="31" t="s">
         <v>384</v>
       </c>
@@ -36969,13 +36964,13 @@
       <c r="E26" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="F26" s="188"/>
+      <c r="F26" s="189"/>
       <c r="G26" s="60"/>
-      <c r="H26" s="189"/>
+      <c r="H26" s="190"/>
       <c r="I26" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J26" s="200" t="s">
+      <c r="J26" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K26" s="28" t="s">
@@ -37004,10 +36999,10 @@
     </row>
     <row r="27" ht="129.75" customHeight="1" spans="1:29">
       <c r="A27" s="34"/>
-      <c r="B27" s="187" t="s">
+      <c r="B27" s="188" t="s">
         <v>385</v>
       </c>
-      <c r="C27" s="180" t="s">
+      <c r="C27" s="181" t="s">
         <v>386</v>
       </c>
       <c r="D27" s="31" t="s">
@@ -37016,17 +37011,17 @@
       <c r="E27" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="F27" s="177" t="s">
+      <c r="F27" s="178" t="s">
         <v>389</v>
       </c>
       <c r="G27" s="60"/>
-      <c r="H27" s="178" t="s">
+      <c r="H27" s="179" t="s">
         <v>364</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J27" s="200" t="s">
+      <c r="J27" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K27" s="28" t="s">
@@ -37055,10 +37050,10 @@
     </row>
     <row r="28" ht="53.25" customHeight="1" spans="1:29">
       <c r="A28" s="34"/>
-      <c r="B28" s="187" t="s">
+      <c r="B28" s="188" t="s">
         <v>390</v>
       </c>
-      <c r="C28" s="180" t="s">
+      <c r="C28" s="181" t="s">
         <v>391</v>
       </c>
       <c r="D28" s="31" t="s">
@@ -37067,13 +37062,13 @@
       <c r="E28" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="F28" s="188"/>
+      <c r="F28" s="189"/>
       <c r="G28" s="60"/>
-      <c r="H28" s="189"/>
+      <c r="H28" s="190"/>
       <c r="I28" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J28" s="200" t="s">
+      <c r="J28" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K28" s="28" t="s">
@@ -37102,10 +37097,10 @@
     </row>
     <row r="29" ht="66" customHeight="1" spans="1:29">
       <c r="A29" s="34"/>
-      <c r="B29" s="187" t="s">
+      <c r="B29" s="188" t="s">
         <v>394</v>
       </c>
-      <c r="C29" s="180" t="s">
+      <c r="C29" s="181" t="s">
         <v>395</v>
       </c>
       <c r="D29" s="31" t="s">
@@ -37114,13 +37109,13 @@
       <c r="E29" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="F29" s="188"/>
+      <c r="F29" s="189"/>
       <c r="G29" s="60"/>
-      <c r="H29" s="189"/>
+      <c r="H29" s="190"/>
       <c r="I29" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J29" s="200" t="s">
+      <c r="J29" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K29" s="28" t="s">
@@ -37161,13 +37156,13 @@
       <c r="E30" s="31" t="s">
         <v>400</v>
       </c>
-      <c r="F30" s="188"/>
+      <c r="F30" s="189"/>
       <c r="G30" s="60"/>
-      <c r="H30" s="189"/>
+      <c r="H30" s="190"/>
       <c r="I30" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J30" s="200" t="s">
+      <c r="J30" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K30" s="28" t="s">
@@ -37199,7 +37194,7 @@
       <c r="B31" s="169" t="s">
         <v>401</v>
       </c>
-      <c r="C31" s="180" t="s">
+      <c r="C31" s="181" t="s">
         <v>402</v>
       </c>
       <c r="D31" s="31" t="s">
@@ -37208,13 +37203,13 @@
       <c r="E31" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="F31" s="188"/>
+      <c r="F31" s="189"/>
       <c r="G31" s="60"/>
-      <c r="H31" s="189"/>
+      <c r="H31" s="190"/>
       <c r="I31" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J31" s="200" t="s">
+      <c r="J31" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K31" s="28" t="s">
@@ -37243,7 +37238,7 @@
     </row>
     <row r="32" ht="15" spans="1:29">
       <c r="A32" s="34"/>
-      <c r="B32" s="187" t="s">
+      <c r="B32" s="188" t="s">
         <v>405</v>
       </c>
       <c r="C32" s="31" t="s">
@@ -37255,13 +37250,13 @@
       <c r="E32" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F32" s="188"/>
+      <c r="F32" s="189"/>
       <c r="G32" s="60"/>
-      <c r="H32" s="189"/>
+      <c r="H32" s="190"/>
       <c r="I32" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J32" s="200" t="s">
+      <c r="J32" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K32" s="28" t="s">
@@ -37290,10 +37285,10 @@
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:29">
       <c r="A33" s="34"/>
-      <c r="B33" s="191" t="s">
+      <c r="B33" s="192" t="s">
         <v>408</v>
       </c>
-      <c r="C33" s="192" t="s">
+      <c r="C33" s="193" t="s">
         <v>409</v>
       </c>
       <c r="D33" s="31" t="s">
@@ -37302,18 +37297,18 @@
       <c r="E33" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="F33" s="188"/>
+      <c r="F33" s="189"/>
       <c r="G33" s="60"/>
-      <c r="H33" s="178" t="s">
+      <c r="H33" s="179" t="s">
         <v>364</v>
       </c>
       <c r="I33" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J33" s="200" t="s">
+      <c r="J33" s="201" t="s">
         <v>282</v>
       </c>
-      <c r="K33" s="201"/>
+      <c r="K33" s="202"/>
       <c r="L33" s="28" t="s">
         <v>404</v>
       </c>
@@ -37337,7 +37332,7 @@
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:29">
       <c r="A34" s="34"/>
-      <c r="B34" s="191" t="s">
+      <c r="B34" s="192" t="s">
         <v>412</v>
       </c>
       <c r="C34" s="31" t="s">
@@ -37349,16 +37344,16 @@
       <c r="E34" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F34" s="188"/>
+      <c r="F34" s="189"/>
       <c r="G34" s="60"/>
-      <c r="H34" s="178" t="s">
+      <c r="H34" s="179" t="s">
         <v>415</v>
       </c>
       <c r="I34" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J34" s="202"/>
-      <c r="K34" s="201"/>
+      <c r="J34" s="203"/>
+      <c r="K34" s="202"/>
       <c r="L34" s="28" t="s">
         <v>283</v>
       </c>
@@ -37382,10 +37377,10 @@
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:29">
       <c r="A35" s="34"/>
-      <c r="B35" s="191" t="s">
+      <c r="B35" s="192" t="s">
         <v>416</v>
       </c>
-      <c r="C35" s="193" t="s">
+      <c r="C35" s="194" t="s">
         <v>417</v>
       </c>
       <c r="D35" s="31" t="s">
@@ -37394,16 +37389,16 @@
       <c r="E35" s="31" t="s">
         <v>419</v>
       </c>
-      <c r="F35" s="188"/>
+      <c r="F35" s="189"/>
       <c r="G35" s="60"/>
-      <c r="H35" s="178" t="s">
+      <c r="H35" s="179" t="s">
         <v>420</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J35" s="202"/>
-      <c r="K35" s="201"/>
+      <c r="J35" s="203"/>
+      <c r="K35" s="202"/>
       <c r="L35" s="28" t="s">
         <v>283</v>
       </c>
@@ -37439,16 +37434,16 @@
       <c r="E36" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F36" s="188"/>
+      <c r="F36" s="189"/>
       <c r="G36" s="60"/>
-      <c r="H36" s="178" t="s">
+      <c r="H36" s="179" t="s">
         <v>424</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J36" s="202"/>
-      <c r="K36" s="201"/>
+      <c r="J36" s="203"/>
+      <c r="K36" s="202"/>
       <c r="L36" s="28" t="s">
         <v>283</v>
       </c>
@@ -37472,7 +37467,7 @@
     </row>
     <row r="37" ht="27" customHeight="1" spans="1:29">
       <c r="A37" s="34"/>
-      <c r="B37" s="187" t="s">
+      <c r="B37" s="188" t="s">
         <v>425</v>
       </c>
       <c r="C37" s="31" t="s">
@@ -37484,15 +37479,15 @@
       <c r="E37" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="F37" s="188"/>
+      <c r="F37" s="189"/>
       <c r="G37" s="60"/>
-      <c r="H37" s="178" t="s">
+      <c r="H37" s="179" t="s">
         <v>364</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J37" s="200" t="s">
+      <c r="J37" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K37" s="28" t="s">
@@ -37533,17 +37528,17 @@
       <c r="E38" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="F38" s="185" t="s">
+      <c r="F38" s="186" t="s">
         <v>150</v>
       </c>
       <c r="G38" s="60"/>
-      <c r="H38" s="178" t="s">
+      <c r="H38" s="179" t="s">
         <v>432</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J38" s="200" t="s">
+      <c r="J38" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K38" s="28" t="s">
@@ -37574,10 +37569,10 @@
       <c r="A39" s="168" t="s">
         <v>433</v>
       </c>
-      <c r="B39" s="187" t="s">
+      <c r="B39" s="188" t="s">
         <v>434</v>
       </c>
-      <c r="C39" s="180" t="s">
+      <c r="C39" s="181" t="s">
         <v>435</v>
       </c>
       <c r="D39" s="31" t="s">
@@ -37586,7 +37581,7 @@
       <c r="E39" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="F39" s="177" t="s">
+      <c r="F39" s="178" t="s">
         <v>438</v>
       </c>
       <c r="G39" s="28" t="s">
@@ -37598,7 +37593,7 @@
       <c r="I39" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J39" s="200" t="s">
+      <c r="J39" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K39" s="28" t="s">
@@ -37639,7 +37634,7 @@
       <c r="E40" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="F40" s="188"/>
+      <c r="F40" s="189"/>
       <c r="G40" s="34"/>
       <c r="H40" s="65" t="s">
         <v>439</v>
@@ -37647,7 +37642,7 @@
       <c r="I40" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J40" s="200" t="s">
+      <c r="J40" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K40" s="28" t="s">
@@ -37688,7 +37683,7 @@
       <c r="E41" s="31" t="s">
         <v>445</v>
       </c>
-      <c r="F41" s="177" t="s">
+      <c r="F41" s="178" t="s">
         <v>446</v>
       </c>
       <c r="G41" s="34"/>
@@ -37698,7 +37693,7 @@
       <c r="I41" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J41" s="200" t="s">
+      <c r="J41" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K41" s="28" t="s">
@@ -37729,7 +37724,7 @@
       <c r="A42" s="168" t="s">
         <v>448</v>
       </c>
-      <c r="B42" s="187" t="s">
+      <c r="B42" s="188" t="s">
         <v>449</v>
       </c>
       <c r="C42" s="31" t="s">
@@ -37741,19 +37736,19 @@
       <c r="E42" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="F42" s="177" t="s">
+      <c r="F42" s="178" t="s">
         <v>150</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="H42" s="178" t="s">
+      <c r="H42" s="179" t="s">
         <v>364</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J42" s="200" t="s">
+      <c r="J42" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K42" s="28" t="s">
@@ -37782,7 +37777,7 @@
     </row>
     <row r="43" ht="15" spans="1:29">
       <c r="A43" s="34"/>
-      <c r="B43" s="190"/>
+      <c r="B43" s="191"/>
       <c r="C43" s="60"/>
       <c r="D43" s="31" t="s">
         <v>453</v>
@@ -37790,7 +37785,7 @@
       <c r="E43" s="63" t="s">
         <v>454</v>
       </c>
-      <c r="F43" s="188"/>
+      <c r="F43" s="189"/>
       <c r="G43" s="60"/>
       <c r="H43" s="65" t="s">
         <v>455</v>
@@ -37798,7 +37793,7 @@
       <c r="I43" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J43" s="200" t="s">
+      <c r="J43" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K43" s="34"/>
@@ -37823,7 +37818,7 @@
     </row>
     <row r="44" ht="126" customHeight="1" spans="1:29">
       <c r="A44" s="34"/>
-      <c r="B44" s="187" t="s">
+      <c r="B44" s="188" t="s">
         <v>456</v>
       </c>
       <c r="C44" s="31" t="s">
@@ -37835,20 +37830,20 @@
       <c r="E44" s="63" t="s">
         <v>459</v>
       </c>
-      <c r="F44" s="177" t="s">
+      <c r="F44" s="178" t="s">
         <v>460</v>
       </c>
       <c r="G44" s="60"/>
-      <c r="H44" s="194" t="s">
+      <c r="H44" s="195" t="s">
         <v>364</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J44" s="203" t="s">
+      <c r="J44" s="204" t="s">
         <v>461</v>
       </c>
-      <c r="K44" s="201"/>
+      <c r="K44" s="202"/>
       <c r="L44" s="28" t="s">
         <v>283</v>
       </c>
@@ -37877,7 +37872,7 @@
       <c r="B45" s="169" t="s">
         <v>463</v>
       </c>
-      <c r="C45" s="180" t="s">
+      <c r="C45" s="181" t="s">
         <v>464</v>
       </c>
       <c r="D45" s="31" t="s">
@@ -37886,7 +37881,7 @@
       <c r="E45" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="F45" s="185" t="s">
+      <c r="F45" s="186" t="s">
         <v>150</v>
       </c>
       <c r="G45" s="28" t="s">
@@ -37898,7 +37893,7 @@
       <c r="I45" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J45" s="200" t="s">
+      <c r="J45" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K45" s="28" t="s">
@@ -37941,7 +37936,7 @@
       <c r="E46" s="111" t="s">
         <v>470</v>
       </c>
-      <c r="F46" s="195" t="s">
+      <c r="F46" s="196" t="s">
         <v>471</v>
       </c>
       <c r="G46" s="28" t="s">
@@ -37953,7 +37948,7 @@
       <c r="I46" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="J46" s="200" t="s">
+      <c r="J46" s="201" t="s">
         <v>282</v>
       </c>
       <c r="K46" s="113" t="s">
@@ -37982,19 +37977,19 @@
     </row>
     <row r="47" ht="69.75" customHeight="1" spans="1:29">
       <c r="A47" s="150"/>
-      <c r="B47" s="196" t="s">
+      <c r="B47" s="197" t="s">
         <v>472</v>
       </c>
-      <c r="C47" s="197" t="s">
+      <c r="C47" s="198" t="s">
         <v>473</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="196" t="s">
         <v>474</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="195" t="s">
+      <c r="F47" s="196" t="s">
         <v>475</v>
       </c>
       <c r="G47" s="39"/>
@@ -38004,7 +37999,7 @@
       <c r="I47" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="J47" s="204" t="s">
+      <c r="J47" s="205" t="s">
         <v>282</v>
       </c>
       <c r="K47" s="113" t="s">
@@ -38050,7 +38045,7 @@
       <c r="F48" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="G48" s="198" t="s">
+      <c r="G48" s="199" t="s">
         <v>186</v>
       </c>
       <c r="H48" s="96" t="s">
@@ -38059,7 +38054,7 @@
       <c r="I48" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="J48" s="205" t="s">
+      <c r="J48" s="206" t="s">
         <v>282</v>
       </c>
       <c r="K48" s="12" t="s">
@@ -38093,7 +38088,7 @@
       <c r="D49" s="57"/>
       <c r="E49" s="57"/>
       <c r="F49" s="57"/>
-      <c r="G49" s="199"/>
+      <c r="G49" s="200"/>
       <c r="H49" s="57"/>
       <c r="I49" s="57"/>
       <c r="J49" s="57"/>
@@ -42498,10 +42493,10 @@
   <sheetPr/>
   <dimension ref="A1:X199"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -42851,19 +42846,19 @@
         <v>187</v>
       </c>
       <c r="J8" s="60"/>
-      <c r="K8" s="171"/>
-      <c r="L8" s="171"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="171"/>
-      <c r="O8" s="171"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="171"/>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="171"/>
-      <c r="V8" s="171"/>
-      <c r="W8" s="171"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="172"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="172"/>
+      <c r="P8" s="172"/>
+      <c r="Q8" s="172"/>
+      <c r="R8" s="172"/>
+      <c r="S8" s="172"/>
+      <c r="T8" s="172"/>
+      <c r="U8" s="172"/>
+      <c r="V8" s="172"/>
+      <c r="W8" s="172"/>
       <c r="X8" s="59"/>
     </row>
     <row r="9" ht="30" spans="1:24">
@@ -42893,19 +42888,19 @@
         <v>187</v>
       </c>
       <c r="J9" s="60"/>
-      <c r="K9" s="171"/>
-      <c r="L9" s="171"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="171"/>
-      <c r="R9" s="171"/>
-      <c r="S9" s="171"/>
-      <c r="T9" s="171"/>
-      <c r="U9" s="171"/>
-      <c r="V9" s="171"/>
-      <c r="W9" s="171"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
+      <c r="M9" s="172"/>
+      <c r="N9" s="172"/>
+      <c r="O9" s="172"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="172"/>
+      <c r="R9" s="172"/>
+      <c r="S9" s="172"/>
+      <c r="T9" s="172"/>
+      <c r="U9" s="172"/>
+      <c r="V9" s="172"/>
+      <c r="W9" s="172"/>
       <c r="X9" s="59"/>
     </row>
     <row r="10" ht="30" spans="1:24">
@@ -42935,19 +42930,19 @@
         <v>187</v>
       </c>
       <c r="J10" s="60"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="171"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="171"/>
-      <c r="P10" s="171"/>
-      <c r="Q10" s="171"/>
-      <c r="R10" s="171"/>
-      <c r="S10" s="171"/>
-      <c r="T10" s="171"/>
-      <c r="U10" s="171"/>
-      <c r="V10" s="171"/>
-      <c r="W10" s="171"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="172"/>
+      <c r="R10" s="172"/>
+      <c r="S10" s="172"/>
+      <c r="T10" s="172"/>
+      <c r="U10" s="172"/>
+      <c r="V10" s="172"/>
+      <c r="W10" s="172"/>
       <c r="X10" s="59"/>
     </row>
     <row r="11" ht="30" spans="1:24">
@@ -42977,19 +42972,19 @@
         <v>187</v>
       </c>
       <c r="J11" s="60"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="171"/>
-      <c r="M11" s="171"/>
-      <c r="N11" s="171"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="171"/>
-      <c r="R11" s="171"/>
-      <c r="S11" s="171"/>
-      <c r="T11" s="171"/>
-      <c r="U11" s="171"/>
-      <c r="V11" s="171"/>
-      <c r="W11" s="171"/>
+      <c r="K11" s="172"/>
+      <c r="L11" s="172"/>
+      <c r="M11" s="172"/>
+      <c r="N11" s="172"/>
+      <c r="O11" s="172"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="172"/>
+      <c r="R11" s="172"/>
+      <c r="S11" s="172"/>
+      <c r="T11" s="172"/>
+      <c r="U11" s="172"/>
+      <c r="V11" s="172"/>
+      <c r="W11" s="172"/>
       <c r="X11" s="59"/>
     </row>
     <row r="12" ht="45" spans="1:24">
@@ -43019,19 +43014,19 @@
         <v>187</v>
       </c>
       <c r="J12" s="60"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="171"/>
-      <c r="N12" s="171"/>
-      <c r="O12" s="171"/>
-      <c r="P12" s="171"/>
-      <c r="Q12" s="171"/>
-      <c r="R12" s="171"/>
-      <c r="S12" s="171"/>
-      <c r="T12" s="171"/>
-      <c r="U12" s="171"/>
-      <c r="V12" s="171"/>
-      <c r="W12" s="171"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="172"/>
+      <c r="O12" s="172"/>
+      <c r="P12" s="172"/>
+      <c r="Q12" s="172"/>
+      <c r="R12" s="172"/>
+      <c r="S12" s="172"/>
+      <c r="T12" s="172"/>
+      <c r="U12" s="172"/>
+      <c r="V12" s="172"/>
+      <c r="W12" s="172"/>
       <c r="X12" s="59"/>
     </row>
     <row r="13" ht="30" spans="1:24">
@@ -43061,19 +43056,19 @@
         <v>187</v>
       </c>
       <c r="J13" s="60"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="171"/>
-      <c r="N13" s="171"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="171"/>
-      <c r="Q13" s="171"/>
-      <c r="R13" s="171"/>
-      <c r="S13" s="171"/>
-      <c r="T13" s="171"/>
-      <c r="U13" s="171"/>
-      <c r="V13" s="171"/>
-      <c r="W13" s="171"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="172"/>
+      <c r="N13" s="172"/>
+      <c r="O13" s="172"/>
+      <c r="P13" s="172"/>
+      <c r="Q13" s="172"/>
+      <c r="R13" s="172"/>
+      <c r="S13" s="172"/>
+      <c r="T13" s="172"/>
+      <c r="U13" s="172"/>
+      <c r="V13" s="172"/>
+      <c r="W13" s="172"/>
       <c r="X13" s="59"/>
     </row>
     <row r="14" ht="54" customHeight="1" spans="1:24">
@@ -43103,19 +43098,19 @@
         <v>187</v>
       </c>
       <c r="J14" s="60"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="171"/>
-      <c r="P14" s="171"/>
-      <c r="Q14" s="171"/>
-      <c r="R14" s="171"/>
-      <c r="S14" s="171"/>
-      <c r="T14" s="171"/>
-      <c r="U14" s="171"/>
-      <c r="V14" s="171"/>
-      <c r="W14" s="171"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="172"/>
+      <c r="N14" s="172"/>
+      <c r="O14" s="172"/>
+      <c r="P14" s="172"/>
+      <c r="Q14" s="172"/>
+      <c r="R14" s="172"/>
+      <c r="S14" s="172"/>
+      <c r="T14" s="172"/>
+      <c r="U14" s="172"/>
+      <c r="V14" s="172"/>
+      <c r="W14" s="172"/>
       <c r="X14" s="59"/>
     </row>
     <row r="15" ht="30" spans="1:24">
@@ -43186,7 +43181,7 @@
       <c r="I16" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="J16" s="172"/>
+      <c r="J16" s="173"/>
       <c r="K16" s="91"/>
       <c r="L16" s="91"/>
       <c r="M16" s="91"/>
@@ -43253,7 +43248,7 @@
       <c r="B18" s="53" t="s">
         <v>490</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="171" t="s">
         <v>544</v>
       </c>
       <c r="D18" s="53" t="s">
@@ -43297,7 +43292,7 @@
       <c r="B19" s="53" t="s">
         <v>549</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="171" t="s">
         <v>550</v>
       </c>
       <c r="D19" s="53" t="s">
@@ -43385,7 +43380,7 @@
       <c r="B21" s="53" t="s">
         <v>558</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="171" t="s">
         <v>559</v>
       </c>
       <c r="D21" s="53" t="s">
@@ -48065,10 +48060,10 @@
   <sheetPr/>
   <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:A21"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/assest/20240626-解放项目-语音指令表-v1.0.1.xlsx
+++ b/assest/20240626-解放项目-语音指令表-v1.0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14255" windowHeight="7944" activeTab="6"/>
+    <workbookView windowWidth="13608" windowHeight="8507" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="19" r:id="rId1"/>
@@ -6254,7 +6254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6762,9 +6762,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -7346,52 +7343,52 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.2" spans="1:4">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
     </row>
     <row r="2" ht="25.8" spans="1:4">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="247" t="s">
+      <c r="C2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="247" t="s">
+      <c r="D2" s="246" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="22.2" spans="1:4">
-      <c r="A3" s="248" t="s">
+      <c r="A3" s="247" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="249">
+      <c r="B3" s="248">
         <v>45408</v>
       </c>
-      <c r="C3" s="248" t="s">
+      <c r="C3" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="250" t="s">
+      <c r="D3" s="249" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="26.4" spans="1:4">
-      <c r="A4" s="248" t="s">
+      <c r="A4" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="249">
+      <c r="B4" s="248">
         <v>45469</v>
       </c>
-      <c r="C4" s="248" t="s">
+      <c r="C4" s="247" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="251" t="s">
+      <c r="D4" s="250" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7409,8 +7406,8 @@
   <sheetPr/>
   <dimension ref="A1:AC204"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
@@ -14045,10 +14042,10 @@
   <sheetPr/>
   <dimension ref="A1:AC125"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -18925,16 +18922,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:26">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="236" t="s">
+      <c r="B1" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="237" t="s">
+      <c r="C1" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="237" t="s">
+      <c r="D1" s="236" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="57"/>
@@ -18964,7 +18961,7 @@
       <c r="A2" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="238" t="s">
+      <c r="B2" s="237" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -18998,7 +18995,7 @@
     </row>
     <row r="3" ht="15" spans="1:26">
       <c r="A3" s="34"/>
-      <c r="B3" s="239"/>
+      <c r="B3" s="238"/>
       <c r="C3" s="28" t="s">
         <v>19</v>
       </c>
@@ -19030,7 +19027,7 @@
     </row>
     <row r="4" ht="60" spans="1:26">
       <c r="A4" s="34"/>
-      <c r="B4" s="239"/>
+      <c r="B4" s="238"/>
       <c r="C4" s="28" t="s">
         <v>21</v>
       </c>
@@ -19064,7 +19061,7 @@
       <c r="A5" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="240" t="s">
+      <c r="B5" s="239" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -19073,7 +19070,7 @@
       <c r="D5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="241"/>
+      <c r="E5" s="240"/>
       <c r="F5" s="57"/>
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
@@ -19098,14 +19095,14 @@
     </row>
     <row r="6" ht="27.75" customHeight="1" spans="1:26">
       <c r="A6" s="34"/>
-      <c r="B6" s="239"/>
+      <c r="B6" s="238"/>
       <c r="C6" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="241"/>
+      <c r="E6" s="240"/>
       <c r="F6" s="59"/>
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>
@@ -19130,14 +19127,14 @@
     </row>
     <row r="7" ht="69.75" customHeight="1" spans="1:26">
       <c r="A7" s="34"/>
-      <c r="B7" s="239"/>
+      <c r="B7" s="238"/>
       <c r="C7" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="241"/>
+      <c r="E7" s="240"/>
       <c r="F7" s="57"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
@@ -19162,14 +19159,14 @@
     </row>
     <row r="8" ht="69.75" customHeight="1" spans="1:26">
       <c r="A8" s="34"/>
-      <c r="B8" s="239"/>
+      <c r="B8" s="238"/>
       <c r="C8" s="28" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="241"/>
+      <c r="E8" s="240"/>
       <c r="F8" s="57"/>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
@@ -19196,7 +19193,7 @@
       <c r="A9" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="240" t="s">
+      <c r="B9" s="239" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -19230,7 +19227,7 @@
     </row>
     <row r="10" ht="60" spans="1:26">
       <c r="A10" s="34"/>
-      <c r="B10" s="239"/>
+      <c r="B10" s="238"/>
       <c r="C10" s="28" t="s">
         <v>19</v>
       </c>
@@ -19262,7 +19259,7 @@
     </row>
     <row r="11" ht="90" spans="1:26">
       <c r="A11" s="34"/>
-      <c r="B11" s="239"/>
+      <c r="B11" s="238"/>
       <c r="C11" s="28" t="s">
         <v>21</v>
       </c>
@@ -19294,7 +19291,7 @@
     </row>
     <row r="12" ht="15" spans="1:26">
       <c r="A12" s="34"/>
-      <c r="B12" s="239"/>
+      <c r="B12" s="238"/>
       <c r="C12" s="28" t="s">
         <v>4</v>
       </c>
@@ -19328,7 +19325,7 @@
       <c r="A13" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="240" t="s">
+      <c r="B13" s="239" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="28" t="s">
@@ -19362,7 +19359,7 @@
     </row>
     <row r="14" ht="45" spans="1:26">
       <c r="A14" s="34"/>
-      <c r="B14" s="239"/>
+      <c r="B14" s="238"/>
       <c r="C14" s="28" t="s">
         <v>19</v>
       </c>
@@ -19394,7 +19391,7 @@
     </row>
     <row r="15" ht="60" spans="1:26">
       <c r="A15" s="34"/>
-      <c r="B15" s="239"/>
+      <c r="B15" s="238"/>
       <c r="C15" s="28" t="s">
         <v>21</v>
       </c>
@@ -19428,7 +19425,7 @@
       <c r="A16" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="240" t="s">
+      <c r="B16" s="239" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="55" t="s">
@@ -19462,7 +19459,7 @@
     </row>
     <row r="17" ht="60" spans="1:26">
       <c r="A17" s="34"/>
-      <c r="B17" s="239"/>
+      <c r="B17" s="238"/>
       <c r="C17" s="55" t="s">
         <v>19</v>
       </c>
@@ -19494,7 +19491,7 @@
     </row>
     <row r="18" ht="60" spans="1:26">
       <c r="A18" s="34"/>
-      <c r="B18" s="239"/>
+      <c r="B18" s="238"/>
       <c r="C18" s="55" t="s">
         <v>21</v>
       </c>
@@ -19528,7 +19525,7 @@
       <c r="A19" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="242" t="s">
+      <c r="B19" s="241" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="55" t="s">
@@ -19562,8 +19559,8 @@
     </row>
     <row r="20" ht="75" spans="1:26">
       <c r="A20" s="150"/>
-      <c r="B20" s="243"/>
-      <c r="C20" s="244" t="s">
+      <c r="B20" s="242"/>
+      <c r="C20" s="243" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="111" t="s">
@@ -19593,10 +19590,10 @@
       <c r="Z20" s="59"/>
     </row>
     <row r="21" ht="15" spans="1:26">
-      <c r="A21" s="245">
+      <c r="A21" s="244">
         <v>10</v>
       </c>
-      <c r="B21" s="242" t="s">
+      <c r="B21" s="241" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -19630,7 +19627,7 @@
     </row>
     <row r="22" ht="15" spans="1:26">
       <c r="A22" s="150"/>
-      <c r="B22" s="243"/>
+      <c r="B22" s="242"/>
       <c r="C22" s="28" t="s">
         <v>19</v>
       </c>
@@ -19662,7 +19659,7 @@
     </row>
     <row r="23" ht="60" spans="1:26">
       <c r="A23" s="150"/>
-      <c r="B23" s="243"/>
+      <c r="B23" s="242"/>
       <c r="C23" s="113" t="s">
         <v>21</v>
       </c>
@@ -19696,7 +19693,7 @@
       <c r="A24" s="87">
         <v>11</v>
       </c>
-      <c r="B24" s="233" t="s">
+      <c r="B24" s="232" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="87" t="s">
@@ -24509,17 +24506,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="121.5" customHeight="1" spans="1:27">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
       <c r="J1" s="59"/>
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
@@ -24540,29 +24537,29 @@
       <c r="AA1" s="59"/>
     </row>
     <row r="2" ht="15.6" spans="1:27">
-      <c r="A2" s="218"/>
-      <c r="B2" s="218" t="s">
+      <c r="A2" s="217"/>
+      <c r="B2" s="217" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="218" t="s">
+      <c r="C2" s="217" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="218" t="s">
+      <c r="D2" s="217" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="218" t="s">
+      <c r="E2" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="218" t="s">
+      <c r="F2" s="217" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="218" t="s">
+      <c r="G2" s="217" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="218" t="s">
+      <c r="I2" s="217" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="59"/>
@@ -24585,13 +24582,13 @@
       <c r="AA2" s="59"/>
     </row>
     <row r="3" ht="27.75" customHeight="1" spans="1:27">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="219" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="219" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="221" t="s">
+      <c r="C3" s="220" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="61" t="s">
@@ -24606,7 +24603,7 @@
       <c r="G3" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="178"/>
+      <c r="H3" s="177"/>
       <c r="I3" s="31" t="s">
         <v>70</v>
       </c>
@@ -24632,7 +24629,7 @@
     <row r="4" ht="27.75" customHeight="1" spans="1:27">
       <c r="A4" s="34"/>
       <c r="B4" s="60"/>
-      <c r="C4" s="221" t="s">
+      <c r="C4" s="220" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="61" t="s">
@@ -24647,7 +24644,7 @@
       <c r="G4" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="222"/>
+      <c r="H4" s="221"/>
       <c r="I4" s="60"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
@@ -24671,7 +24668,7 @@
     <row r="5" ht="27.75" customHeight="1" spans="1:27">
       <c r="A5" s="34"/>
       <c r="B5" s="60"/>
-      <c r="C5" s="221" t="s">
+      <c r="C5" s="220" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="61" t="s">
@@ -24686,7 +24683,7 @@
       <c r="G5" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="222"/>
+      <c r="H5" s="221"/>
       <c r="I5" s="60"/>
       <c r="J5" s="59"/>
       <c r="K5" s="59"/>
@@ -24710,7 +24707,7 @@
     <row r="6" ht="27.75" customHeight="1" spans="1:27">
       <c r="A6" s="34"/>
       <c r="B6" s="60"/>
-      <c r="C6" s="221" t="s">
+      <c r="C6" s="220" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="61" t="s">
@@ -24725,7 +24722,7 @@
       <c r="G6" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="222"/>
+      <c r="H6" s="221"/>
       <c r="I6" s="60"/>
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
@@ -24749,7 +24746,7 @@
     <row r="7" ht="27.75" customHeight="1" spans="1:27">
       <c r="A7" s="34"/>
       <c r="B7" s="60"/>
-      <c r="C7" s="221" t="s">
+      <c r="C7" s="220" t="s">
         <v>77</v>
       </c>
       <c r="D7" s="61" t="s">
@@ -24764,7 +24761,7 @@
       <c r="G7" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="222"/>
+      <c r="H7" s="221"/>
       <c r="I7" s="60"/>
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
@@ -24788,7 +24785,7 @@
     <row r="8" ht="27.75" customHeight="1" spans="1:27">
       <c r="A8" s="34"/>
       <c r="B8" s="60"/>
-      <c r="C8" s="221" t="s">
+      <c r="C8" s="220" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="61" t="s">
@@ -24803,7 +24800,7 @@
       <c r="G8" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="222"/>
+      <c r="H8" s="221"/>
       <c r="I8" s="60"/>
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>
@@ -24827,7 +24824,7 @@
     <row r="9" ht="27.75" customHeight="1" spans="1:27">
       <c r="A9" s="34"/>
       <c r="B9" s="60"/>
-      <c r="C9" s="221" t="s">
+      <c r="C9" s="220" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="61" t="s">
@@ -24842,7 +24839,7 @@
       <c r="G9" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="222"/>
+      <c r="H9" s="221"/>
       <c r="I9" s="60"/>
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
@@ -24866,7 +24863,7 @@
     <row r="10" ht="74.25" customHeight="1" spans="1:27">
       <c r="A10" s="34"/>
       <c r="B10" s="60"/>
-      <c r="C10" s="221" t="s">
+      <c r="C10" s="220" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="61" t="s">
@@ -24881,7 +24878,7 @@
       <c r="G10" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="178"/>
+      <c r="H10" s="177"/>
       <c r="I10" s="60"/>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -24905,7 +24902,7 @@
     <row r="11" ht="56.25" customHeight="1" spans="1:27">
       <c r="A11" s="34"/>
       <c r="B11" s="60"/>
-      <c r="C11" s="221" t="s">
+      <c r="C11" s="220" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="61" t="s">
@@ -24920,7 +24917,7 @@
       <c r="G11" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="186"/>
+      <c r="H11" s="185"/>
       <c r="I11" s="60"/>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -24944,7 +24941,7 @@
     <row r="12" ht="56.25" customHeight="1" spans="1:27">
       <c r="A12" s="34"/>
       <c r="B12" s="60"/>
-      <c r="C12" s="223" t="s">
+      <c r="C12" s="222" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -24959,7 +24956,7 @@
       <c r="G12" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="178"/>
+      <c r="H12" s="177"/>
       <c r="I12" s="60"/>
       <c r="J12" s="59"/>
       <c r="K12" s="59"/>
@@ -24983,7 +24980,7 @@
     <row r="13" ht="55.5" customHeight="1" spans="1:27">
       <c r="A13" s="34"/>
       <c r="B13" s="60"/>
-      <c r="C13" s="221" t="s">
+      <c r="C13" s="220" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="61" t="s">
@@ -24998,7 +24995,7 @@
       <c r="G13" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="178"/>
+      <c r="H13" s="177"/>
       <c r="I13" s="60"/>
       <c r="J13" s="59"/>
       <c r="K13" s="59"/>
@@ -25022,7 +25019,7 @@
     <row r="14" ht="72" customHeight="1" spans="1:27">
       <c r="A14" s="34"/>
       <c r="B14" s="60"/>
-      <c r="C14" s="221" t="s">
+      <c r="C14" s="220" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="61" t="s">
@@ -25037,7 +25034,7 @@
       <c r="G14" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="178"/>
+      <c r="H14" s="177"/>
       <c r="I14" s="60"/>
       <c r="J14" s="59"/>
       <c r="K14" s="59"/>
@@ -25061,7 +25058,7 @@
     <row r="15" ht="59.25" customHeight="1" spans="1:27">
       <c r="A15" s="34"/>
       <c r="B15" s="60"/>
-      <c r="C15" s="221" t="s">
+      <c r="C15" s="220" t="s">
         <v>99</v>
       </c>
       <c r="D15" s="61" t="s">
@@ -25076,7 +25073,7 @@
       <c r="G15" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="222"/>
+      <c r="H15" s="221"/>
       <c r="I15" s="60"/>
       <c r="J15" s="59"/>
       <c r="K15" s="59"/>
@@ -25100,7 +25097,7 @@
     <row r="16" ht="84" customHeight="1" spans="1:27">
       <c r="A16" s="34"/>
       <c r="B16" s="60"/>
-      <c r="C16" s="221" t="s">
+      <c r="C16" s="220" t="s">
         <v>102</v>
       </c>
       <c r="D16" s="61" t="s">
@@ -25115,7 +25112,7 @@
       <c r="G16" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="222"/>
+      <c r="H16" s="221"/>
       <c r="I16" s="60"/>
       <c r="J16" s="59"/>
       <c r="K16" s="59"/>
@@ -25139,7 +25136,7 @@
     <row r="17" ht="84" customHeight="1" spans="1:27">
       <c r="A17" s="34"/>
       <c r="B17" s="60"/>
-      <c r="C17" s="221" t="s">
+      <c r="C17" s="220" t="s">
         <v>106</v>
       </c>
       <c r="D17" s="61" t="s">
@@ -25154,7 +25151,7 @@
       <c r="G17" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="222"/>
+      <c r="H17" s="221"/>
       <c r="I17" s="60"/>
       <c r="J17" s="59"/>
       <c r="K17" s="59"/>
@@ -25178,7 +25175,7 @@
     <row r="18" ht="27.75" customHeight="1" spans="1:27">
       <c r="A18" s="34"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="221" t="s">
+      <c r="C18" s="220" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="61" t="s">
@@ -25193,7 +25190,7 @@
       <c r="G18" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="222"/>
+      <c r="H18" s="221"/>
       <c r="I18" s="60"/>
       <c r="J18" s="59"/>
       <c r="K18" s="59"/>
@@ -25217,7 +25214,7 @@
     <row r="19" ht="27.75" customHeight="1" spans="1:27">
       <c r="A19" s="34"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="223" t="s">
+      <c r="C19" s="222" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="31" t="s">
@@ -25232,7 +25229,7 @@
       <c r="G19" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="222"/>
+      <c r="H19" s="221"/>
       <c r="I19" s="60"/>
       <c r="J19" s="59"/>
       <c r="K19" s="59"/>
@@ -25256,7 +25253,7 @@
     <row r="20" ht="27.75" customHeight="1" spans="1:27">
       <c r="A20" s="34"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="223" t="s">
+      <c r="C20" s="222" t="s">
         <v>114</v>
       </c>
       <c r="D20" s="31" t="s">
@@ -25271,7 +25268,7 @@
       <c r="G20" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="222"/>
+      <c r="H20" s="221"/>
       <c r="I20" s="60"/>
       <c r="J20" s="59"/>
       <c r="K20" s="59"/>
@@ -25295,7 +25292,7 @@
     <row r="21" ht="27.75" customHeight="1" spans="1:27">
       <c r="A21" s="34"/>
       <c r="B21" s="39"/>
-      <c r="C21" s="224" t="s">
+      <c r="C21" s="223" t="s">
         <v>117</v>
       </c>
       <c r="D21" s="42" t="s">
@@ -25310,7 +25307,7 @@
       <c r="G21" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="222"/>
+      <c r="H21" s="221"/>
       <c r="I21" s="60"/>
       <c r="J21" s="59"/>
       <c r="K21" s="59"/>
@@ -25332,13 +25329,13 @@
       <c r="AA21" s="59"/>
     </row>
     <row r="22" ht="111.75" customHeight="1" spans="1:27">
-      <c r="A22" s="225" t="s">
+      <c r="A22" s="224" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="226" t="s">
+      <c r="C22" s="225" t="s">
         <v>121</v>
       </c>
       <c r="D22" s="46" t="s">
@@ -25353,7 +25350,7 @@
       <c r="G22" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="222"/>
+      <c r="H22" s="221"/>
       <c r="I22" s="43"/>
       <c r="J22" s="59"/>
       <c r="K22" s="59"/>
@@ -25375,9 +25372,9 @@
       <c r="AA22" s="59"/>
     </row>
     <row r="23" ht="27.75" customHeight="1" spans="1:27">
-      <c r="A23" s="217"/>
+      <c r="A23" s="216"/>
       <c r="B23" s="98"/>
-      <c r="C23" s="226" t="s">
+      <c r="C23" s="225" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="46" t="s">
@@ -25390,7 +25387,7 @@
         <v>128</v>
       </c>
       <c r="G23" s="60"/>
-      <c r="H23" s="222"/>
+      <c r="H23" s="221"/>
       <c r="I23" s="43"/>
       <c r="J23" s="59"/>
       <c r="K23" s="59"/>
@@ -25412,9 +25409,9 @@
       <c r="AA23" s="59"/>
     </row>
     <row r="24" ht="69.75" customHeight="1" spans="1:27">
-      <c r="A24" s="217"/>
+      <c r="A24" s="216"/>
       <c r="B24" s="98"/>
-      <c r="C24" s="226" t="s">
+      <c r="C24" s="225" t="s">
         <v>129</v>
       </c>
       <c r="D24" s="46" t="s">
@@ -25429,7 +25426,7 @@
       <c r="G24" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="222"/>
+      <c r="H24" s="221"/>
       <c r="I24" s="43"/>
       <c r="J24" s="59"/>
       <c r="K24" s="59"/>
@@ -25451,9 +25448,9 @@
       <c r="AA24" s="59"/>
     </row>
     <row r="25" ht="111.75" customHeight="1" spans="1:27">
-      <c r="A25" s="217"/>
+      <c r="A25" s="216"/>
       <c r="B25" s="98"/>
-      <c r="C25" s="226" t="s">
+      <c r="C25" s="225" t="s">
         <v>133</v>
       </c>
       <c r="D25" s="46" t="s">
@@ -25468,7 +25465,7 @@
       <c r="G25" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="222"/>
+      <c r="H25" s="221"/>
       <c r="I25" s="43"/>
       <c r="J25" s="59"/>
       <c r="K25" s="59"/>
@@ -25490,9 +25487,9 @@
       <c r="AA25" s="59"/>
     </row>
     <row r="26" ht="97.5" customHeight="1" spans="1:27">
-      <c r="A26" s="217"/>
+      <c r="A26" s="216"/>
       <c r="B26" s="98"/>
-      <c r="C26" s="227" t="s">
+      <c r="C26" s="226" t="s">
         <v>136</v>
       </c>
       <c r="D26" s="96" t="s">
@@ -25507,7 +25504,7 @@
       <c r="G26" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="222"/>
+      <c r="H26" s="221"/>
       <c r="I26" s="43"/>
       <c r="J26" s="59"/>
       <c r="K26" s="59"/>
@@ -25529,9 +25526,9 @@
       <c r="AA26" s="59"/>
     </row>
     <row r="27" ht="69.75" customHeight="1" spans="1:27">
-      <c r="A27" s="174"/>
+      <c r="A27" s="173"/>
       <c r="B27" s="98"/>
-      <c r="C27" s="227" t="s">
+      <c r="C27" s="226" t="s">
         <v>141</v>
       </c>
       <c r="D27" s="96" t="s">
@@ -25546,7 +25543,7 @@
       <c r="G27" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="H27" s="222"/>
+      <c r="H27" s="221"/>
       <c r="I27" s="43"/>
       <c r="J27" s="59"/>
       <c r="K27" s="59"/>
@@ -25568,14 +25565,14 @@
       <c r="AA27" s="59"/>
     </row>
     <row r="28" ht="75" spans="1:27">
-      <c r="A28" s="228" t="s">
+      <c r="A28" s="227" t="s">
         <v>146</v>
       </c>
       <c r="B28" s="98"/>
-      <c r="C28" s="229" t="s">
+      <c r="C28" s="228" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="230" t="s">
+      <c r="D28" s="229" t="s">
         <v>148</v>
       </c>
       <c r="E28" s="65" t="s">
@@ -25587,7 +25584,7 @@
       <c r="G28" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H28" s="222"/>
+      <c r="H28" s="221"/>
       <c r="I28" s="43"/>
       <c r="J28" s="59"/>
       <c r="K28" s="59"/>
@@ -25609,9 +25606,9 @@
       <c r="AA28" s="59"/>
     </row>
     <row r="29" ht="100.5" customHeight="1" spans="1:27">
-      <c r="A29" s="231"/>
+      <c r="A29" s="230"/>
       <c r="B29" s="98"/>
-      <c r="C29" s="227" t="s">
+      <c r="C29" s="226" t="s">
         <v>152</v>
       </c>
       <c r="D29" s="97" t="s">
@@ -25626,7 +25623,7 @@
       <c r="G29" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="H29" s="186"/>
+      <c r="H29" s="185"/>
       <c r="I29" s="63"/>
       <c r="J29" s="59"/>
       <c r="K29" s="59"/>
@@ -25648,9 +25645,9 @@
       <c r="AA29" s="59"/>
     </row>
     <row r="30" ht="79.5" customHeight="1" spans="1:27">
-      <c r="A30" s="231"/>
+      <c r="A30" s="230"/>
       <c r="B30" s="98"/>
-      <c r="C30" s="232" t="s">
+      <c r="C30" s="231" t="s">
         <v>157</v>
       </c>
       <c r="D30" s="97" t="s">
@@ -25665,7 +25662,7 @@
       <c r="G30" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="H30" s="186"/>
+      <c r="H30" s="185"/>
       <c r="I30" s="31" t="s">
         <v>161</v>
       </c>
@@ -25689,12 +25686,12 @@
       <c r="AA30" s="59"/>
     </row>
     <row r="31" ht="60" spans="1:27">
-      <c r="A31" s="231"/>
+      <c r="A31" s="230"/>
       <c r="B31" s="98"/>
-      <c r="C31" s="226" t="s">
+      <c r="C31" s="225" t="s">
         <v>162</v>
       </c>
-      <c r="D31" s="230" t="s">
+      <c r="D31" s="229" t="s">
         <v>163</v>
       </c>
       <c r="E31" s="65" t="s">
@@ -25706,7 +25703,7 @@
       <c r="G31" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="H31" s="186"/>
+      <c r="H31" s="185"/>
       <c r="I31" s="63"/>
       <c r="J31" s="59"/>
       <c r="K31" s="59"/>
@@ -25728,24 +25725,24 @@
       <c r="AA31" s="59"/>
     </row>
     <row r="32" ht="90" spans="1:27">
-      <c r="A32" s="231"/>
+      <c r="A32" s="230"/>
       <c r="B32" s="98"/>
-      <c r="C32" s="233" t="s">
+      <c r="C32" s="232" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="230" t="s">
+      <c r="D32" s="229" t="s">
         <v>166</v>
       </c>
-      <c r="E32" s="234" t="s">
+      <c r="E32" s="233" t="s">
         <v>167</v>
       </c>
       <c r="F32" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="G32" s="235" t="s">
+      <c r="G32" s="234" t="s">
         <v>168</v>
       </c>
-      <c r="H32" s="222"/>
+      <c r="H32" s="221"/>
       <c r="I32" s="43"/>
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
@@ -25767,12 +25764,12 @@
       <c r="AA32" s="59"/>
     </row>
     <row r="33" ht="90" spans="1:27">
-      <c r="A33" s="231"/>
+      <c r="A33" s="230"/>
       <c r="B33" s="98"/>
-      <c r="C33" s="233" t="s">
+      <c r="C33" s="232" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="230" t="s">
+      <c r="D33" s="229" t="s">
         <v>169</v>
       </c>
       <c r="E33" s="65" t="s">
@@ -25781,10 +25778,10 @@
       <c r="F33" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="G33" s="235" t="s">
+      <c r="G33" s="234" t="s">
         <v>170</v>
       </c>
-      <c r="H33" s="186"/>
+      <c r="H33" s="185"/>
       <c r="I33" s="63"/>
       <c r="J33" s="59"/>
       <c r="K33" s="59"/>
@@ -30048,10 +30045,10 @@
   <sheetPr/>
   <dimension ref="A1:X200"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -30094,7 +30091,7 @@
       <c r="H1" s="146" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="213" t="s">
+      <c r="I1" s="212" t="s">
         <v>179</v>
       </c>
       <c r="J1" s="146" t="s">
@@ -30340,7 +30337,7 @@
       <c r="B7" s="106" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="207" t="s">
+      <c r="C7" s="206" t="s">
         <v>209</v>
       </c>
       <c r="D7" s="31" t="s">
@@ -30361,7 +30358,7 @@
       <c r="I7" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J7" s="214"/>
+      <c r="J7" s="213"/>
       <c r="K7" s="57"/>
       <c r="L7" s="57"/>
       <c r="M7" s="57"/>
@@ -30403,7 +30400,7 @@
       <c r="I8" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="214"/>
+      <c r="J8" s="213"/>
       <c r="K8" s="57"/>
       <c r="L8" s="57"/>
       <c r="M8" s="57"/>
@@ -30420,7 +30417,7 @@
       <c r="X8" s="57"/>
     </row>
     <row r="9" ht="15" spans="1:24">
-      <c r="A9" s="208"/>
+      <c r="A9" s="207"/>
       <c r="B9" s="106" t="s">
         <v>215</v>
       </c>
@@ -30445,7 +30442,7 @@
       <c r="I9" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J9" s="214"/>
+      <c r="J9" s="213"/>
       <c r="K9" s="57"/>
       <c r="L9" s="57"/>
       <c r="M9" s="57"/>
@@ -30489,7 +30486,7 @@
       <c r="I10" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J10" s="214"/>
+      <c r="J10" s="213"/>
       <c r="K10" s="57"/>
       <c r="L10" s="57"/>
       <c r="M10" s="57"/>
@@ -30531,7 +30528,7 @@
       <c r="I11" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J11" s="215"/>
+      <c r="J11" s="214"/>
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
       <c r="M11" s="57"/>
@@ -30548,7 +30545,7 @@
       <c r="X11" s="59"/>
     </row>
     <row r="12" ht="75" spans="1:24">
-      <c r="A12" s="209" t="s">
+      <c r="A12" s="208" t="s">
         <v>226</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -30857,7 +30854,7 @@
       <c r="A19" s="105" t="s">
         <v>262</v>
       </c>
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="209" t="s">
         <v>263</v>
       </c>
       <c r="C19" s="148" t="s">
@@ -30898,10 +30895,10 @@
       <c r="X19" s="57"/>
     </row>
     <row r="20" ht="15" spans="1:24">
-      <c r="A20" s="187" t="s">
+      <c r="A20" s="186" t="s">
         <v>267</v>
       </c>
-      <c r="B20" s="192" t="s">
+      <c r="B20" s="191" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="148" t="s">
@@ -30916,7 +30913,7 @@
       <c r="F20" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="211" t="s">
+      <c r="G20" s="210" t="s">
         <v>269</v>
       </c>
       <c r="H20" s="63" t="s">
@@ -30942,10 +30939,10 @@
       <c r="X20" s="57"/>
     </row>
     <row r="21" ht="135" spans="1:24">
-      <c r="A21" s="187" t="s">
+      <c r="A21" s="186" t="s">
         <v>270</v>
       </c>
-      <c r="B21" s="192" t="s">
+      <c r="B21" s="191" t="s">
         <v>271</v>
       </c>
       <c r="C21" s="148" t="s">
@@ -30960,7 +30957,7 @@
       <c r="F21" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="G21" s="211" t="s">
+      <c r="G21" s="210" t="s">
         <v>150</v>
       </c>
       <c r="H21" s="63" t="s">
@@ -30988,7 +30985,7 @@
     <row r="22" spans="1:24">
       <c r="A22" s="59"/>
       <c r="B22" s="59"/>
-      <c r="C22" s="212"/>
+      <c r="C22" s="211"/>
       <c r="D22" s="59"/>
       <c r="E22" s="59"/>
       <c r="F22" s="59"/>
@@ -31014,7 +31011,7 @@
     <row r="23" spans="1:24">
       <c r="A23" s="59"/>
       <c r="B23" s="59"/>
-      <c r="C23" s="212"/>
+      <c r="C23" s="211"/>
       <c r="D23" s="59"/>
       <c r="E23" s="59"/>
       <c r="F23" s="59"/>
@@ -31040,7 +31037,7 @@
     <row r="24" spans="1:24">
       <c r="A24" s="59"/>
       <c r="B24" s="59"/>
-      <c r="C24" s="212"/>
+      <c r="C24" s="211"/>
       <c r="D24" s="59"/>
       <c r="E24" s="59"/>
       <c r="F24" s="59"/>
@@ -31066,7 +31063,7 @@
     <row r="25" spans="1:24">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
-      <c r="C25" s="212"/>
+      <c r="C25" s="211"/>
       <c r="D25" s="59"/>
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
@@ -31092,7 +31089,7 @@
     <row r="26" spans="1:24">
       <c r="A26" s="59"/>
       <c r="B26" s="59"/>
-      <c r="C26" s="212"/>
+      <c r="C26" s="211"/>
       <c r="D26" s="59"/>
       <c r="E26" s="59"/>
       <c r="F26" s="59"/>
@@ -31118,7 +31115,7 @@
     <row r="27" spans="1:24">
       <c r="A27" s="59"/>
       <c r="B27" s="59"/>
-      <c r="C27" s="212"/>
+      <c r="C27" s="211"/>
       <c r="D27" s="59"/>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
@@ -31144,7 +31141,7 @@
     <row r="28" spans="1:24">
       <c r="A28" s="59"/>
       <c r="B28" s="59"/>
-      <c r="C28" s="212"/>
+      <c r="C28" s="211"/>
       <c r="D28" s="59"/>
       <c r="E28" s="59"/>
       <c r="F28" s="59"/>
@@ -31170,7 +31167,7 @@
     <row r="29" spans="1:24">
       <c r="A29" s="59"/>
       <c r="B29" s="59"/>
-      <c r="C29" s="212"/>
+      <c r="C29" s="211"/>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
       <c r="F29" s="59"/>
@@ -31196,7 +31193,7 @@
     <row r="30" spans="1:24">
       <c r="A30" s="59"/>
       <c r="B30" s="59"/>
-      <c r="C30" s="212"/>
+      <c r="C30" s="211"/>
       <c r="D30" s="59"/>
       <c r="E30" s="59"/>
       <c r="F30" s="59"/>
@@ -31222,7 +31219,7 @@
     <row r="31" spans="1:24">
       <c r="A31" s="59"/>
       <c r="B31" s="59"/>
-      <c r="C31" s="212"/>
+      <c r="C31" s="211"/>
       <c r="D31" s="59"/>
       <c r="E31" s="59"/>
       <c r="F31" s="59"/>
@@ -31248,7 +31245,7 @@
     <row r="32" spans="1:24">
       <c r="A32" s="59"/>
       <c r="B32" s="59"/>
-      <c r="C32" s="212"/>
+      <c r="C32" s="211"/>
       <c r="D32" s="59"/>
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
@@ -31274,7 +31271,7 @@
     <row r="33" spans="1:24">
       <c r="A33" s="59"/>
       <c r="B33" s="59"/>
-      <c r="C33" s="212"/>
+      <c r="C33" s="211"/>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
@@ -31300,7 +31297,7 @@
     <row r="34" spans="1:24">
       <c r="A34" s="59"/>
       <c r="B34" s="59"/>
-      <c r="C34" s="212"/>
+      <c r="C34" s="211"/>
       <c r="D34" s="59"/>
       <c r="E34" s="59"/>
       <c r="F34" s="59"/>
@@ -31326,7 +31323,7 @@
     <row r="35" spans="1:24">
       <c r="A35" s="59"/>
       <c r="B35" s="59"/>
-      <c r="C35" s="212"/>
+      <c r="C35" s="211"/>
       <c r="D35" s="59"/>
       <c r="E35" s="59"/>
       <c r="F35" s="59"/>
@@ -31352,7 +31349,7 @@
     <row r="36" spans="1:24">
       <c r="A36" s="59"/>
       <c r="B36" s="59"/>
-      <c r="C36" s="212"/>
+      <c r="C36" s="211"/>
       <c r="D36" s="59"/>
       <c r="E36" s="59"/>
       <c r="F36" s="59"/>
@@ -31378,7 +31375,7 @@
     <row r="37" spans="1:24">
       <c r="A37" s="59"/>
       <c r="B37" s="59"/>
-      <c r="C37" s="212"/>
+      <c r="C37" s="211"/>
       <c r="D37" s="59"/>
       <c r="E37" s="59"/>
       <c r="F37" s="59"/>
@@ -31404,7 +31401,7 @@
     <row r="38" spans="1:24">
       <c r="A38" s="59"/>
       <c r="B38" s="59"/>
-      <c r="C38" s="212"/>
+      <c r="C38" s="211"/>
       <c r="D38" s="59"/>
       <c r="E38" s="59"/>
       <c r="F38" s="59"/>
@@ -31430,7 +31427,7 @@
     <row r="39" spans="1:24">
       <c r="A39" s="59"/>
       <c r="B39" s="59"/>
-      <c r="C39" s="212"/>
+      <c r="C39" s="211"/>
       <c r="D39" s="59"/>
       <c r="E39" s="59"/>
       <c r="F39" s="59"/>
@@ -31456,7 +31453,7 @@
     <row r="40" spans="1:24">
       <c r="A40" s="59"/>
       <c r="B40" s="59"/>
-      <c r="C40" s="212"/>
+      <c r="C40" s="211"/>
       <c r="D40" s="59"/>
       <c r="E40" s="59"/>
       <c r="F40" s="59"/>
@@ -31482,7 +31479,7 @@
     <row r="41" spans="1:24">
       <c r="A41" s="59"/>
       <c r="B41" s="59"/>
-      <c r="C41" s="212"/>
+      <c r="C41" s="211"/>
       <c r="D41" s="59"/>
       <c r="E41" s="59"/>
       <c r="F41" s="59"/>
@@ -31508,7 +31505,7 @@
     <row r="42" spans="1:24">
       <c r="A42" s="59"/>
       <c r="B42" s="59"/>
-      <c r="C42" s="212"/>
+      <c r="C42" s="211"/>
       <c r="D42" s="59"/>
       <c r="E42" s="59"/>
       <c r="F42" s="59"/>
@@ -31534,7 +31531,7 @@
     <row r="43" spans="1:24">
       <c r="A43" s="59"/>
       <c r="B43" s="59"/>
-      <c r="C43" s="212"/>
+      <c r="C43" s="211"/>
       <c r="D43" s="59"/>
       <c r="E43" s="59"/>
       <c r="F43" s="59"/>
@@ -31560,7 +31557,7 @@
     <row r="44" spans="1:24">
       <c r="A44" s="59"/>
       <c r="B44" s="59"/>
-      <c r="C44" s="212"/>
+      <c r="C44" s="211"/>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
       <c r="F44" s="59"/>
@@ -31586,7 +31583,7 @@
     <row r="45" spans="1:24">
       <c r="A45" s="59"/>
       <c r="B45" s="59"/>
-      <c r="C45" s="212"/>
+      <c r="C45" s="211"/>
       <c r="D45" s="59"/>
       <c r="E45" s="59"/>
       <c r="F45" s="59"/>
@@ -31612,7 +31609,7 @@
     <row r="46" spans="1:24">
       <c r="A46" s="59"/>
       <c r="B46" s="59"/>
-      <c r="C46" s="212"/>
+      <c r="C46" s="211"/>
       <c r="D46" s="59"/>
       <c r="E46" s="59"/>
       <c r="F46" s="59"/>
@@ -31638,7 +31635,7 @@
     <row r="47" spans="1:24">
       <c r="A47" s="59"/>
       <c r="B47" s="59"/>
-      <c r="C47" s="212"/>
+      <c r="C47" s="211"/>
       <c r="D47" s="59"/>
       <c r="E47" s="59"/>
       <c r="F47" s="59"/>
@@ -31664,7 +31661,7 @@
     <row r="48" spans="1:24">
       <c r="A48" s="59"/>
       <c r="B48" s="59"/>
-      <c r="C48" s="212"/>
+      <c r="C48" s="211"/>
       <c r="D48" s="59"/>
       <c r="E48" s="59"/>
       <c r="F48" s="59"/>
@@ -31690,7 +31687,7 @@
     <row r="49" spans="1:24">
       <c r="A49" s="59"/>
       <c r="B49" s="59"/>
-      <c r="C49" s="212"/>
+      <c r="C49" s="211"/>
       <c r="D49" s="59"/>
       <c r="E49" s="59"/>
       <c r="F49" s="59"/>
@@ -31716,7 +31713,7 @@
     <row r="50" spans="1:24">
       <c r="A50" s="59"/>
       <c r="B50" s="59"/>
-      <c r="C50" s="212"/>
+      <c r="C50" s="211"/>
       <c r="D50" s="59"/>
       <c r="E50" s="59"/>
       <c r="F50" s="59"/>
@@ -31742,7 +31739,7 @@
     <row r="51" spans="1:24">
       <c r="A51" s="59"/>
       <c r="B51" s="59"/>
-      <c r="C51" s="212"/>
+      <c r="C51" s="211"/>
       <c r="D51" s="59"/>
       <c r="E51" s="59"/>
       <c r="F51" s="59"/>
@@ -31768,7 +31765,7 @@
     <row r="52" spans="1:24">
       <c r="A52" s="59"/>
       <c r="B52" s="59"/>
-      <c r="C52" s="212"/>
+      <c r="C52" s="211"/>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
       <c r="F52" s="59"/>
@@ -31794,7 +31791,7 @@
     <row r="53" spans="1:24">
       <c r="A53" s="59"/>
       <c r="B53" s="59"/>
-      <c r="C53" s="212"/>
+      <c r="C53" s="211"/>
       <c r="D53" s="59"/>
       <c r="E53" s="59"/>
       <c r="F53" s="59"/>
@@ -31820,7 +31817,7 @@
     <row r="54" spans="1:24">
       <c r="A54" s="59"/>
       <c r="B54" s="59"/>
-      <c r="C54" s="212"/>
+      <c r="C54" s="211"/>
       <c r="D54" s="59"/>
       <c r="E54" s="59"/>
       <c r="F54" s="59"/>
@@ -31846,7 +31843,7 @@
     <row r="55" spans="1:24">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
-      <c r="C55" s="212"/>
+      <c r="C55" s="211"/>
       <c r="D55" s="59"/>
       <c r="E55" s="59"/>
       <c r="F55" s="59"/>
@@ -31872,7 +31869,7 @@
     <row r="56" spans="1:24">
       <c r="A56" s="59"/>
       <c r="B56" s="59"/>
-      <c r="C56" s="212"/>
+      <c r="C56" s="211"/>
       <c r="D56" s="59"/>
       <c r="E56" s="59"/>
       <c r="F56" s="59"/>
@@ -31898,7 +31895,7 @@
     <row r="57" spans="1:24">
       <c r="A57" s="59"/>
       <c r="B57" s="59"/>
-      <c r="C57" s="212"/>
+      <c r="C57" s="211"/>
       <c r="D57" s="59"/>
       <c r="E57" s="59"/>
       <c r="F57" s="59"/>
@@ -31924,7 +31921,7 @@
     <row r="58" spans="1:24">
       <c r="A58" s="59"/>
       <c r="B58" s="59"/>
-      <c r="C58" s="212"/>
+      <c r="C58" s="211"/>
       <c r="D58" s="59"/>
       <c r="E58" s="59"/>
       <c r="F58" s="59"/>
@@ -31950,7 +31947,7 @@
     <row r="59" spans="1:24">
       <c r="A59" s="59"/>
       <c r="B59" s="59"/>
-      <c r="C59" s="212"/>
+      <c r="C59" s="211"/>
       <c r="D59" s="59"/>
       <c r="E59" s="59"/>
       <c r="F59" s="59"/>
@@ -31976,7 +31973,7 @@
     <row r="60" spans="1:24">
       <c r="A60" s="59"/>
       <c r="B60" s="59"/>
-      <c r="C60" s="212"/>
+      <c r="C60" s="211"/>
       <c r="D60" s="59"/>
       <c r="E60" s="59"/>
       <c r="F60" s="59"/>
@@ -32002,7 +31999,7 @@
     <row r="61" spans="1:24">
       <c r="A61" s="59"/>
       <c r="B61" s="59"/>
-      <c r="C61" s="212"/>
+      <c r="C61" s="211"/>
       <c r="D61" s="59"/>
       <c r="E61" s="59"/>
       <c r="F61" s="59"/>
@@ -32028,7 +32025,7 @@
     <row r="62" spans="1:24">
       <c r="A62" s="59"/>
       <c r="B62" s="59"/>
-      <c r="C62" s="212"/>
+      <c r="C62" s="211"/>
       <c r="D62" s="59"/>
       <c r="E62" s="59"/>
       <c r="F62" s="59"/>
@@ -32054,7 +32051,7 @@
     <row r="63" spans="1:24">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
-      <c r="C63" s="212"/>
+      <c r="C63" s="211"/>
       <c r="D63" s="59"/>
       <c r="E63" s="59"/>
       <c r="F63" s="59"/>
@@ -32080,7 +32077,7 @@
     <row r="64" spans="1:24">
       <c r="A64" s="59"/>
       <c r="B64" s="59"/>
-      <c r="C64" s="212"/>
+      <c r="C64" s="211"/>
       <c r="D64" s="59"/>
       <c r="E64" s="59"/>
       <c r="F64" s="59"/>
@@ -32106,7 +32103,7 @@
     <row r="65" spans="1:24">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
-      <c r="C65" s="212"/>
+      <c r="C65" s="211"/>
       <c r="D65" s="59"/>
       <c r="E65" s="59"/>
       <c r="F65" s="59"/>
@@ -32132,7 +32129,7 @@
     <row r="66" spans="1:24">
       <c r="A66" s="59"/>
       <c r="B66" s="59"/>
-      <c r="C66" s="212"/>
+      <c r="C66" s="211"/>
       <c r="D66" s="59"/>
       <c r="E66" s="59"/>
       <c r="F66" s="59"/>
@@ -32158,7 +32155,7 @@
     <row r="67" spans="1:24">
       <c r="A67" s="59"/>
       <c r="B67" s="59"/>
-      <c r="C67" s="212"/>
+      <c r="C67" s="211"/>
       <c r="D67" s="59"/>
       <c r="E67" s="59"/>
       <c r="F67" s="59"/>
@@ -32184,7 +32181,7 @@
     <row r="68" spans="1:24">
       <c r="A68" s="59"/>
       <c r="B68" s="59"/>
-      <c r="C68" s="212"/>
+      <c r="C68" s="211"/>
       <c r="D68" s="59"/>
       <c r="E68" s="59"/>
       <c r="F68" s="59"/>
@@ -32210,7 +32207,7 @@
     <row r="69" spans="1:24">
       <c r="A69" s="59"/>
       <c r="B69" s="59"/>
-      <c r="C69" s="212"/>
+      <c r="C69" s="211"/>
       <c r="D69" s="59"/>
       <c r="E69" s="59"/>
       <c r="F69" s="59"/>
@@ -32236,7 +32233,7 @@
     <row r="70" spans="1:24">
       <c r="A70" s="59"/>
       <c r="B70" s="59"/>
-      <c r="C70" s="212"/>
+      <c r="C70" s="211"/>
       <c r="D70" s="59"/>
       <c r="E70" s="59"/>
       <c r="F70" s="59"/>
@@ -32262,7 +32259,7 @@
     <row r="71" spans="1:24">
       <c r="A71" s="59"/>
       <c r="B71" s="59"/>
-      <c r="C71" s="212"/>
+      <c r="C71" s="211"/>
       <c r="D71" s="59"/>
       <c r="E71" s="59"/>
       <c r="F71" s="59"/>
@@ -32288,7 +32285,7 @@
     <row r="72" spans="1:24">
       <c r="A72" s="59"/>
       <c r="B72" s="59"/>
-      <c r="C72" s="212"/>
+      <c r="C72" s="211"/>
       <c r="D72" s="59"/>
       <c r="E72" s="59"/>
       <c r="F72" s="59"/>
@@ -32314,7 +32311,7 @@
     <row r="73" spans="1:24">
       <c r="A73" s="59"/>
       <c r="B73" s="59"/>
-      <c r="C73" s="212"/>
+      <c r="C73" s="211"/>
       <c r="D73" s="59"/>
       <c r="E73" s="59"/>
       <c r="F73" s="59"/>
@@ -32340,7 +32337,7 @@
     <row r="74" spans="1:24">
       <c r="A74" s="59"/>
       <c r="B74" s="59"/>
-      <c r="C74" s="212"/>
+      <c r="C74" s="211"/>
       <c r="D74" s="59"/>
       <c r="E74" s="59"/>
       <c r="F74" s="59"/>
@@ -32366,7 +32363,7 @@
     <row r="75" spans="1:24">
       <c r="A75" s="59"/>
       <c r="B75" s="59"/>
-      <c r="C75" s="212"/>
+      <c r="C75" s="211"/>
       <c r="D75" s="59"/>
       <c r="E75" s="59"/>
       <c r="F75" s="59"/>
@@ -32392,7 +32389,7 @@
     <row r="76" spans="1:24">
       <c r="A76" s="59"/>
       <c r="B76" s="59"/>
-      <c r="C76" s="212"/>
+      <c r="C76" s="211"/>
       <c r="D76" s="59"/>
       <c r="E76" s="59"/>
       <c r="F76" s="59"/>
@@ -32418,7 +32415,7 @@
     <row r="77" spans="1:24">
       <c r="A77" s="59"/>
       <c r="B77" s="59"/>
-      <c r="C77" s="212"/>
+      <c r="C77" s="211"/>
       <c r="D77" s="59"/>
       <c r="E77" s="59"/>
       <c r="F77" s="59"/>
@@ -32444,7 +32441,7 @@
     <row r="78" spans="1:24">
       <c r="A78" s="59"/>
       <c r="B78" s="59"/>
-      <c r="C78" s="212"/>
+      <c r="C78" s="211"/>
       <c r="D78" s="59"/>
       <c r="E78" s="59"/>
       <c r="F78" s="59"/>
@@ -32470,7 +32467,7 @@
     <row r="79" spans="1:24">
       <c r="A79" s="59"/>
       <c r="B79" s="59"/>
-      <c r="C79" s="212"/>
+      <c r="C79" s="211"/>
       <c r="D79" s="59"/>
       <c r="E79" s="59"/>
       <c r="F79" s="59"/>
@@ -32496,7 +32493,7 @@
     <row r="80" spans="1:24">
       <c r="A80" s="59"/>
       <c r="B80" s="59"/>
-      <c r="C80" s="212"/>
+      <c r="C80" s="211"/>
       <c r="D80" s="59"/>
       <c r="E80" s="59"/>
       <c r="F80" s="59"/>
@@ -32522,7 +32519,7 @@
     <row r="81" spans="1:24">
       <c r="A81" s="59"/>
       <c r="B81" s="59"/>
-      <c r="C81" s="212"/>
+      <c r="C81" s="211"/>
       <c r="D81" s="59"/>
       <c r="E81" s="59"/>
       <c r="F81" s="59"/>
@@ -32548,7 +32545,7 @@
     <row r="82" spans="1:24">
       <c r="A82" s="59"/>
       <c r="B82" s="59"/>
-      <c r="C82" s="212"/>
+      <c r="C82" s="211"/>
       <c r="D82" s="59"/>
       <c r="E82" s="59"/>
       <c r="F82" s="59"/>
@@ -32574,7 +32571,7 @@
     <row r="83" spans="1:24">
       <c r="A83" s="59"/>
       <c r="B83" s="59"/>
-      <c r="C83" s="212"/>
+      <c r="C83" s="211"/>
       <c r="D83" s="59"/>
       <c r="E83" s="59"/>
       <c r="F83" s="59"/>
@@ -32600,7 +32597,7 @@
     <row r="84" spans="1:24">
       <c r="A84" s="59"/>
       <c r="B84" s="59"/>
-      <c r="C84" s="212"/>
+      <c r="C84" s="211"/>
       <c r="D84" s="59"/>
       <c r="E84" s="59"/>
       <c r="F84" s="59"/>
@@ -32626,7 +32623,7 @@
     <row r="85" spans="1:24">
       <c r="A85" s="59"/>
       <c r="B85" s="59"/>
-      <c r="C85" s="212"/>
+      <c r="C85" s="211"/>
       <c r="D85" s="59"/>
       <c r="E85" s="59"/>
       <c r="F85" s="59"/>
@@ -32652,7 +32649,7 @@
     <row r="86" spans="1:24">
       <c r="A86" s="59"/>
       <c r="B86" s="59"/>
-      <c r="C86" s="212"/>
+      <c r="C86" s="211"/>
       <c r="D86" s="59"/>
       <c r="E86" s="59"/>
       <c r="F86" s="59"/>
@@ -32678,7 +32675,7 @@
     <row r="87" spans="1:24">
       <c r="A87" s="59"/>
       <c r="B87" s="59"/>
-      <c r="C87" s="212"/>
+      <c r="C87" s="211"/>
       <c r="D87" s="59"/>
       <c r="E87" s="59"/>
       <c r="F87" s="59"/>
@@ -32704,7 +32701,7 @@
     <row r="88" spans="1:24">
       <c r="A88" s="59"/>
       <c r="B88" s="59"/>
-      <c r="C88" s="212"/>
+      <c r="C88" s="211"/>
       <c r="D88" s="59"/>
       <c r="E88" s="59"/>
       <c r="F88" s="59"/>
@@ -32730,7 +32727,7 @@
     <row r="89" spans="1:24">
       <c r="A89" s="59"/>
       <c r="B89" s="59"/>
-      <c r="C89" s="212"/>
+      <c r="C89" s="211"/>
       <c r="D89" s="59"/>
       <c r="E89" s="59"/>
       <c r="F89" s="59"/>
@@ -32756,7 +32753,7 @@
     <row r="90" spans="1:24">
       <c r="A90" s="59"/>
       <c r="B90" s="59"/>
-      <c r="C90" s="212"/>
+      <c r="C90" s="211"/>
       <c r="D90" s="59"/>
       <c r="E90" s="59"/>
       <c r="F90" s="59"/>
@@ -32782,7 +32779,7 @@
     <row r="91" spans="1:24">
       <c r="A91" s="59"/>
       <c r="B91" s="59"/>
-      <c r="C91" s="212"/>
+      <c r="C91" s="211"/>
       <c r="D91" s="59"/>
       <c r="E91" s="59"/>
       <c r="F91" s="59"/>
@@ -32808,7 +32805,7 @@
     <row r="92" spans="1:24">
       <c r="A92" s="59"/>
       <c r="B92" s="59"/>
-      <c r="C92" s="212"/>
+      <c r="C92" s="211"/>
       <c r="D92" s="59"/>
       <c r="E92" s="59"/>
       <c r="F92" s="59"/>
@@ -32834,7 +32831,7 @@
     <row r="93" spans="1:24">
       <c r="A93" s="59"/>
       <c r="B93" s="59"/>
-      <c r="C93" s="212"/>
+      <c r="C93" s="211"/>
       <c r="D93" s="59"/>
       <c r="E93" s="59"/>
       <c r="F93" s="59"/>
@@ -32860,7 +32857,7 @@
     <row r="94" spans="1:24">
       <c r="A94" s="59"/>
       <c r="B94" s="59"/>
-      <c r="C94" s="212"/>
+      <c r="C94" s="211"/>
       <c r="D94" s="59"/>
       <c r="E94" s="59"/>
       <c r="F94" s="59"/>
@@ -32886,7 +32883,7 @@
     <row r="95" spans="1:24">
       <c r="A95" s="59"/>
       <c r="B95" s="59"/>
-      <c r="C95" s="212"/>
+      <c r="C95" s="211"/>
       <c r="D95" s="59"/>
       <c r="E95" s="59"/>
       <c r="F95" s="59"/>
@@ -32912,7 +32909,7 @@
     <row r="96" spans="1:24">
       <c r="A96" s="59"/>
       <c r="B96" s="59"/>
-      <c r="C96" s="212"/>
+      <c r="C96" s="211"/>
       <c r="D96" s="59"/>
       <c r="E96" s="59"/>
       <c r="F96" s="59"/>
@@ -32938,7 +32935,7 @@
     <row r="97" spans="1:24">
       <c r="A97" s="59"/>
       <c r="B97" s="59"/>
-      <c r="C97" s="212"/>
+      <c r="C97" s="211"/>
       <c r="D97" s="59"/>
       <c r="E97" s="59"/>
       <c r="F97" s="59"/>
@@ -32964,7 +32961,7 @@
     <row r="98" spans="1:24">
       <c r="A98" s="59"/>
       <c r="B98" s="59"/>
-      <c r="C98" s="212"/>
+      <c r="C98" s="211"/>
       <c r="D98" s="59"/>
       <c r="E98" s="59"/>
       <c r="F98" s="59"/>
@@ -32990,7 +32987,7 @@
     <row r="99" spans="1:24">
       <c r="A99" s="59"/>
       <c r="B99" s="59"/>
-      <c r="C99" s="212"/>
+      <c r="C99" s="211"/>
       <c r="D99" s="59"/>
       <c r="E99" s="59"/>
       <c r="F99" s="59"/>
@@ -33016,7 +33013,7 @@
     <row r="100" spans="1:24">
       <c r="A100" s="59"/>
       <c r="B100" s="59"/>
-      <c r="C100" s="212"/>
+      <c r="C100" s="211"/>
       <c r="D100" s="59"/>
       <c r="E100" s="59"/>
       <c r="F100" s="59"/>
@@ -33042,7 +33039,7 @@
     <row r="101" spans="1:24">
       <c r="A101" s="59"/>
       <c r="B101" s="59"/>
-      <c r="C101" s="212"/>
+      <c r="C101" s="211"/>
       <c r="D101" s="59"/>
       <c r="E101" s="59"/>
       <c r="F101" s="59"/>
@@ -33068,7 +33065,7 @@
     <row r="102" spans="1:24">
       <c r="A102" s="59"/>
       <c r="B102" s="59"/>
-      <c r="C102" s="212"/>
+      <c r="C102" s="211"/>
       <c r="D102" s="59"/>
       <c r="E102" s="59"/>
       <c r="F102" s="59"/>
@@ -33094,7 +33091,7 @@
     <row r="103" spans="1:24">
       <c r="A103" s="59"/>
       <c r="B103" s="59"/>
-      <c r="C103" s="212"/>
+      <c r="C103" s="211"/>
       <c r="D103" s="59"/>
       <c r="E103" s="59"/>
       <c r="F103" s="59"/>
@@ -33120,7 +33117,7 @@
     <row r="104" spans="1:24">
       <c r="A104" s="59"/>
       <c r="B104" s="59"/>
-      <c r="C104" s="212"/>
+      <c r="C104" s="211"/>
       <c r="D104" s="59"/>
       <c r="E104" s="59"/>
       <c r="F104" s="59"/>
@@ -33146,7 +33143,7 @@
     <row r="105" spans="1:24">
       <c r="A105" s="59"/>
       <c r="B105" s="59"/>
-      <c r="C105" s="212"/>
+      <c r="C105" s="211"/>
       <c r="D105" s="59"/>
       <c r="E105" s="59"/>
       <c r="F105" s="59"/>
@@ -33172,7 +33169,7 @@
     <row r="106" spans="1:24">
       <c r="A106" s="59"/>
       <c r="B106" s="59"/>
-      <c r="C106" s="212"/>
+      <c r="C106" s="211"/>
       <c r="D106" s="59"/>
       <c r="E106" s="59"/>
       <c r="F106" s="59"/>
@@ -33198,7 +33195,7 @@
     <row r="107" spans="1:24">
       <c r="A107" s="59"/>
       <c r="B107" s="59"/>
-      <c r="C107" s="212"/>
+      <c r="C107" s="211"/>
       <c r="D107" s="59"/>
       <c r="E107" s="59"/>
       <c r="F107" s="59"/>
@@ -33224,7 +33221,7 @@
     <row r="108" spans="1:24">
       <c r="A108" s="59"/>
       <c r="B108" s="59"/>
-      <c r="C108" s="212"/>
+      <c r="C108" s="211"/>
       <c r="D108" s="59"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
@@ -33250,7 +33247,7 @@
     <row r="109" spans="1:24">
       <c r="A109" s="59"/>
       <c r="B109" s="59"/>
-      <c r="C109" s="212"/>
+      <c r="C109" s="211"/>
       <c r="D109" s="59"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
@@ -33276,7 +33273,7 @@
     <row r="110" spans="1:24">
       <c r="A110" s="59"/>
       <c r="B110" s="59"/>
-      <c r="C110" s="212"/>
+      <c r="C110" s="211"/>
       <c r="D110" s="59"/>
       <c r="E110" s="59"/>
       <c r="F110" s="59"/>
@@ -33302,7 +33299,7 @@
     <row r="111" spans="1:24">
       <c r="A111" s="59"/>
       <c r="B111" s="59"/>
-      <c r="C111" s="212"/>
+      <c r="C111" s="211"/>
       <c r="D111" s="59"/>
       <c r="E111" s="59"/>
       <c r="F111" s="59"/>
@@ -33328,7 +33325,7 @@
     <row r="112" spans="1:24">
       <c r="A112" s="59"/>
       <c r="B112" s="59"/>
-      <c r="C112" s="212"/>
+      <c r="C112" s="211"/>
       <c r="D112" s="59"/>
       <c r="E112" s="59"/>
       <c r="F112" s="59"/>
@@ -33354,7 +33351,7 @@
     <row r="113" spans="1:24">
       <c r="A113" s="59"/>
       <c r="B113" s="59"/>
-      <c r="C113" s="212"/>
+      <c r="C113" s="211"/>
       <c r="D113" s="59"/>
       <c r="E113" s="59"/>
       <c r="F113" s="59"/>
@@ -33380,7 +33377,7 @@
     <row r="114" spans="1:24">
       <c r="A114" s="59"/>
       <c r="B114" s="59"/>
-      <c r="C114" s="212"/>
+      <c r="C114" s="211"/>
       <c r="D114" s="59"/>
       <c r="E114" s="59"/>
       <c r="F114" s="59"/>
@@ -33406,7 +33403,7 @@
     <row r="115" spans="1:24">
       <c r="A115" s="59"/>
       <c r="B115" s="59"/>
-      <c r="C115" s="212"/>
+      <c r="C115" s="211"/>
       <c r="D115" s="59"/>
       <c r="E115" s="59"/>
       <c r="F115" s="59"/>
@@ -33432,7 +33429,7 @@
     <row r="116" spans="1:24">
       <c r="A116" s="59"/>
       <c r="B116" s="59"/>
-      <c r="C116" s="212"/>
+      <c r="C116" s="211"/>
       <c r="D116" s="59"/>
       <c r="E116" s="59"/>
       <c r="F116" s="59"/>
@@ -33458,7 +33455,7 @@
     <row r="117" spans="1:24">
       <c r="A117" s="59"/>
       <c r="B117" s="59"/>
-      <c r="C117" s="212"/>
+      <c r="C117" s="211"/>
       <c r="D117" s="59"/>
       <c r="E117" s="59"/>
       <c r="F117" s="59"/>
@@ -33484,7 +33481,7 @@
     <row r="118" spans="1:24">
       <c r="A118" s="59"/>
       <c r="B118" s="59"/>
-      <c r="C118" s="212"/>
+      <c r="C118" s="211"/>
       <c r="D118" s="59"/>
       <c r="E118" s="59"/>
       <c r="F118" s="59"/>
@@ -33510,7 +33507,7 @@
     <row r="119" spans="1:24">
       <c r="A119" s="59"/>
       <c r="B119" s="59"/>
-      <c r="C119" s="212"/>
+      <c r="C119" s="211"/>
       <c r="D119" s="59"/>
       <c r="E119" s="59"/>
       <c r="F119" s="59"/>
@@ -33536,7 +33533,7 @@
     <row r="120" spans="1:24">
       <c r="A120" s="59"/>
       <c r="B120" s="59"/>
-      <c r="C120" s="212"/>
+      <c r="C120" s="211"/>
       <c r="D120" s="59"/>
       <c r="E120" s="59"/>
       <c r="F120" s="59"/>
@@ -33562,7 +33559,7 @@
     <row r="121" spans="1:24">
       <c r="A121" s="59"/>
       <c r="B121" s="59"/>
-      <c r="C121" s="212"/>
+      <c r="C121" s="211"/>
       <c r="D121" s="59"/>
       <c r="E121" s="59"/>
       <c r="F121" s="59"/>
@@ -33588,7 +33585,7 @@
     <row r="122" spans="1:24">
       <c r="A122" s="59"/>
       <c r="B122" s="59"/>
-      <c r="C122" s="212"/>
+      <c r="C122" s="211"/>
       <c r="D122" s="59"/>
       <c r="E122" s="59"/>
       <c r="F122" s="59"/>
@@ -33614,7 +33611,7 @@
     <row r="123" spans="1:24">
       <c r="A123" s="59"/>
       <c r="B123" s="59"/>
-      <c r="C123" s="212"/>
+      <c r="C123" s="211"/>
       <c r="D123" s="59"/>
       <c r="E123" s="59"/>
       <c r="F123" s="59"/>
@@ -33640,7 +33637,7 @@
     <row r="124" spans="1:24">
       <c r="A124" s="59"/>
       <c r="B124" s="59"/>
-      <c r="C124" s="212"/>
+      <c r="C124" s="211"/>
       <c r="D124" s="59"/>
       <c r="E124" s="59"/>
       <c r="F124" s="59"/>
@@ -33666,7 +33663,7 @@
     <row r="125" spans="1:24">
       <c r="A125" s="59"/>
       <c r="B125" s="59"/>
-      <c r="C125" s="212"/>
+      <c r="C125" s="211"/>
       <c r="D125" s="59"/>
       <c r="E125" s="59"/>
       <c r="F125" s="59"/>
@@ -33692,7 +33689,7 @@
     <row r="126" spans="1:24">
       <c r="A126" s="59"/>
       <c r="B126" s="59"/>
-      <c r="C126" s="212"/>
+      <c r="C126" s="211"/>
       <c r="D126" s="59"/>
       <c r="E126" s="59"/>
       <c r="F126" s="59"/>
@@ -33718,7 +33715,7 @@
     <row r="127" spans="1:24">
       <c r="A127" s="59"/>
       <c r="B127" s="59"/>
-      <c r="C127" s="212"/>
+      <c r="C127" s="211"/>
       <c r="D127" s="59"/>
       <c r="E127" s="59"/>
       <c r="F127" s="59"/>
@@ -33744,7 +33741,7 @@
     <row r="128" spans="1:24">
       <c r="A128" s="59"/>
       <c r="B128" s="59"/>
-      <c r="C128" s="212"/>
+      <c r="C128" s="211"/>
       <c r="D128" s="59"/>
       <c r="E128" s="59"/>
       <c r="F128" s="59"/>
@@ -33770,7 +33767,7 @@
     <row r="129" spans="1:24">
       <c r="A129" s="59"/>
       <c r="B129" s="59"/>
-      <c r="C129" s="212"/>
+      <c r="C129" s="211"/>
       <c r="D129" s="59"/>
       <c r="E129" s="59"/>
       <c r="F129" s="59"/>
@@ -33796,7 +33793,7 @@
     <row r="130" spans="1:24">
       <c r="A130" s="59"/>
       <c r="B130" s="59"/>
-      <c r="C130" s="212"/>
+      <c r="C130" s="211"/>
       <c r="D130" s="59"/>
       <c r="E130" s="59"/>
       <c r="F130" s="59"/>
@@ -33822,7 +33819,7 @@
     <row r="131" spans="1:24">
       <c r="A131" s="59"/>
       <c r="B131" s="59"/>
-      <c r="C131" s="212"/>
+      <c r="C131" s="211"/>
       <c r="D131" s="59"/>
       <c r="E131" s="59"/>
       <c r="F131" s="59"/>
@@ -33848,7 +33845,7 @@
     <row r="132" spans="1:24">
       <c r="A132" s="59"/>
       <c r="B132" s="59"/>
-      <c r="C132" s="212"/>
+      <c r="C132" s="211"/>
       <c r="D132" s="59"/>
       <c r="E132" s="59"/>
       <c r="F132" s="59"/>
@@ -33874,7 +33871,7 @@
     <row r="133" spans="1:24">
       <c r="A133" s="59"/>
       <c r="B133" s="59"/>
-      <c r="C133" s="212"/>
+      <c r="C133" s="211"/>
       <c r="D133" s="59"/>
       <c r="E133" s="59"/>
       <c r="F133" s="59"/>
@@ -33900,7 +33897,7 @@
     <row r="134" spans="1:24">
       <c r="A134" s="59"/>
       <c r="B134" s="59"/>
-      <c r="C134" s="212"/>
+      <c r="C134" s="211"/>
       <c r="D134" s="59"/>
       <c r="E134" s="59"/>
       <c r="F134" s="59"/>
@@ -33926,7 +33923,7 @@
     <row r="135" spans="1:24">
       <c r="A135" s="59"/>
       <c r="B135" s="59"/>
-      <c r="C135" s="212"/>
+      <c r="C135" s="211"/>
       <c r="D135" s="59"/>
       <c r="E135" s="59"/>
       <c r="F135" s="59"/>
@@ -33952,7 +33949,7 @@
     <row r="136" spans="1:24">
       <c r="A136" s="59"/>
       <c r="B136" s="59"/>
-      <c r="C136" s="212"/>
+      <c r="C136" s="211"/>
       <c r="D136" s="59"/>
       <c r="E136" s="59"/>
       <c r="F136" s="59"/>
@@ -33978,7 +33975,7 @@
     <row r="137" spans="1:24">
       <c r="A137" s="59"/>
       <c r="B137" s="59"/>
-      <c r="C137" s="212"/>
+      <c r="C137" s="211"/>
       <c r="D137" s="59"/>
       <c r="E137" s="59"/>
       <c r="F137" s="59"/>
@@ -34004,7 +34001,7 @@
     <row r="138" spans="1:24">
       <c r="A138" s="59"/>
       <c r="B138" s="59"/>
-      <c r="C138" s="212"/>
+      <c r="C138" s="211"/>
       <c r="D138" s="59"/>
       <c r="E138" s="59"/>
       <c r="F138" s="59"/>
@@ -34030,7 +34027,7 @@
     <row r="139" spans="1:24">
       <c r="A139" s="59"/>
       <c r="B139" s="59"/>
-      <c r="C139" s="212"/>
+      <c r="C139" s="211"/>
       <c r="D139" s="59"/>
       <c r="E139" s="59"/>
       <c r="F139" s="59"/>
@@ -34056,7 +34053,7 @@
     <row r="140" spans="1:24">
       <c r="A140" s="59"/>
       <c r="B140" s="59"/>
-      <c r="C140" s="212"/>
+      <c r="C140" s="211"/>
       <c r="D140" s="59"/>
       <c r="E140" s="59"/>
       <c r="F140" s="59"/>
@@ -34082,7 +34079,7 @@
     <row r="141" spans="1:24">
       <c r="A141" s="59"/>
       <c r="B141" s="59"/>
-      <c r="C141" s="212"/>
+      <c r="C141" s="211"/>
       <c r="D141" s="59"/>
       <c r="E141" s="59"/>
       <c r="F141" s="59"/>
@@ -34108,7 +34105,7 @@
     <row r="142" spans="1:24">
       <c r="A142" s="59"/>
       <c r="B142" s="59"/>
-      <c r="C142" s="212"/>
+      <c r="C142" s="211"/>
       <c r="D142" s="59"/>
       <c r="E142" s="59"/>
       <c r="F142" s="59"/>
@@ -34134,7 +34131,7 @@
     <row r="143" spans="1:24">
       <c r="A143" s="59"/>
       <c r="B143" s="59"/>
-      <c r="C143" s="212"/>
+      <c r="C143" s="211"/>
       <c r="D143" s="59"/>
       <c r="E143" s="59"/>
       <c r="F143" s="59"/>
@@ -34160,7 +34157,7 @@
     <row r="144" spans="1:24">
       <c r="A144" s="59"/>
       <c r="B144" s="59"/>
-      <c r="C144" s="212"/>
+      <c r="C144" s="211"/>
       <c r="D144" s="59"/>
       <c r="E144" s="59"/>
       <c r="F144" s="59"/>
@@ -34186,7 +34183,7 @@
     <row r="145" spans="1:24">
       <c r="A145" s="59"/>
       <c r="B145" s="59"/>
-      <c r="C145" s="212"/>
+      <c r="C145" s="211"/>
       <c r="D145" s="59"/>
       <c r="E145" s="59"/>
       <c r="F145" s="59"/>
@@ -34212,7 +34209,7 @@
     <row r="146" spans="1:24">
       <c r="A146" s="59"/>
       <c r="B146" s="59"/>
-      <c r="C146" s="212"/>
+      <c r="C146" s="211"/>
       <c r="D146" s="59"/>
       <c r="E146" s="59"/>
       <c r="F146" s="59"/>
@@ -34238,7 +34235,7 @@
     <row r="147" spans="1:24">
       <c r="A147" s="59"/>
       <c r="B147" s="59"/>
-      <c r="C147" s="212"/>
+      <c r="C147" s="211"/>
       <c r="D147" s="59"/>
       <c r="E147" s="59"/>
       <c r="F147" s="59"/>
@@ -34264,7 +34261,7 @@
     <row r="148" spans="1:24">
       <c r="A148" s="59"/>
       <c r="B148" s="59"/>
-      <c r="C148" s="212"/>
+      <c r="C148" s="211"/>
       <c r="D148" s="59"/>
       <c r="E148" s="59"/>
       <c r="F148" s="59"/>
@@ -34290,7 +34287,7 @@
     <row r="149" spans="1:24">
       <c r="A149" s="59"/>
       <c r="B149" s="59"/>
-      <c r="C149" s="212"/>
+      <c r="C149" s="211"/>
       <c r="D149" s="59"/>
       <c r="E149" s="59"/>
       <c r="F149" s="59"/>
@@ -34316,7 +34313,7 @@
     <row r="150" spans="1:24">
       <c r="A150" s="59"/>
       <c r="B150" s="59"/>
-      <c r="C150" s="212"/>
+      <c r="C150" s="211"/>
       <c r="D150" s="59"/>
       <c r="E150" s="59"/>
       <c r="F150" s="59"/>
@@ -34342,7 +34339,7 @@
     <row r="151" spans="1:24">
       <c r="A151" s="59"/>
       <c r="B151" s="59"/>
-      <c r="C151" s="212"/>
+      <c r="C151" s="211"/>
       <c r="D151" s="59"/>
       <c r="E151" s="59"/>
       <c r="F151" s="59"/>
@@ -34368,7 +34365,7 @@
     <row r="152" spans="1:24">
       <c r="A152" s="59"/>
       <c r="B152" s="59"/>
-      <c r="C152" s="212"/>
+      <c r="C152" s="211"/>
       <c r="D152" s="59"/>
       <c r="E152" s="59"/>
       <c r="F152" s="59"/>
@@ -34394,7 +34391,7 @@
     <row r="153" spans="1:24">
       <c r="A153" s="59"/>
       <c r="B153" s="59"/>
-      <c r="C153" s="212"/>
+      <c r="C153" s="211"/>
       <c r="D153" s="59"/>
       <c r="E153" s="59"/>
       <c r="F153" s="59"/>
@@ -34420,7 +34417,7 @@
     <row r="154" spans="1:24">
       <c r="A154" s="59"/>
       <c r="B154" s="59"/>
-      <c r="C154" s="212"/>
+      <c r="C154" s="211"/>
       <c r="D154" s="59"/>
       <c r="E154" s="59"/>
       <c r="F154" s="59"/>
@@ -34446,7 +34443,7 @@
     <row r="155" spans="1:24">
       <c r="A155" s="59"/>
       <c r="B155" s="59"/>
-      <c r="C155" s="212"/>
+      <c r="C155" s="211"/>
       <c r="D155" s="59"/>
       <c r="E155" s="59"/>
       <c r="F155" s="59"/>
@@ -34472,7 +34469,7 @@
     <row r="156" spans="1:24">
       <c r="A156" s="59"/>
       <c r="B156" s="59"/>
-      <c r="C156" s="212"/>
+      <c r="C156" s="211"/>
       <c r="D156" s="59"/>
       <c r="E156" s="59"/>
       <c r="F156" s="59"/>
@@ -34498,7 +34495,7 @@
     <row r="157" spans="1:24">
       <c r="A157" s="59"/>
       <c r="B157" s="59"/>
-      <c r="C157" s="212"/>
+      <c r="C157" s="211"/>
       <c r="D157" s="59"/>
       <c r="E157" s="59"/>
       <c r="F157" s="59"/>
@@ -34524,7 +34521,7 @@
     <row r="158" spans="1:24">
       <c r="A158" s="59"/>
       <c r="B158" s="59"/>
-      <c r="C158" s="212"/>
+      <c r="C158" s="211"/>
       <c r="D158" s="59"/>
       <c r="E158" s="59"/>
       <c r="F158" s="59"/>
@@ -34550,7 +34547,7 @@
     <row r="159" spans="1:24">
       <c r="A159" s="59"/>
       <c r="B159" s="59"/>
-      <c r="C159" s="212"/>
+      <c r="C159" s="211"/>
       <c r="D159" s="59"/>
       <c r="E159" s="59"/>
       <c r="F159" s="59"/>
@@ -34576,7 +34573,7 @@
     <row r="160" spans="1:24">
       <c r="A160" s="59"/>
       <c r="B160" s="59"/>
-      <c r="C160" s="212"/>
+      <c r="C160" s="211"/>
       <c r="D160" s="59"/>
       <c r="E160" s="59"/>
       <c r="F160" s="59"/>
@@ -34602,7 +34599,7 @@
     <row r="161" spans="1:24">
       <c r="A161" s="59"/>
       <c r="B161" s="59"/>
-      <c r="C161" s="212"/>
+      <c r="C161" s="211"/>
       <c r="D161" s="59"/>
       <c r="E161" s="59"/>
       <c r="F161" s="59"/>
@@ -34628,7 +34625,7 @@
     <row r="162" spans="1:24">
       <c r="A162" s="59"/>
       <c r="B162" s="59"/>
-      <c r="C162" s="212"/>
+      <c r="C162" s="211"/>
       <c r="D162" s="59"/>
       <c r="E162" s="59"/>
       <c r="F162" s="59"/>
@@ -34654,7 +34651,7 @@
     <row r="163" spans="1:24">
       <c r="A163" s="59"/>
       <c r="B163" s="59"/>
-      <c r="C163" s="212"/>
+      <c r="C163" s="211"/>
       <c r="D163" s="59"/>
       <c r="E163" s="59"/>
       <c r="F163" s="59"/>
@@ -34680,7 +34677,7 @@
     <row r="164" spans="1:24">
       <c r="A164" s="59"/>
       <c r="B164" s="59"/>
-      <c r="C164" s="212"/>
+      <c r="C164" s="211"/>
       <c r="D164" s="59"/>
       <c r="E164" s="59"/>
       <c r="F164" s="59"/>
@@ -34706,7 +34703,7 @@
     <row r="165" spans="1:24">
       <c r="A165" s="59"/>
       <c r="B165" s="59"/>
-      <c r="C165" s="212"/>
+      <c r="C165" s="211"/>
       <c r="D165" s="59"/>
       <c r="E165" s="59"/>
       <c r="F165" s="59"/>
@@ -34732,7 +34729,7 @@
     <row r="166" spans="1:24">
       <c r="A166" s="59"/>
       <c r="B166" s="59"/>
-      <c r="C166" s="212"/>
+      <c r="C166" s="211"/>
       <c r="D166" s="59"/>
       <c r="E166" s="59"/>
       <c r="F166" s="59"/>
@@ -34758,7 +34755,7 @@
     <row r="167" spans="1:24">
       <c r="A167" s="59"/>
       <c r="B167" s="59"/>
-      <c r="C167" s="212"/>
+      <c r="C167" s="211"/>
       <c r="D167" s="59"/>
       <c r="E167" s="59"/>
       <c r="F167" s="59"/>
@@ -34784,7 +34781,7 @@
     <row r="168" spans="1:24">
       <c r="A168" s="59"/>
       <c r="B168" s="59"/>
-      <c r="C168" s="212"/>
+      <c r="C168" s="211"/>
       <c r="D168" s="59"/>
       <c r="E168" s="59"/>
       <c r="F168" s="59"/>
@@ -34810,7 +34807,7 @@
     <row r="169" spans="1:24">
       <c r="A169" s="59"/>
       <c r="B169" s="59"/>
-      <c r="C169" s="212"/>
+      <c r="C169" s="211"/>
       <c r="D169" s="59"/>
       <c r="E169" s="59"/>
       <c r="F169" s="59"/>
@@ -34836,7 +34833,7 @@
     <row r="170" spans="1:24">
       <c r="A170" s="59"/>
       <c r="B170" s="59"/>
-      <c r="C170" s="212"/>
+      <c r="C170" s="211"/>
       <c r="D170" s="59"/>
       <c r="E170" s="59"/>
       <c r="F170" s="59"/>
@@ -34862,7 +34859,7 @@
     <row r="171" spans="1:24">
       <c r="A171" s="59"/>
       <c r="B171" s="59"/>
-      <c r="C171" s="212"/>
+      <c r="C171" s="211"/>
       <c r="D171" s="59"/>
       <c r="E171" s="59"/>
       <c r="F171" s="59"/>
@@ -34888,7 +34885,7 @@
     <row r="172" spans="1:24">
       <c r="A172" s="59"/>
       <c r="B172" s="59"/>
-      <c r="C172" s="212"/>
+      <c r="C172" s="211"/>
       <c r="D172" s="59"/>
       <c r="E172" s="59"/>
       <c r="F172" s="59"/>
@@ -34914,7 +34911,7 @@
     <row r="173" spans="1:24">
       <c r="A173" s="59"/>
       <c r="B173" s="59"/>
-      <c r="C173" s="212"/>
+      <c r="C173" s="211"/>
       <c r="D173" s="59"/>
       <c r="E173" s="59"/>
       <c r="F173" s="59"/>
@@ -34940,7 +34937,7 @@
     <row r="174" spans="1:24">
       <c r="A174" s="59"/>
       <c r="B174" s="59"/>
-      <c r="C174" s="212"/>
+      <c r="C174" s="211"/>
       <c r="D174" s="59"/>
       <c r="E174" s="59"/>
       <c r="F174" s="59"/>
@@ -34966,7 +34963,7 @@
     <row r="175" spans="1:24">
       <c r="A175" s="59"/>
       <c r="B175" s="59"/>
-      <c r="C175" s="212"/>
+      <c r="C175" s="211"/>
       <c r="D175" s="59"/>
       <c r="E175" s="59"/>
       <c r="F175" s="59"/>
@@ -34992,7 +34989,7 @@
     <row r="176" spans="1:24">
       <c r="A176" s="59"/>
       <c r="B176" s="59"/>
-      <c r="C176" s="212"/>
+      <c r="C176" s="211"/>
       <c r="D176" s="59"/>
       <c r="E176" s="59"/>
       <c r="F176" s="59"/>
@@ -35018,7 +35015,7 @@
     <row r="177" spans="1:24">
       <c r="A177" s="59"/>
       <c r="B177" s="59"/>
-      <c r="C177" s="212"/>
+      <c r="C177" s="211"/>
       <c r="D177" s="59"/>
       <c r="E177" s="59"/>
       <c r="F177" s="59"/>
@@ -35044,7 +35041,7 @@
     <row r="178" spans="1:24">
       <c r="A178" s="59"/>
       <c r="B178" s="59"/>
-      <c r="C178" s="212"/>
+      <c r="C178" s="211"/>
       <c r="D178" s="59"/>
       <c r="E178" s="59"/>
       <c r="F178" s="59"/>
@@ -35070,7 +35067,7 @@
     <row r="179" spans="1:24">
       <c r="A179" s="59"/>
       <c r="B179" s="59"/>
-      <c r="C179" s="212"/>
+      <c r="C179" s="211"/>
       <c r="D179" s="59"/>
       <c r="E179" s="59"/>
       <c r="F179" s="59"/>
@@ -35096,7 +35093,7 @@
     <row r="180" spans="1:24">
       <c r="A180" s="59"/>
       <c r="B180" s="59"/>
-      <c r="C180" s="212"/>
+      <c r="C180" s="211"/>
       <c r="D180" s="59"/>
       <c r="E180" s="59"/>
       <c r="F180" s="59"/>
@@ -35122,7 +35119,7 @@
     <row r="181" spans="1:24">
       <c r="A181" s="59"/>
       <c r="B181" s="59"/>
-      <c r="C181" s="212"/>
+      <c r="C181" s="211"/>
       <c r="D181" s="59"/>
       <c r="E181" s="59"/>
       <c r="F181" s="59"/>
@@ -35148,7 +35145,7 @@
     <row r="182" spans="1:24">
       <c r="A182" s="59"/>
       <c r="B182" s="59"/>
-      <c r="C182" s="212"/>
+      <c r="C182" s="211"/>
       <c r="D182" s="59"/>
       <c r="E182" s="59"/>
       <c r="F182" s="59"/>
@@ -35174,7 +35171,7 @@
     <row r="183" spans="1:24">
       <c r="A183" s="59"/>
       <c r="B183" s="59"/>
-      <c r="C183" s="212"/>
+      <c r="C183" s="211"/>
       <c r="D183" s="59"/>
       <c r="E183" s="59"/>
       <c r="F183" s="59"/>
@@ -35200,7 +35197,7 @@
     <row r="184" spans="1:24">
       <c r="A184" s="59"/>
       <c r="B184" s="59"/>
-      <c r="C184" s="212"/>
+      <c r="C184" s="211"/>
       <c r="D184" s="59"/>
       <c r="E184" s="59"/>
       <c r="F184" s="59"/>
@@ -35226,7 +35223,7 @@
     <row r="185" spans="1:24">
       <c r="A185" s="59"/>
       <c r="B185" s="59"/>
-      <c r="C185" s="212"/>
+      <c r="C185" s="211"/>
       <c r="D185" s="59"/>
       <c r="E185" s="59"/>
       <c r="F185" s="59"/>
@@ -35252,7 +35249,7 @@
     <row r="186" spans="1:24">
       <c r="A186" s="59"/>
       <c r="B186" s="59"/>
-      <c r="C186" s="212"/>
+      <c r="C186" s="211"/>
       <c r="D186" s="59"/>
       <c r="E186" s="59"/>
       <c r="F186" s="59"/>
@@ -35278,7 +35275,7 @@
     <row r="187" spans="1:24">
       <c r="A187" s="59"/>
       <c r="B187" s="59"/>
-      <c r="C187" s="212"/>
+      <c r="C187" s="211"/>
       <c r="D187" s="59"/>
       <c r="E187" s="59"/>
       <c r="F187" s="59"/>
@@ -35304,7 +35301,7 @@
     <row r="188" spans="1:24">
       <c r="A188" s="59"/>
       <c r="B188" s="59"/>
-      <c r="C188" s="212"/>
+      <c r="C188" s="211"/>
       <c r="D188" s="59"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
@@ -35330,7 +35327,7 @@
     <row r="189" spans="1:24">
       <c r="A189" s="59"/>
       <c r="B189" s="59"/>
-      <c r="C189" s="212"/>
+      <c r="C189" s="211"/>
       <c r="D189" s="59"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
@@ -35356,7 +35353,7 @@
     <row r="190" spans="1:24">
       <c r="A190" s="59"/>
       <c r="B190" s="59"/>
-      <c r="C190" s="212"/>
+      <c r="C190" s="211"/>
       <c r="D190" s="59"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
@@ -35382,7 +35379,7 @@
     <row r="191" spans="1:24">
       <c r="A191" s="59"/>
       <c r="B191" s="59"/>
-      <c r="C191" s="212"/>
+      <c r="C191" s="211"/>
       <c r="D191" s="59"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
@@ -35408,7 +35405,7 @@
     <row r="192" spans="1:24">
       <c r="A192" s="59"/>
       <c r="B192" s="59"/>
-      <c r="C192" s="212"/>
+      <c r="C192" s="211"/>
       <c r="D192" s="59"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
@@ -35434,7 +35431,7 @@
     <row r="193" spans="1:24">
       <c r="A193" s="59"/>
       <c r="B193" s="59"/>
-      <c r="C193" s="212"/>
+      <c r="C193" s="211"/>
       <c r="D193" s="59"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
@@ -35460,7 +35457,7 @@
     <row r="194" spans="1:24">
       <c r="A194" s="59"/>
       <c r="B194" s="59"/>
-      <c r="C194" s="212"/>
+      <c r="C194" s="211"/>
       <c r="D194" s="59"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
@@ -35486,7 +35483,7 @@
     <row r="195" spans="1:24">
       <c r="A195" s="59"/>
       <c r="B195" s="59"/>
-      <c r="C195" s="212"/>
+      <c r="C195" s="211"/>
       <c r="D195" s="59"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
@@ -35512,7 +35509,7 @@
     <row r="196" spans="1:24">
       <c r="A196" s="59"/>
       <c r="B196" s="59"/>
-      <c r="C196" s="212"/>
+      <c r="C196" s="211"/>
       <c r="D196" s="59"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
@@ -35538,7 +35535,7 @@
     <row r="197" spans="1:24">
       <c r="A197" s="59"/>
       <c r="B197" s="59"/>
-      <c r="C197" s="212"/>
+      <c r="C197" s="211"/>
       <c r="D197" s="59"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
@@ -35564,7 +35561,7 @@
     <row r="198" spans="1:24">
       <c r="A198" s="59"/>
       <c r="B198" s="59"/>
-      <c r="C198" s="212"/>
+      <c r="C198" s="211"/>
       <c r="D198" s="59"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
@@ -35590,7 +35587,7 @@
     <row r="199" spans="1:24">
       <c r="A199" s="59"/>
       <c r="B199" s="59"/>
-      <c r="C199" s="212"/>
+      <c r="C199" s="211"/>
       <c r="D199" s="59"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
@@ -35616,7 +35613,7 @@
     <row r="200" spans="1:24">
       <c r="A200" s="59"/>
       <c r="B200" s="59"/>
-      <c r="C200" s="212"/>
+      <c r="C200" s="211"/>
       <c r="D200" s="59"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
@@ -35683,9 +35680,9 @@
       <c r="A1" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
@@ -35713,28 +35710,28 @@
       <c r="AC1" s="59"/>
     </row>
     <row r="2" ht="15" spans="1:29">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="174" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="174" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="174" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="175" t="s">
+      <c r="D2" s="174" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="174" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="176" t="s">
+      <c r="F2" s="175" t="s">
         <v>274</v>
       </c>
       <c r="G2" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="H2" s="177" t="s">
+      <c r="H2" s="176" t="s">
         <v>178</v>
       </c>
       <c r="I2" s="104" t="s">
@@ -35783,19 +35780,19 @@
       <c r="E3" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="F3" s="178" t="s">
+      <c r="F3" s="177" t="s">
         <v>150</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="H3" s="179" t="s">
+      <c r="H3" s="178" t="s">
         <v>150</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J3" s="201" t="s">
+      <c r="J3" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K3" s="28" t="s">
@@ -35824,10 +35821,10 @@
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:29">
       <c r="A4" s="34"/>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="179" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="181" t="s">
+      <c r="C4" s="180" t="s">
         <v>285</v>
       </c>
       <c r="D4" s="31" t="s">
@@ -35836,17 +35833,17 @@
       <c r="E4" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="178" t="s">
+      <c r="F4" s="177" t="s">
         <v>287</v>
       </c>
       <c r="G4" s="60"/>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="178" t="s">
         <v>150</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J4" s="201" t="s">
+      <c r="J4" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K4" s="28" t="s">
@@ -35875,7 +35872,7 @@
     </row>
     <row r="5" ht="42" customHeight="1" spans="1:29">
       <c r="A5" s="34"/>
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="179" t="s">
         <v>288</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -35887,17 +35884,17 @@
       <c r="E5" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="F5" s="178" t="s">
+      <c r="F5" s="177" t="s">
         <v>150</v>
       </c>
       <c r="G5" s="60"/>
-      <c r="H5" s="179" t="s">
+      <c r="H5" s="178" t="s">
         <v>150</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="201" t="s">
+      <c r="J5" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K5" s="28" t="s">
@@ -35940,19 +35937,19 @@
       <c r="E6" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="178" t="s">
+      <c r="F6" s="177" t="s">
         <v>296</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="H6" s="179" t="s">
+      <c r="H6" s="178" t="s">
         <v>297</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J6" s="201" t="s">
+      <c r="J6" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K6" s="28" t="s">
@@ -35993,17 +35990,17 @@
       <c r="E7" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="F7" s="178" t="s">
+      <c r="F7" s="177" t="s">
         <v>302</v>
       </c>
       <c r="G7" s="60"/>
-      <c r="H7" s="179" t="s">
+      <c r="H7" s="178" t="s">
         <v>303</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="201" t="s">
+      <c r="J7" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K7" s="28" t="s">
@@ -36044,17 +36041,17 @@
       <c r="E8" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="F8" s="178" t="s">
+      <c r="F8" s="177" t="s">
         <v>150</v>
       </c>
       <c r="G8" s="60"/>
-      <c r="H8" s="179" t="s">
+      <c r="H8" s="178" t="s">
         <v>297</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J8" s="201" t="s">
+      <c r="J8" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K8" s="28" t="s">
@@ -36085,7 +36082,7 @@
       <c r="A9" s="105" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="182" t="s">
+      <c r="B9" s="181" t="s">
         <v>309</v>
       </c>
       <c r="C9" s="31" t="s">
@@ -36097,19 +36094,19 @@
       <c r="E9" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="F9" s="178" t="s">
+      <c r="F9" s="177" t="s">
         <v>150</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="179" t="s">
+      <c r="H9" s="178" t="s">
         <v>150</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J9" s="201" t="s">
+      <c r="J9" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K9" s="28" t="s">
@@ -36152,19 +36149,19 @@
       <c r="E10" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F10" s="178" t="s">
+      <c r="F10" s="177" t="s">
         <v>317</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="H10" s="179" t="s">
+      <c r="H10" s="178" t="s">
         <v>319</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J10" s="201" t="s">
+      <c r="J10" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K10" s="28" t="s">
@@ -36205,17 +36202,17 @@
       <c r="E11" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="F11" s="178" t="s">
+      <c r="F11" s="177" t="s">
         <v>323</v>
       </c>
       <c r="G11" s="34"/>
-      <c r="H11" s="179" t="s">
+      <c r="H11" s="178" t="s">
         <v>324</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="201" t="s">
+      <c r="J11" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K11" s="28" t="s">
@@ -36256,17 +36253,17 @@
       <c r="E12" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="F12" s="178" t="s">
+      <c r="F12" s="177" t="s">
         <v>150</v>
       </c>
       <c r="G12" s="34"/>
-      <c r="H12" s="179" t="s">
+      <c r="H12" s="178" t="s">
         <v>329</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J12" s="201" t="s">
+      <c r="J12" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K12" s="28" t="s">
@@ -36295,7 +36292,7 @@
     </row>
     <row r="13" ht="45" spans="1:29">
       <c r="A13" s="34"/>
-      <c r="B13" s="183" t="s">
+      <c r="B13" s="182" t="s">
         <v>330</v>
       </c>
       <c r="C13" s="31" t="s">
@@ -36307,21 +36304,21 @@
       <c r="E13" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="F13" s="184" t="s">
+      <c r="F13" s="183" t="s">
         <v>333</v>
       </c>
       <c r="G13" s="34"/>
-      <c r="H13" s="185" t="s">
+      <c r="H13" s="184" t="s">
         <v>319</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J13" s="201" t="s">
+      <c r="J13" s="200" t="s">
         <v>282</v>
       </c>
-      <c r="K13" s="202"/>
-      <c r="L13" s="202"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="201"/>
       <c r="M13" s="57"/>
       <c r="N13" s="57"/>
       <c r="O13" s="57"/>
@@ -36354,21 +36351,21 @@
       <c r="E14" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="F14" s="178" t="s">
+      <c r="F14" s="177" t="s">
         <v>150</v>
       </c>
       <c r="G14" s="34"/>
-      <c r="H14" s="179" t="s">
+      <c r="H14" s="178" t="s">
         <v>150</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J14" s="201" t="s">
+      <c r="J14" s="200" t="s">
         <v>282</v>
       </c>
-      <c r="K14" s="202"/>
-      <c r="L14" s="202"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="201"/>
       <c r="M14" s="59"/>
       <c r="N14" s="59"/>
       <c r="O14" s="59"/>
@@ -36401,17 +36398,17 @@
       <c r="E15" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="F15" s="178" t="s">
+      <c r="F15" s="177" t="s">
         <v>150</v>
       </c>
       <c r="G15" s="34"/>
-      <c r="H15" s="179" t="s">
+      <c r="H15" s="178" t="s">
         <v>150</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J15" s="201" t="s">
+      <c r="J15" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K15" s="28" t="s">
@@ -36420,13 +36417,13 @@
       <c r="L15" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="M15" s="172"/>
-      <c r="N15" s="172"/>
-      <c r="O15" s="172"/>
-      <c r="P15" s="172"/>
-      <c r="Q15" s="172"/>
-      <c r="R15" s="172"/>
-      <c r="S15" s="172"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="171"/>
+      <c r="Q15" s="171"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="171"/>
       <c r="T15" s="59"/>
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
@@ -36454,7 +36451,7 @@
       <c r="E16" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="F16" s="186" t="s">
+      <c r="F16" s="185" t="s">
         <v>150</v>
       </c>
       <c r="G16" s="28" t="s">
@@ -36466,7 +36463,7 @@
       <c r="I16" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J16" s="201" t="s">
+      <c r="J16" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K16" s="28" t="s">
@@ -36494,13 +36491,13 @@
       <c r="AC16" s="59"/>
     </row>
     <row r="17" ht="45" spans="1:29">
-      <c r="A17" s="187" t="s">
+      <c r="A17" s="186" t="s">
         <v>346</v>
       </c>
       <c r="B17" s="169" t="s">
         <v>347</v>
       </c>
-      <c r="C17" s="181" t="s">
+      <c r="C17" s="180" t="s">
         <v>348</v>
       </c>
       <c r="D17" s="63" t="s">
@@ -36509,7 +36506,7 @@
       <c r="E17" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="F17" s="186" t="s">
+      <c r="F17" s="185" t="s">
         <v>150</v>
       </c>
       <c r="G17" s="28" t="s">
@@ -36521,7 +36518,7 @@
       <c r="I17" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J17" s="201" t="s">
+      <c r="J17" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K17" s="28" t="s">
@@ -36564,7 +36561,7 @@
       <c r="E18" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="F18" s="186" t="s">
+      <c r="F18" s="185" t="s">
         <v>150</v>
       </c>
       <c r="G18" s="28" t="s">
@@ -36576,7 +36573,7 @@
       <c r="I18" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J18" s="201" t="s">
+      <c r="J18" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K18" s="28" t="s">
@@ -36607,7 +36604,7 @@
       <c r="A19" s="105" t="s">
         <v>356</v>
       </c>
-      <c r="B19" s="188" t="s">
+      <c r="B19" s="187" t="s">
         <v>152</v>
       </c>
       <c r="C19" s="31" t="s">
@@ -36619,19 +36616,19 @@
       <c r="E19" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F19" s="178" t="s">
+      <c r="F19" s="177" t="s">
         <v>150</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="H19" s="179" t="s">
+      <c r="H19" s="178" t="s">
         <v>150</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="201" t="s">
+      <c r="J19" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K19" s="28" t="s">
@@ -36662,7 +36659,7 @@
       <c r="A20" s="168" t="s">
         <v>358</v>
       </c>
-      <c r="B20" s="188" t="s">
+      <c r="B20" s="187" t="s">
         <v>359</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -36674,19 +36671,19 @@
       <c r="E20" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="F20" s="178" t="s">
+      <c r="F20" s="177" t="s">
         <v>363</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="H20" s="179" t="s">
+      <c r="H20" s="178" t="s">
         <v>364</v>
       </c>
       <c r="I20" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J20" s="201" t="s">
+      <c r="J20" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K20" s="28" t="s">
@@ -36715,7 +36712,7 @@
     </row>
     <row r="21" ht="47.25" customHeight="1" spans="1:29">
       <c r="A21" s="34"/>
-      <c r="B21" s="188" t="s">
+      <c r="B21" s="187" t="s">
         <v>365</v>
       </c>
       <c r="C21" s="57" t="s">
@@ -36727,13 +36724,13 @@
       <c r="E21" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F21" s="189"/>
+      <c r="F21" s="188"/>
       <c r="G21" s="60"/>
-      <c r="H21" s="190"/>
+      <c r="H21" s="189"/>
       <c r="I21" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J21" s="201" t="s">
+      <c r="J21" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K21" s="28" t="s">
@@ -36762,7 +36759,7 @@
     </row>
     <row r="22" ht="55.5" customHeight="1" spans="1:29">
       <c r="A22" s="34"/>
-      <c r="B22" s="188" t="s">
+      <c r="B22" s="187" t="s">
         <v>368</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -36774,17 +36771,17 @@
       <c r="E22" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F22" s="178" t="s">
+      <c r="F22" s="177" t="s">
         <v>372</v>
       </c>
       <c r="G22" s="60"/>
-      <c r="H22" s="179" t="s">
+      <c r="H22" s="178" t="s">
         <v>373</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J22" s="201" t="s">
+      <c r="J22" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K22" s="28" t="s">
@@ -36825,13 +36822,13 @@
       <c r="E23" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="F23" s="189"/>
+      <c r="F23" s="188"/>
       <c r="G23" s="60"/>
-      <c r="H23" s="190"/>
+      <c r="H23" s="189"/>
       <c r="I23" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J23" s="201" t="s">
+      <c r="J23" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K23" s="28" t="s">
@@ -36872,13 +36869,13 @@
       <c r="E24" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F24" s="189"/>
+      <c r="F24" s="188"/>
       <c r="G24" s="60"/>
-      <c r="H24" s="190"/>
+      <c r="H24" s="189"/>
       <c r="I24" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J24" s="201" t="s">
+      <c r="J24" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K24" s="28" t="s">
@@ -36919,13 +36916,13 @@
       <c r="E25" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="F25" s="189"/>
+      <c r="F25" s="188"/>
       <c r="G25" s="60"/>
-      <c r="H25" s="190"/>
+      <c r="H25" s="189"/>
       <c r="I25" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J25" s="201" t="s">
+      <c r="J25" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K25" s="28" t="s">
@@ -36954,7 +36951,7 @@
     </row>
     <row r="26" ht="15" spans="1:29">
       <c r="A26" s="34"/>
-      <c r="B26" s="191"/>
+      <c r="B26" s="190"/>
       <c r="C26" s="31" t="s">
         <v>384</v>
       </c>
@@ -36964,13 +36961,13 @@
       <c r="E26" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="F26" s="189"/>
+      <c r="F26" s="188"/>
       <c r="G26" s="60"/>
-      <c r="H26" s="190"/>
+      <c r="H26" s="189"/>
       <c r="I26" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J26" s="201" t="s">
+      <c r="J26" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K26" s="28" t="s">
@@ -36999,10 +36996,10 @@
     </row>
     <row r="27" ht="129.75" customHeight="1" spans="1:29">
       <c r="A27" s="34"/>
-      <c r="B27" s="188" t="s">
+      <c r="B27" s="187" t="s">
         <v>385</v>
       </c>
-      <c r="C27" s="181" t="s">
+      <c r="C27" s="180" t="s">
         <v>386</v>
       </c>
       <c r="D27" s="31" t="s">
@@ -37011,17 +37008,17 @@
       <c r="E27" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="F27" s="178" t="s">
+      <c r="F27" s="177" t="s">
         <v>389</v>
       </c>
       <c r="G27" s="60"/>
-      <c r="H27" s="179" t="s">
+      <c r="H27" s="178" t="s">
         <v>364</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J27" s="201" t="s">
+      <c r="J27" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K27" s="28" t="s">
@@ -37050,10 +37047,10 @@
     </row>
     <row r="28" ht="53.25" customHeight="1" spans="1:29">
       <c r="A28" s="34"/>
-      <c r="B28" s="188" t="s">
+      <c r="B28" s="187" t="s">
         <v>390</v>
       </c>
-      <c r="C28" s="181" t="s">
+      <c r="C28" s="180" t="s">
         <v>391</v>
       </c>
       <c r="D28" s="31" t="s">
@@ -37062,13 +37059,13 @@
       <c r="E28" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="F28" s="189"/>
+      <c r="F28" s="188"/>
       <c r="G28" s="60"/>
-      <c r="H28" s="190"/>
+      <c r="H28" s="189"/>
       <c r="I28" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J28" s="201" t="s">
+      <c r="J28" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K28" s="28" t="s">
@@ -37097,10 +37094,10 @@
     </row>
     <row r="29" ht="66" customHeight="1" spans="1:29">
       <c r="A29" s="34"/>
-      <c r="B29" s="188" t="s">
+      <c r="B29" s="187" t="s">
         <v>394</v>
       </c>
-      <c r="C29" s="181" t="s">
+      <c r="C29" s="180" t="s">
         <v>395</v>
       </c>
       <c r="D29" s="31" t="s">
@@ -37109,13 +37106,13 @@
       <c r="E29" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="F29" s="189"/>
+      <c r="F29" s="188"/>
       <c r="G29" s="60"/>
-      <c r="H29" s="190"/>
+      <c r="H29" s="189"/>
       <c r="I29" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J29" s="201" t="s">
+      <c r="J29" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K29" s="28" t="s">
@@ -37156,13 +37153,13 @@
       <c r="E30" s="31" t="s">
         <v>400</v>
       </c>
-      <c r="F30" s="189"/>
+      <c r="F30" s="188"/>
       <c r="G30" s="60"/>
-      <c r="H30" s="190"/>
+      <c r="H30" s="189"/>
       <c r="I30" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J30" s="201" t="s">
+      <c r="J30" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K30" s="28" t="s">
@@ -37194,7 +37191,7 @@
       <c r="B31" s="169" t="s">
         <v>401</v>
       </c>
-      <c r="C31" s="181" t="s">
+      <c r="C31" s="180" t="s">
         <v>402</v>
       </c>
       <c r="D31" s="31" t="s">
@@ -37203,13 +37200,13 @@
       <c r="E31" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="F31" s="189"/>
+      <c r="F31" s="188"/>
       <c r="G31" s="60"/>
-      <c r="H31" s="190"/>
+      <c r="H31" s="189"/>
       <c r="I31" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J31" s="201" t="s">
+      <c r="J31" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K31" s="28" t="s">
@@ -37238,7 +37235,7 @@
     </row>
     <row r="32" ht="15" spans="1:29">
       <c r="A32" s="34"/>
-      <c r="B32" s="188" t="s">
+      <c r="B32" s="187" t="s">
         <v>405</v>
       </c>
       <c r="C32" s="31" t="s">
@@ -37250,13 +37247,13 @@
       <c r="E32" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F32" s="189"/>
+      <c r="F32" s="188"/>
       <c r="G32" s="60"/>
-      <c r="H32" s="190"/>
+      <c r="H32" s="189"/>
       <c r="I32" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J32" s="201" t="s">
+      <c r="J32" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K32" s="28" t="s">
@@ -37285,10 +37282,10 @@
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:29">
       <c r="A33" s="34"/>
-      <c r="B33" s="192" t="s">
+      <c r="B33" s="191" t="s">
         <v>408</v>
       </c>
-      <c r="C33" s="193" t="s">
+      <c r="C33" s="192" t="s">
         <v>409</v>
       </c>
       <c r="D33" s="31" t="s">
@@ -37297,18 +37294,18 @@
       <c r="E33" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="F33" s="189"/>
+      <c r="F33" s="188"/>
       <c r="G33" s="60"/>
-      <c r="H33" s="179" t="s">
+      <c r="H33" s="178" t="s">
         <v>364</v>
       </c>
       <c r="I33" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J33" s="201" t="s">
+      <c r="J33" s="200" t="s">
         <v>282</v>
       </c>
-      <c r="K33" s="202"/>
+      <c r="K33" s="201"/>
       <c r="L33" s="28" t="s">
         <v>404</v>
       </c>
@@ -37332,7 +37329,7 @@
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:29">
       <c r="A34" s="34"/>
-      <c r="B34" s="192" t="s">
+      <c r="B34" s="191" t="s">
         <v>412</v>
       </c>
       <c r="C34" s="31" t="s">
@@ -37344,16 +37341,16 @@
       <c r="E34" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F34" s="189"/>
+      <c r="F34" s="188"/>
       <c r="G34" s="60"/>
-      <c r="H34" s="179" t="s">
+      <c r="H34" s="178" t="s">
         <v>415</v>
       </c>
       <c r="I34" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J34" s="203"/>
-      <c r="K34" s="202"/>
+      <c r="J34" s="202"/>
+      <c r="K34" s="201"/>
       <c r="L34" s="28" t="s">
         <v>283</v>
       </c>
@@ -37377,10 +37374,10 @@
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:29">
       <c r="A35" s="34"/>
-      <c r="B35" s="192" t="s">
+      <c r="B35" s="191" t="s">
         <v>416</v>
       </c>
-      <c r="C35" s="194" t="s">
+      <c r="C35" s="193" t="s">
         <v>417</v>
       </c>
       <c r="D35" s="31" t="s">
@@ -37389,16 +37386,16 @@
       <c r="E35" s="31" t="s">
         <v>419</v>
       </c>
-      <c r="F35" s="189"/>
+      <c r="F35" s="188"/>
       <c r="G35" s="60"/>
-      <c r="H35" s="179" t="s">
+      <c r="H35" s="178" t="s">
         <v>420</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J35" s="203"/>
-      <c r="K35" s="202"/>
+      <c r="J35" s="202"/>
+      <c r="K35" s="201"/>
       <c r="L35" s="28" t="s">
         <v>283</v>
       </c>
@@ -37434,16 +37431,16 @@
       <c r="E36" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F36" s="189"/>
+      <c r="F36" s="188"/>
       <c r="G36" s="60"/>
-      <c r="H36" s="179" t="s">
+      <c r="H36" s="178" t="s">
         <v>424</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J36" s="203"/>
-      <c r="K36" s="202"/>
+      <c r="J36" s="202"/>
+      <c r="K36" s="201"/>
       <c r="L36" s="28" t="s">
         <v>283</v>
       </c>
@@ -37467,7 +37464,7 @@
     </row>
     <row r="37" ht="27" customHeight="1" spans="1:29">
       <c r="A37" s="34"/>
-      <c r="B37" s="188" t="s">
+      <c r="B37" s="187" t="s">
         <v>425</v>
       </c>
       <c r="C37" s="31" t="s">
@@ -37479,15 +37476,15 @@
       <c r="E37" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="F37" s="189"/>
+      <c r="F37" s="188"/>
       <c r="G37" s="60"/>
-      <c r="H37" s="179" t="s">
+      <c r="H37" s="178" t="s">
         <v>364</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J37" s="201" t="s">
+      <c r="J37" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K37" s="28" t="s">
@@ -37528,17 +37525,17 @@
       <c r="E38" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="F38" s="186" t="s">
+      <c r="F38" s="185" t="s">
         <v>150</v>
       </c>
       <c r="G38" s="60"/>
-      <c r="H38" s="179" t="s">
+      <c r="H38" s="178" t="s">
         <v>432</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J38" s="201" t="s">
+      <c r="J38" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K38" s="28" t="s">
@@ -37569,10 +37566,10 @@
       <c r="A39" s="168" t="s">
         <v>433</v>
       </c>
-      <c r="B39" s="188" t="s">
+      <c r="B39" s="187" t="s">
         <v>434</v>
       </c>
-      <c r="C39" s="181" t="s">
+      <c r="C39" s="180" t="s">
         <v>435</v>
       </c>
       <c r="D39" s="31" t="s">
@@ -37581,7 +37578,7 @@
       <c r="E39" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="F39" s="178" t="s">
+      <c r="F39" s="177" t="s">
         <v>438</v>
       </c>
       <c r="G39" s="28" t="s">
@@ -37593,7 +37590,7 @@
       <c r="I39" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J39" s="201" t="s">
+      <c r="J39" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K39" s="28" t="s">
@@ -37634,7 +37631,7 @@
       <c r="E40" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="F40" s="189"/>
+      <c r="F40" s="188"/>
       <c r="G40" s="34"/>
       <c r="H40" s="65" t="s">
         <v>439</v>
@@ -37642,7 +37639,7 @@
       <c r="I40" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J40" s="201" t="s">
+      <c r="J40" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K40" s="28" t="s">
@@ -37683,7 +37680,7 @@
       <c r="E41" s="31" t="s">
         <v>445</v>
       </c>
-      <c r="F41" s="178" t="s">
+      <c r="F41" s="177" t="s">
         <v>446</v>
       </c>
       <c r="G41" s="34"/>
@@ -37693,7 +37690,7 @@
       <c r="I41" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J41" s="201" t="s">
+      <c r="J41" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K41" s="28" t="s">
@@ -37724,7 +37721,7 @@
       <c r="A42" s="168" t="s">
         <v>448</v>
       </c>
-      <c r="B42" s="188" t="s">
+      <c r="B42" s="187" t="s">
         <v>449</v>
       </c>
       <c r="C42" s="31" t="s">
@@ -37736,19 +37733,19 @@
       <c r="E42" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="177" t="s">
         <v>150</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="H42" s="179" t="s">
+      <c r="H42" s="178" t="s">
         <v>364</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J42" s="201" t="s">
+      <c r="J42" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K42" s="28" t="s">
@@ -37777,7 +37774,7 @@
     </row>
     <row r="43" ht="15" spans="1:29">
       <c r="A43" s="34"/>
-      <c r="B43" s="191"/>
+      <c r="B43" s="190"/>
       <c r="C43" s="60"/>
       <c r="D43" s="31" t="s">
         <v>453</v>
@@ -37785,7 +37782,7 @@
       <c r="E43" s="63" t="s">
         <v>454</v>
       </c>
-      <c r="F43" s="189"/>
+      <c r="F43" s="188"/>
       <c r="G43" s="60"/>
       <c r="H43" s="65" t="s">
         <v>455</v>
@@ -37793,7 +37790,7 @@
       <c r="I43" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J43" s="201" t="s">
+      <c r="J43" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K43" s="34"/>
@@ -37818,7 +37815,7 @@
     </row>
     <row r="44" ht="126" customHeight="1" spans="1:29">
       <c r="A44" s="34"/>
-      <c r="B44" s="188" t="s">
+      <c r="B44" s="187" t="s">
         <v>456</v>
       </c>
       <c r="C44" s="31" t="s">
@@ -37830,20 +37827,20 @@
       <c r="E44" s="63" t="s">
         <v>459</v>
       </c>
-      <c r="F44" s="178" t="s">
+      <c r="F44" s="177" t="s">
         <v>460</v>
       </c>
       <c r="G44" s="60"/>
-      <c r="H44" s="195" t="s">
+      <c r="H44" s="194" t="s">
         <v>364</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J44" s="204" t="s">
+      <c r="J44" s="203" t="s">
         <v>461</v>
       </c>
-      <c r="K44" s="202"/>
+      <c r="K44" s="201"/>
       <c r="L44" s="28" t="s">
         <v>283</v>
       </c>
@@ -37872,7 +37869,7 @@
       <c r="B45" s="169" t="s">
         <v>463</v>
       </c>
-      <c r="C45" s="181" t="s">
+      <c r="C45" s="180" t="s">
         <v>464</v>
       </c>
       <c r="D45" s="31" t="s">
@@ -37881,7 +37878,7 @@
       <c r="E45" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="F45" s="186" t="s">
+      <c r="F45" s="185" t="s">
         <v>150</v>
       </c>
       <c r="G45" s="28" t="s">
@@ -37893,7 +37890,7 @@
       <c r="I45" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J45" s="201" t="s">
+      <c r="J45" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K45" s="28" t="s">
@@ -37936,7 +37933,7 @@
       <c r="E46" s="111" t="s">
         <v>470</v>
       </c>
-      <c r="F46" s="196" t="s">
+      <c r="F46" s="195" t="s">
         <v>471</v>
       </c>
       <c r="G46" s="28" t="s">
@@ -37948,7 +37945,7 @@
       <c r="I46" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="J46" s="201" t="s">
+      <c r="J46" s="200" t="s">
         <v>282</v>
       </c>
       <c r="K46" s="113" t="s">
@@ -37977,19 +37974,19 @@
     </row>
     <row r="47" ht="69.75" customHeight="1" spans="1:29">
       <c r="A47" s="150"/>
-      <c r="B47" s="197" t="s">
+      <c r="B47" s="196" t="s">
         <v>472</v>
       </c>
-      <c r="C47" s="198" t="s">
+      <c r="C47" s="197" t="s">
         <v>473</v>
       </c>
-      <c r="D47" s="196" t="s">
+      <c r="D47" s="195" t="s">
         <v>474</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="196" t="s">
+      <c r="F47" s="195" t="s">
         <v>475</v>
       </c>
       <c r="G47" s="39"/>
@@ -37999,7 +37996,7 @@
       <c r="I47" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="J47" s="205" t="s">
+      <c r="J47" s="204" t="s">
         <v>282</v>
       </c>
       <c r="K47" s="113" t="s">
@@ -38045,7 +38042,7 @@
       <c r="F48" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="G48" s="199" t="s">
+      <c r="G48" s="198" t="s">
         <v>186</v>
       </c>
       <c r="H48" s="96" t="s">
@@ -38054,7 +38051,7 @@
       <c r="I48" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="J48" s="206" t="s">
+      <c r="J48" s="205" t="s">
         <v>282</v>
       </c>
       <c r="K48" s="12" t="s">
@@ -38088,7 +38085,7 @@
       <c r="D49" s="57"/>
       <c r="E49" s="57"/>
       <c r="F49" s="57"/>
-      <c r="G49" s="200"/>
+      <c r="G49" s="199"/>
       <c r="H49" s="57"/>
       <c r="I49" s="57"/>
       <c r="J49" s="57"/>
@@ -42846,19 +42843,19 @@
         <v>187</v>
       </c>
       <c r="J8" s="60"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="172"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="172"/>
-      <c r="P8" s="172"/>
-      <c r="Q8" s="172"/>
-      <c r="R8" s="172"/>
-      <c r="S8" s="172"/>
-      <c r="T8" s="172"/>
-      <c r="U8" s="172"/>
-      <c r="V8" s="172"/>
-      <c r="W8" s="172"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="171"/>
+      <c r="O8" s="171"/>
+      <c r="P8" s="171"/>
+      <c r="Q8" s="171"/>
+      <c r="R8" s="171"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
       <c r="X8" s="59"/>
     </row>
     <row r="9" ht="30" spans="1:24">
@@ -42888,19 +42885,19 @@
         <v>187</v>
       </c>
       <c r="J9" s="60"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="172"/>
-      <c r="M9" s="172"/>
-      <c r="N9" s="172"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="172"/>
-      <c r="S9" s="172"/>
-      <c r="T9" s="172"/>
-      <c r="U9" s="172"/>
-      <c r="V9" s="172"/>
-      <c r="W9" s="172"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="171"/>
+      <c r="R9" s="171"/>
+      <c r="S9" s="171"/>
+      <c r="T9" s="171"/>
+      <c r="U9" s="171"/>
+      <c r="V9" s="171"/>
+      <c r="W9" s="171"/>
       <c r="X9" s="59"/>
     </row>
     <row r="10" ht="30" spans="1:24">
@@ -42930,19 +42927,19 @@
         <v>187</v>
       </c>
       <c r="J10" s="60"/>
-      <c r="K10" s="172"/>
-      <c r="L10" s="172"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="172"/>
-      <c r="R10" s="172"/>
-      <c r="S10" s="172"/>
-      <c r="T10" s="172"/>
-      <c r="U10" s="172"/>
-      <c r="V10" s="172"/>
-      <c r="W10" s="172"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="171"/>
+      <c r="Q10" s="171"/>
+      <c r="R10" s="171"/>
+      <c r="S10" s="171"/>
+      <c r="T10" s="171"/>
+      <c r="U10" s="171"/>
+      <c r="V10" s="171"/>
+      <c r="W10" s="171"/>
       <c r="X10" s="59"/>
     </row>
     <row r="11" ht="30" spans="1:24">
@@ -42972,19 +42969,19 @@
         <v>187</v>
       </c>
       <c r="J11" s="60"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="172"/>
-      <c r="O11" s="172"/>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="172"/>
-      <c r="R11" s="172"/>
-      <c r="S11" s="172"/>
-      <c r="T11" s="172"/>
-      <c r="U11" s="172"/>
-      <c r="V11" s="172"/>
-      <c r="W11" s="172"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="171"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="171"/>
+      <c r="T11" s="171"/>
+      <c r="U11" s="171"/>
+      <c r="V11" s="171"/>
+      <c r="W11" s="171"/>
       <c r="X11" s="59"/>
     </row>
     <row r="12" ht="45" spans="1:24">
@@ -43014,19 +43011,19 @@
         <v>187</v>
       </c>
       <c r="J12" s="60"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="172"/>
-      <c r="O12" s="172"/>
-      <c r="P12" s="172"/>
-      <c r="Q12" s="172"/>
-      <c r="R12" s="172"/>
-      <c r="S12" s="172"/>
-      <c r="T12" s="172"/>
-      <c r="U12" s="172"/>
-      <c r="V12" s="172"/>
-      <c r="W12" s="172"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="171"/>
+      <c r="P12" s="171"/>
+      <c r="Q12" s="171"/>
+      <c r="R12" s="171"/>
+      <c r="S12" s="171"/>
+      <c r="T12" s="171"/>
+      <c r="U12" s="171"/>
+      <c r="V12" s="171"/>
+      <c r="W12" s="171"/>
       <c r="X12" s="59"/>
     </row>
     <row r="13" ht="30" spans="1:24">
@@ -43056,19 +43053,19 @@
         <v>187</v>
       </c>
       <c r="J13" s="60"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="172"/>
-      <c r="M13" s="172"/>
-      <c r="N13" s="172"/>
-      <c r="O13" s="172"/>
-      <c r="P13" s="172"/>
-      <c r="Q13" s="172"/>
-      <c r="R13" s="172"/>
-      <c r="S13" s="172"/>
-      <c r="T13" s="172"/>
-      <c r="U13" s="172"/>
-      <c r="V13" s="172"/>
-      <c r="W13" s="172"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="171"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="171"/>
+      <c r="Q13" s="171"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="171"/>
+      <c r="T13" s="171"/>
+      <c r="U13" s="171"/>
+      <c r="V13" s="171"/>
+      <c r="W13" s="171"/>
       <c r="X13" s="59"/>
     </row>
     <row r="14" ht="54" customHeight="1" spans="1:24">
@@ -43098,19 +43095,19 @@
         <v>187</v>
       </c>
       <c r="J14" s="60"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="172"/>
-      <c r="M14" s="172"/>
-      <c r="N14" s="172"/>
-      <c r="O14" s="172"/>
-      <c r="P14" s="172"/>
-      <c r="Q14" s="172"/>
-      <c r="R14" s="172"/>
-      <c r="S14" s="172"/>
-      <c r="T14" s="172"/>
-      <c r="U14" s="172"/>
-      <c r="V14" s="172"/>
-      <c r="W14" s="172"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="171"/>
+      <c r="P14" s="171"/>
+      <c r="Q14" s="171"/>
+      <c r="R14" s="171"/>
+      <c r="S14" s="171"/>
+      <c r="T14" s="171"/>
+      <c r="U14" s="171"/>
+      <c r="V14" s="171"/>
+      <c r="W14" s="171"/>
       <c r="X14" s="59"/>
     </row>
     <row r="15" ht="30" spans="1:24">
@@ -43181,7 +43178,7 @@
       <c r="I16" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="J16" s="173"/>
+      <c r="J16" s="172"/>
       <c r="K16" s="91"/>
       <c r="L16" s="91"/>
       <c r="M16" s="91"/>
@@ -43248,7 +43245,7 @@
       <c r="B18" s="53" t="s">
         <v>490</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="C18" s="46" t="s">
         <v>544</v>
       </c>
       <c r="D18" s="53" t="s">
@@ -43292,7 +43289,7 @@
       <c r="B19" s="53" t="s">
         <v>549</v>
       </c>
-      <c r="C19" s="171" t="s">
+      <c r="C19" s="46" t="s">
         <v>550</v>
       </c>
       <c r="D19" s="53" t="s">
@@ -43380,7 +43377,7 @@
       <c r="B21" s="53" t="s">
         <v>558</v>
       </c>
-      <c r="C21" s="171" t="s">
+      <c r="C21" s="46" t="s">
         <v>559</v>
       </c>
       <c r="D21" s="53" t="s">
@@ -48060,7 +48057,7 @@
   <sheetPr/>
   <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
@@ -51231,10 +51228,10 @@
   <sheetPr/>
   <dimension ref="A1:X189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/assest/20240626-解放项目-语音指令表-v1.0.1.xlsx
+++ b/assest/20240626-解放项目-语音指令表-v1.0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13608" windowHeight="8507" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="14651" windowHeight="6744" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="19" r:id="rId1"/>
@@ -7331,7 +7331,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -7406,10 +7406,10 @@
   <sheetPr/>
   <dimension ref="A1:AC204"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -8050,7 +8050,7 @@
       <c r="AB13" s="59"/>
       <c r="AC13" s="59"/>
     </row>
-    <row r="14" ht="55.5" customHeight="1" spans="1:29">
+    <row r="14" ht="131" customHeight="1" spans="1:29">
       <c r="A14" s="86"/>
       <c r="B14" s="82" t="s">
         <v>906</v>
@@ -8099,7 +8099,7 @@
       <c r="AB14" s="59"/>
       <c r="AC14" s="59"/>
     </row>
-    <row r="15" ht="222.75" customHeight="1" spans="1:29">
+    <row r="15" ht="301" customHeight="1" spans="1:29">
       <c r="A15" s="86"/>
       <c r="B15" s="82" t="s">
         <v>911</v>
@@ -14042,10 +14042,10 @@
   <sheetPr/>
   <dimension ref="A1:AC125"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -15857,7 +15857,7 @@
       <c r="AB40" s="59"/>
       <c r="AC40" s="59"/>
     </row>
-    <row r="41" ht="30" spans="1:29">
+    <row r="41" ht="107" customHeight="1" spans="1:29">
       <c r="A41" s="44" t="s">
         <v>922</v>
       </c>
@@ -18701,8 +18701,8 @@
   <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5"/>
@@ -24486,10 +24486,10 @@
   <sheetPr/>
   <dimension ref="A1:AA179"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -30045,10 +30045,10 @@
   <sheetPr/>
   <dimension ref="A1:X200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -35655,9 +35655,9 @@
   <dimension ref="A1:AC189"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -42491,7 +42491,7 @@
   <dimension ref="A1:X199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
@@ -48057,10 +48057,10 @@
   <sheetPr/>
   <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/assest/20240626-解放项目-语音指令表-v1.0.1.xlsx
+++ b/assest/20240626-解放项目-语音指令表-v1.0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14651" windowHeight="6744" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9060" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="19" r:id="rId1"/>
@@ -4509,12 +4509,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>1.若当前温度已达到上限，回复：当前已经是最大温度啦
 2.若当前温度加上调高的温度后超过上限，回复：最高温度只支持**度哦，已为您调到**度</t>
     </r>
@@ -14043,9 +14037,9 @@
   <dimension ref="A1:AC125"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -24486,8 +24480,8 @@
   <sheetPr/>
   <dimension ref="A1:AA179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
@@ -42490,10 +42484,10 @@
   <sheetPr/>
   <dimension ref="A1:X199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -48057,10 +48051,10 @@
   <sheetPr/>
   <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/assest/20240626-解放项目-语音指令表-v1.0.1.xlsx
+++ b/assest/20240626-解放项目-语音指令表-v1.0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="22188" windowHeight="9060" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="19" r:id="rId1"/>
@@ -4509,6 +4509,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.若当前温度已达到上限，回复：当前已经是最大温度啦
 2.若当前温度加上调高的温度后超过上限，回复：最高温度只支持**度哦，已为您调到**度</t>
     </r>
@@ -30040,9 +30046,9 @@
   <dimension ref="A1:X200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -42484,10 +42490,10 @@
   <sheetPr/>
   <dimension ref="A1:X199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -48051,10 +48057,10 @@
   <sheetPr/>
   <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -51222,8 +51228,8 @@
   <sheetPr/>
   <dimension ref="A1:X189"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>

--- a/assest/20240626-解放项目-语音指令表-v1.0.1.xlsx
+++ b/assest/20240626-解放项目-语音指令表-v1.0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="22188" windowHeight="9060" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="19" r:id="rId1"/>
@@ -30046,9 +30046,9 @@
   <dimension ref="A1:X200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -35655,7 +35655,7 @@
   <dimension ref="A1:AC189"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
@@ -42490,10 +42490,10 @@
   <sheetPr/>
   <dimension ref="A1:X199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -48057,10 +48057,10 @@
   <sheetPr/>
   <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
